--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_19_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_19_17.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>283072.5243935207</v>
+        <v>283072.5243935208</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18447010.16461287</v>
+        <v>18447010.16461288</v>
       </c>
     </row>
     <row r="9">
@@ -656,67 +656,67 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.9757828529239987</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>144.6751566710423</v>
-      </c>
-      <c r="C2" t="n">
-        <v>120.338197368122</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>7.091680627731961</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>144.6751566710423</v>
@@ -725,7 +725,7 @@
         <v>144.6751566710423</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>126.45409514293</v>
       </c>
     </row>
     <row r="3">
@@ -744,19 +744,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>93.89097702332717</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.2469034849667</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>101.6444647650348</v>
       </c>
       <c r="I3" t="n">
-        <v>61.76616344642424</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>23.23168261818574</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>77.59326173053483</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>69.63562555314093</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>19.59281863505177</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -853,10 +853,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>8.508606056834793</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>11.08421257821694</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -893,59 +893,59 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>144.6751566710423</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>119.362414515198</v>
+      </c>
+      <c r="J5" t="n">
+        <v>7.091680627731961</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.9757828529239987</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
         <v>144.6751566710423</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="Y5" t="n">
-        <v>127.429877995854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -981,19 +981,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.2469034849667</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>50.86028511731967</v>
       </c>
       <c r="I6" t="n">
-        <v>26.60493364713345</v>
+        <v>61.76616344642424</v>
       </c>
       <c r="J6" t="n">
         <v>23.23168261818574</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>77.59326173053483</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>19.59281863505174</v>
+        <v>11.08421257821694</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1090,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>8.508606056834793</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1139,58 +1139,58 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>166.7824266983283</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>166.7824266983283</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
         <v>146.9019614358876</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>166.7824266983283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1215,25 +1215,25 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>27.88519179157995</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.2021972754605</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>101.2126968995411</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>60.22693649632168</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>19.00792621918458</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1260,16 +1260,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>146.9019614358875</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>166.7824266983283</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>166.7824266983283</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>166.7824266983283</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1312,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>18.58848558840398</v>
+        <v>18.58848558840383</v>
       </c>
       <c r="K10" t="n">
-        <v>17.84535296940157</v>
+        <v>17.8453529694016</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1376,16 +1376,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>39.70122005611984</v>
       </c>
       <c r="F11" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="G11" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="H11" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="I11" t="n">
         <v>125.4713171199747</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>39.70122005612006</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1446,13 +1446,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>40.58439354511568</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1461,16 +1461,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>34.60461046097183</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>15.37922103265832</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1500,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1549,10 +1549,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>38.1116363604059</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,10 +1567,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>18.10760906709379</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>34.10833718734101</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1610,22 +1610,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="E14" t="n">
-        <v>39.70122005611984</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="F14" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="G14" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,10 +1652,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>88.09081815943064</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1683,13 +1683,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>38.7198751279086</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>165.1725371760946</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="Y15" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663198</v>
       </c>
     </row>
     <row r="16">
@@ -1804,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>18.10760906709386</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>34.10833718734057</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>52.21594625443442</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>165.1725371760944</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>165.1725371760945</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1920,16 +1920,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>165.1725371760946</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1983,13 +1983,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>27.95772738249211</v>
       </c>
       <c r="Y18" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
     </row>
     <row r="19">
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>52.21594625443442</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>52.21594625443443</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2090,16 +2090,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>187.5255871663199</v>
+        <v>6.396723986041431</v>
       </c>
       <c r="G20" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>187.5255871663199</v>
       </c>
       <c r="I20" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W20" t="n">
-        <v>39.70122005611984</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="21">
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>165.1725371760946</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>15.40229248514497</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T21" t="n">
         <v>187.5255871663199</v>
@@ -2217,13 +2217,13 @@
         <v>187.5255871663199</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2278,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>18.10760906709386</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>52.21594625443434</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>34.10833718734057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2369,22 +2369,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>165.1725371760945</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
         <v>187.5255871663199</v>
       </c>
-      <c r="U23" t="n">
+      <c r="Y23" t="n">
         <v>187.5255871663199</v>
-      </c>
-      <c r="V23" t="n">
-        <v>165.1725371760946</v>
-      </c>
-      <c r="W23" t="n">
-        <v>187.5255871663199</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2406,7 +2406,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>122.6201482585503</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2445,16 +2445,16 @@
         <v>72.4328956284632</v>
       </c>
       <c r="S24" t="n">
-        <v>122.6201482585503</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>187.5255871663199</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V24" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
         <v>52.21594625443443</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2555,22 +2555,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>187.5255871663199</v>
       </c>
-      <c r="D26" t="n">
+      <c r="G26" t="n">
+        <v>187.5255871663199</v>
+      </c>
+      <c r="H26" t="n">
         <v>88.09081815943084</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,13 +2606,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U26" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2634,19 +2634,19 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>22.34454489869785</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>87.73917396899995</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2694,13 +2694,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y27" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>52.21594625443434</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>52.21594625443443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2846,19 +2846,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
+        <v>187.52558716632</v>
+      </c>
+      <c r="V29" t="n">
+        <v>187.52558716632</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
         <v>165.1725371760945</v>
       </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>187.5255871663199</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
       <c r="Y29" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2874,16 +2874,16 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>17.63145746684761</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2916,25 +2916,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>72.4328956284632</v>
+        <v>15.40229248514497</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X30" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2992,16 +2992,16 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
         <v>52.21594625443443</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3032,22 +3032,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
         <v>187.5255871663199</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>39.70122005611984</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3089,13 +3089,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>165.1725371760945</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3108,13 +3108,13 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>15.40229248514491</v>
+        <v>30.2193806631491</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3159,10 +3159,10 @@
         <v>149.7702446909496</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U33" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3174,7 +3174,7 @@
         <v>187.5255871663199</v>
       </c>
       <c r="Y33" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
         <v>52.21594625443434</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>165.1725371760946</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3275,13 +3275,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>187.5255871663199</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>165.1725371760946</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,10 +3317,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,16 +3342,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>60.09988737406808</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3393,25 +3393,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>186.1649406925471</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>52.21594625443434</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>52.21594625443443</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
         <v>187.5255871663199</v>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>165.1725371760946</v>
-      </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3560,16 +3560,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X38" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3582,10 +3582,10 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>22.34454489869785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -3630,16 +3630,16 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>45.28279919606386</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W39" t="n">
         <v>187.5255871663199</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>52.21594625443434</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>187.5255871663199</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="H41" t="n">
         <v>187.5255871663199</v>
@@ -3785,13 +3785,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>165.1725371760945</v>
+        <v>88.09081815943075</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3800,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3882,10 +3882,10 @@
         <v>187.5255871663199</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="Y42" t="n">
-        <v>165.1725371760946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>52.21594625443434</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3977,19 +3977,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
         <v>187.5255871663199</v>
       </c>
-      <c r="D44" t="n">
-        <v>165.1725371760946</v>
-      </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4034,16 +4034,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>187.5255871663199</v>
-      </c>
-      <c r="W44" t="n">
-        <v>187.5255871663199</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4110,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>187.5255871663199</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="V45" t="n">
         <v>187.5255871663199</v>
@@ -4119,7 +4119,7 @@
         <v>187.5255871663199</v>
       </c>
       <c r="X45" t="n">
-        <v>165.1725371760946</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>52.21594625443443</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>140.291061014344</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="C2" t="n">
-        <v>18.7373262990692</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="D2" t="n">
-        <v>18.7373262990692</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="E2" t="n">
-        <v>18.7373262990692</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="F2" t="n">
-        <v>18.7373262990692</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="G2" t="n">
-        <v>18.7373262990692</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="H2" t="n">
-        <v>18.7373262990692</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="I2" t="n">
-        <v>18.7373262990692</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="J2" t="n">
         <v>11.57401253368338</v>
@@ -4349,31 +4349,31 @@
         <v>578.7006266841692</v>
       </c>
       <c r="Q2" t="n">
-        <v>578.7006266841692</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="R2" t="n">
-        <v>578.7006266841692</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="S2" t="n">
-        <v>578.7006266841692</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="T2" t="n">
-        <v>578.7006266841692</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="U2" t="n">
-        <v>578.7006266841692</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="V2" t="n">
-        <v>578.7006266841692</v>
+        <v>431.5784655488496</v>
       </c>
       <c r="W2" t="n">
-        <v>432.5641047942274</v>
+        <v>285.4419436589079</v>
       </c>
       <c r="X2" t="n">
-        <v>286.4275829042857</v>
+        <v>139.3054217689662</v>
       </c>
       <c r="Y2" t="n">
-        <v>286.4275829042857</v>
+        <v>11.57401253368338</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>578.7006266841692</v>
+        <v>137.7115351429971</v>
       </c>
       <c r="C3" t="n">
-        <v>578.7006266841692</v>
+        <v>137.7115351429971</v>
       </c>
       <c r="D3" t="n">
-        <v>578.7006266841692</v>
+        <v>137.7115351429971</v>
       </c>
       <c r="E3" t="n">
-        <v>483.8612559535356</v>
+        <v>137.7115351429971</v>
       </c>
       <c r="F3" t="n">
-        <v>337.7247340635939</v>
+        <v>137.7115351429971</v>
       </c>
       <c r="G3" t="n">
-        <v>200.1015992302943</v>
+        <v>137.7115351429971</v>
       </c>
       <c r="H3" t="n">
-        <v>97.4304226999561</v>
+        <v>35.04035861265888</v>
       </c>
       <c r="I3" t="n">
         <v>35.04035861265888</v>
@@ -4410,19 +4410,19 @@
         <v>11.57401253368338</v>
       </c>
       <c r="K3" t="n">
-        <v>50.41925783498756</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="L3" t="n">
-        <v>148.9740250987618</v>
+        <v>110.1287797974577</v>
       </c>
       <c r="M3" t="n">
-        <v>243.6629351576686</v>
+        <v>244.4944128384901</v>
       </c>
       <c r="N3" t="n">
-        <v>386.8913402620005</v>
+        <v>387.722817942822</v>
       </c>
       <c r="O3" t="n">
-        <v>504.0242257254407</v>
+        <v>504.8557034062623</v>
       </c>
       <c r="P3" t="n">
         <v>578.7006266841692</v>
@@ -4431,28 +4431,28 @@
         <v>578.7006266841692</v>
       </c>
       <c r="R3" t="n">
-        <v>578.7006266841692</v>
+        <v>500.3235946331239</v>
       </c>
       <c r="S3" t="n">
-        <v>578.7006266841692</v>
+        <v>354.1870727431822</v>
       </c>
       <c r="T3" t="n">
-        <v>578.7006266841692</v>
+        <v>208.0505508532405</v>
       </c>
       <c r="U3" t="n">
-        <v>578.7006266841692</v>
+        <v>137.7115351429971</v>
       </c>
       <c r="V3" t="n">
-        <v>578.7006266841692</v>
+        <v>137.7115351429971</v>
       </c>
       <c r="W3" t="n">
-        <v>578.7006266841692</v>
+        <v>137.7115351429971</v>
       </c>
       <c r="X3" t="n">
-        <v>578.7006266841692</v>
+        <v>137.7115351429971</v>
       </c>
       <c r="Y3" t="n">
-        <v>578.7006266841692</v>
+        <v>137.7115351429971</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31.36473842767507</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="C4" t="n">
-        <v>31.36473842767507</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="D4" t="n">
-        <v>31.36473842767507</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="E4" t="n">
-        <v>31.36473842767507</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="F4" t="n">
-        <v>31.36473842767507</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="G4" t="n">
-        <v>31.36473842767507</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="H4" t="n">
-        <v>31.36473842767507</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="I4" t="n">
-        <v>31.36473842767507</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="J4" t="n">
-        <v>31.36473842767507</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="K4" t="n">
         <v>11.57401253368338</v>
@@ -4498,40 +4498,40 @@
         <v>18.49252890534889</v>
       </c>
       <c r="N4" t="n">
-        <v>31.36473842767507</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="O4" t="n">
-        <v>31.36473842767507</v>
+        <v>22.77018685511464</v>
       </c>
       <c r="P4" t="n">
-        <v>31.36473842767507</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="Q4" t="n">
-        <v>31.36473842767507</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="R4" t="n">
-        <v>31.36473842767507</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="S4" t="n">
-        <v>31.36473842767507</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="T4" t="n">
-        <v>31.36473842767507</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="U4" t="n">
-        <v>31.36473842767507</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="V4" t="n">
-        <v>31.36473842767507</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="W4" t="n">
-        <v>31.36473842767507</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="X4" t="n">
-        <v>31.36473842767507</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="Y4" t="n">
-        <v>31.36473842767507</v>
+        <v>11.57401253368338</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>303.8470563135668</v>
+        <v>285.4419436589079</v>
       </c>
       <c r="C5" t="n">
-        <v>157.7105344236251</v>
+        <v>139.3054217689662</v>
       </c>
       <c r="D5" t="n">
-        <v>11.57401253368338</v>
+        <v>139.3054217689662</v>
       </c>
       <c r="E5" t="n">
-        <v>11.57401253368338</v>
+        <v>139.3054217689662</v>
       </c>
       <c r="F5" t="n">
-        <v>11.57401253368338</v>
+        <v>139.3054217689662</v>
       </c>
       <c r="G5" t="n">
-        <v>11.57401253368338</v>
+        <v>139.3054217689662</v>
       </c>
       <c r="H5" t="n">
-        <v>11.57401253368338</v>
+        <v>139.3054217689662</v>
       </c>
       <c r="I5" t="n">
-        <v>11.57401253368338</v>
+        <v>18.7373262990692</v>
       </c>
       <c r="J5" t="n">
         <v>11.57401253368338</v>
@@ -4586,31 +4586,31 @@
         <v>578.7006266841692</v>
       </c>
       <c r="Q5" t="n">
-        <v>578.7006266841692</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="R5" t="n">
-        <v>578.7006266841692</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="S5" t="n">
-        <v>578.7006266841692</v>
+        <v>431.5784655488496</v>
       </c>
       <c r="T5" t="n">
-        <v>578.7006266841692</v>
+        <v>431.5784655488496</v>
       </c>
       <c r="U5" t="n">
-        <v>578.7006266841692</v>
+        <v>431.5784655488496</v>
       </c>
       <c r="V5" t="n">
-        <v>578.7006266841692</v>
+        <v>431.5784655488496</v>
       </c>
       <c r="W5" t="n">
-        <v>578.7006266841692</v>
+        <v>431.5784655488496</v>
       </c>
       <c r="X5" t="n">
-        <v>578.7006266841692</v>
+        <v>285.4419436589079</v>
       </c>
       <c r="Y5" t="n">
-        <v>449.9835782035085</v>
+        <v>285.4419436589079</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>61.91402896329873</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="C6" t="n">
-        <v>61.91402896329873</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="D6" t="n">
-        <v>61.91402896329873</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="E6" t="n">
-        <v>61.91402896329873</v>
+        <v>432.5641047942274</v>
       </c>
       <c r="F6" t="n">
-        <v>61.91402896329873</v>
+        <v>286.4275829042857</v>
       </c>
       <c r="G6" t="n">
-        <v>61.91402896329873</v>
+        <v>148.8044480709861</v>
       </c>
       <c r="H6" t="n">
-        <v>61.91402896329873</v>
+        <v>97.4304226999561</v>
       </c>
       <c r="I6" t="n">
         <v>35.04035861265888</v>
@@ -4650,16 +4650,16 @@
         <v>50.41925783498756</v>
       </c>
       <c r="L6" t="n">
-        <v>109.2973021166361</v>
+        <v>148.9740250987618</v>
       </c>
       <c r="M6" t="n">
-        <v>243.6629351576686</v>
+        <v>283.3396581397943</v>
       </c>
       <c r="N6" t="n">
-        <v>386.8913402620005</v>
+        <v>426.5680632441262</v>
       </c>
       <c r="O6" t="n">
-        <v>504.0242257254407</v>
+        <v>543.7009487075663</v>
       </c>
       <c r="P6" t="n">
         <v>578.7006266841692</v>
@@ -4668,28 +4668,28 @@
         <v>578.7006266841692</v>
       </c>
       <c r="R6" t="n">
-        <v>500.3235946331239</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="S6" t="n">
-        <v>354.1870727431822</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="T6" t="n">
-        <v>208.0505508532405</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="U6" t="n">
-        <v>61.91402896329873</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="V6" t="n">
-        <v>61.91402896329873</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="W6" t="n">
-        <v>61.91402896329873</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="X6" t="n">
-        <v>61.91402896329873</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="Y6" t="n">
-        <v>61.91402896329873</v>
+        <v>578.7006266841692</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31.36473842767504</v>
+        <v>22.77018685511464</v>
       </c>
       <c r="C7" t="n">
-        <v>31.36473842767504</v>
+        <v>22.77018685511464</v>
       </c>
       <c r="D7" t="n">
-        <v>31.36473842767504</v>
+        <v>22.77018685511464</v>
       </c>
       <c r="E7" t="n">
-        <v>31.36473842767504</v>
+        <v>22.77018685511464</v>
       </c>
       <c r="F7" t="n">
-        <v>31.36473842767504</v>
+        <v>22.77018685511464</v>
       </c>
       <c r="G7" t="n">
-        <v>31.36473842767504</v>
+        <v>22.77018685511464</v>
       </c>
       <c r="H7" t="n">
-        <v>31.36473842767504</v>
+        <v>22.77018685511464</v>
       </c>
       <c r="I7" t="n">
-        <v>31.36473842767504</v>
+        <v>22.77018685511464</v>
       </c>
       <c r="J7" t="n">
-        <v>31.36473842767504</v>
+        <v>22.77018685511464</v>
       </c>
       <c r="K7" t="n">
         <v>11.57401253368338</v>
@@ -4738,37 +4738,37 @@
         <v>31.36473842767504</v>
       </c>
       <c r="O7" t="n">
-        <v>31.36473842767504</v>
+        <v>22.77018685511464</v>
       </c>
       <c r="P7" t="n">
-        <v>31.36473842767504</v>
+        <v>22.77018685511464</v>
       </c>
       <c r="Q7" t="n">
-        <v>31.36473842767504</v>
+        <v>22.77018685511464</v>
       </c>
       <c r="R7" t="n">
-        <v>31.36473842767504</v>
+        <v>22.77018685511464</v>
       </c>
       <c r="S7" t="n">
-        <v>31.36473842767504</v>
+        <v>22.77018685511464</v>
       </c>
       <c r="T7" t="n">
-        <v>31.36473842767504</v>
+        <v>22.77018685511464</v>
       </c>
       <c r="U7" t="n">
-        <v>31.36473842767504</v>
+        <v>22.77018685511464</v>
       </c>
       <c r="V7" t="n">
-        <v>31.36473842767504</v>
+        <v>22.77018685511464</v>
       </c>
       <c r="W7" t="n">
-        <v>31.36473842767504</v>
+        <v>22.77018685511464</v>
       </c>
       <c r="X7" t="n">
-        <v>31.36473842767504</v>
+        <v>22.77018685511464</v>
       </c>
       <c r="Y7" t="n">
-        <v>31.36473842767504</v>
+        <v>22.77018685511464</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>498.6626091182342</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="C8" t="n">
-        <v>498.6626091182342</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="D8" t="n">
-        <v>498.6626091182342</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="E8" t="n">
-        <v>330.1955114431551</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="F8" t="n">
-        <v>161.7284137680759</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="G8" t="n">
         <v>13.34259413586627</v>
@@ -4802,52 +4802,52 @@
         <v>13.34259413586627</v>
       </c>
       <c r="J8" t="n">
+        <v>13.34259413586626</v>
+      </c>
+      <c r="K8" t="n">
+        <v>64.0811123818437</v>
+      </c>
+      <c r="L8" t="n">
+        <v>163.9284927306054</v>
+      </c>
+      <c r="M8" t="n">
+        <v>306.6973793432479</v>
+      </c>
+      <c r="N8" t="n">
+        <v>456.3902241803914</v>
+      </c>
+      <c r="O8" t="n">
+        <v>584.4056715233287</v>
+      </c>
+      <c r="P8" t="n">
+        <v>659.1628932295215</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>667.1297067933134</v>
+      </c>
+      <c r="R8" t="n">
+        <v>667.1297067933134</v>
+      </c>
+      <c r="S8" t="n">
+        <v>518.7438871611037</v>
+      </c>
+      <c r="T8" t="n">
+        <v>350.2767894860245</v>
+      </c>
+      <c r="U8" t="n">
+        <v>181.8096918109454</v>
+      </c>
+      <c r="V8" t="n">
         <v>13.34259413586627</v>
       </c>
-      <c r="K8" t="n">
-        <v>64.08111238184307</v>
-      </c>
-      <c r="L8" t="n">
-        <v>163.9284927306049</v>
-      </c>
-      <c r="M8" t="n">
-        <v>306.6973793432476</v>
-      </c>
-      <c r="N8" t="n">
-        <v>456.3902241803911</v>
-      </c>
-      <c r="O8" t="n">
-        <v>584.4056715233285</v>
-      </c>
-      <c r="P8" t="n">
-        <v>659.1628932295214</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>667.1297067933133</v>
-      </c>
-      <c r="R8" t="n">
-        <v>667.1297067933133</v>
-      </c>
-      <c r="S8" t="n">
-        <v>667.1297067933133</v>
-      </c>
-      <c r="T8" t="n">
-        <v>667.1297067933133</v>
-      </c>
-      <c r="U8" t="n">
-        <v>667.1297067933133</v>
-      </c>
-      <c r="V8" t="n">
-        <v>667.1297067933133</v>
-      </c>
       <c r="W8" t="n">
-        <v>667.1297067933133</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="X8" t="n">
-        <v>667.1297067933133</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="Y8" t="n">
-        <v>498.6626091182342</v>
+        <v>13.34259413586627</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13.34259413586627</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="C9" t="n">
-        <v>13.34259413586627</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="D9" t="n">
-        <v>13.34259413586627</v>
+        <v>638.9628463977781</v>
       </c>
       <c r="E9" t="n">
-        <v>13.34259413586627</v>
+        <v>479.7253913923226</v>
       </c>
       <c r="F9" t="n">
-        <v>13.34259413586627</v>
+        <v>333.1908334192076</v>
       </c>
       <c r="G9" t="n">
-        <v>13.34259413586627</v>
+        <v>195.6128563732879</v>
       </c>
       <c r="H9" t="n">
-        <v>13.34259413586627</v>
+        <v>93.37780900001403</v>
       </c>
       <c r="I9" t="n">
-        <v>13.34259413586627</v>
+        <v>32.54251960979009</v>
       </c>
       <c r="J9" t="n">
         <v>13.34259413586627</v>
       </c>
       <c r="K9" t="n">
-        <v>59.33472114872544</v>
+        <v>33.10271968746866</v>
       </c>
       <c r="L9" t="n">
-        <v>167.499352853669</v>
+        <v>141.2673513924122</v>
       </c>
       <c r="M9" t="n">
-        <v>313.0792444295232</v>
+        <v>286.8472429682663</v>
       </c>
       <c r="N9" t="n">
-        <v>476.9208474646505</v>
+        <v>450.6888460033936</v>
       </c>
       <c r="O9" t="n">
-        <v>578.3521085265268</v>
+        <v>578.3521085265269</v>
       </c>
       <c r="P9" t="n">
-        <v>661.4800654500997</v>
+        <v>661.4800654500998</v>
       </c>
       <c r="Q9" t="n">
-        <v>667.1297067933133</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="R9" t="n">
-        <v>667.1297067933133</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="S9" t="n">
-        <v>518.7438871611037</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="T9" t="n">
-        <v>350.2767894860245</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="U9" t="n">
-        <v>181.8096918109454</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="V9" t="n">
-        <v>13.34259413586627</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="W9" t="n">
-        <v>13.34259413586627</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="X9" t="n">
-        <v>13.34259413586627</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="Y9" t="n">
-        <v>13.34259413586627</v>
+        <v>667.1297067933134</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>50.14445126496278</v>
+        <v>50.14445126496267</v>
       </c>
       <c r="C10" t="n">
-        <v>50.14445126496278</v>
+        <v>50.14445126496267</v>
       </c>
       <c r="D10" t="n">
-        <v>50.14445126496278</v>
+        <v>50.14445126496267</v>
       </c>
       <c r="E10" t="n">
-        <v>50.14445126496278</v>
+        <v>50.14445126496267</v>
       </c>
       <c r="F10" t="n">
-        <v>50.14445126496278</v>
+        <v>50.14445126496267</v>
       </c>
       <c r="G10" t="n">
-        <v>50.14445126496278</v>
+        <v>50.14445126496267</v>
       </c>
       <c r="H10" t="n">
-        <v>50.14445126496278</v>
+        <v>50.14445126496267</v>
       </c>
       <c r="I10" t="n">
-        <v>50.14445126496278</v>
+        <v>50.14445126496267</v>
       </c>
       <c r="J10" t="n">
-        <v>31.36820319586786</v>
+        <v>31.36820319586789</v>
       </c>
       <c r="K10" t="n">
         <v>13.34259413586627</v>
       </c>
       <c r="L10" t="n">
-        <v>20.64084305584017</v>
+        <v>20.64084305584014</v>
       </c>
       <c r="M10" t="n">
-        <v>31.59410626612423</v>
+        <v>31.59410626612414</v>
       </c>
       <c r="N10" t="n">
-        <v>50.14445126496278</v>
+        <v>50.14445126496267</v>
       </c>
       <c r="O10" t="n">
-        <v>50.14445126496278</v>
+        <v>50.14445126496267</v>
       </c>
       <c r="P10" t="n">
-        <v>50.14445126496278</v>
+        <v>50.14445126496267</v>
       </c>
       <c r="Q10" t="n">
-        <v>50.14445126496278</v>
+        <v>50.14445126496267</v>
       </c>
       <c r="R10" t="n">
-        <v>50.14445126496278</v>
+        <v>50.14445126496267</v>
       </c>
       <c r="S10" t="n">
-        <v>50.14445126496278</v>
+        <v>50.14445126496267</v>
       </c>
       <c r="T10" t="n">
-        <v>50.14445126496278</v>
+        <v>50.14445126496267</v>
       </c>
       <c r="U10" t="n">
-        <v>50.14445126496278</v>
+        <v>50.14445126496267</v>
       </c>
       <c r="V10" t="n">
-        <v>50.14445126496278</v>
+        <v>50.14445126496267</v>
       </c>
       <c r="W10" t="n">
-        <v>50.14445126496278</v>
+        <v>50.14445126496267</v>
       </c>
       <c r="X10" t="n">
-        <v>50.14445126496278</v>
+        <v>50.14445126496267</v>
       </c>
       <c r="Y10" t="n">
-        <v>50.14445126496278</v>
+        <v>50.14445126496267</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>710.0001061843515</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="C11" t="n">
-        <v>710.0001061843515</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="D11" t="n">
-        <v>710.0001061843515</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="E11" t="n">
-        <v>710.0001061843515</v>
+        <v>710.0001061843502</v>
       </c>
       <c r="F11" t="n">
-        <v>520.5803211678664</v>
+        <v>520.5803211678656</v>
       </c>
       <c r="G11" t="n">
-        <v>331.1605361513813</v>
+        <v>331.1605361513809</v>
       </c>
       <c r="H11" t="n">
         <v>141.7407511348962</v>
       </c>
       <c r="I11" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J11" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K11" t="n">
-        <v>80.81213159058962</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L11" t="n">
-        <v>191.8743094079188</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M11" t="n">
-        <v>347.121819064476</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N11" t="n">
-        <v>509.4952041123834</v>
+        <v>509.4952041123825</v>
       </c>
       <c r="O11" t="n">
-        <v>649.4845259985592</v>
+        <v>649.484525998558</v>
       </c>
       <c r="P11" t="n">
-        <v>734.4611726020275</v>
+        <v>734.4611726020262</v>
       </c>
       <c r="Q11" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R11" t="n">
-        <v>710.0001061843515</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="S11" t="n">
-        <v>710.0001061843515</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="T11" t="n">
-        <v>710.0001061843515</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="U11" t="n">
-        <v>710.0001061843515</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="V11" t="n">
-        <v>710.0001061843515</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="W11" t="n">
-        <v>710.0001061843515</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="X11" t="n">
-        <v>710.0001061843515</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="Y11" t="n">
-        <v>710.0001061843515</v>
+        <v>750.1023486652794</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>371.2627786323106</v>
+        <v>709.1080117510214</v>
       </c>
       <c r="C12" t="n">
-        <v>371.2627786323106</v>
+        <v>709.1080117510214</v>
       </c>
       <c r="D12" t="n">
-        <v>371.2627786323106</v>
+        <v>560.1736020897702</v>
       </c>
       <c r="E12" t="n">
-        <v>212.0253236268551</v>
+        <v>400.9361470843146</v>
       </c>
       <c r="F12" t="n">
-        <v>65.49076565374011</v>
+        <v>254.4015891111996</v>
       </c>
       <c r="G12" t="n">
-        <v>30.53661367296049</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="H12" t="n">
-        <v>30.53661367296049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I12" t="n">
-        <v>30.53661367296049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J12" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K12" t="n">
-        <v>67.13418877024196</v>
+        <v>67.13418877024213</v>
       </c>
       <c r="L12" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M12" t="n">
-        <v>338.7690911140247</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N12" t="n">
-        <v>512.5000587546606</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O12" t="n">
-        <v>649.2101578476354</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P12" t="n">
-        <v>739.5989987017073</v>
+        <v>739.5989987017063</v>
       </c>
       <c r="Q12" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R12" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="S12" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="T12" t="n">
-        <v>560.6825636487957</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="U12" t="n">
-        <v>560.6825636487957</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="V12" t="n">
-        <v>560.6825636487957</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="W12" t="n">
-        <v>560.6825636487957</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="X12" t="n">
-        <v>371.2627786323106</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="Y12" t="n">
-        <v>371.2627786323106</v>
+        <v>750.1023486652797</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.00204697330562</v>
+        <v>67.74542702828985</v>
       </c>
       <c r="C13" t="n">
-        <v>15.00204697330562</v>
+        <v>67.74542702828985</v>
       </c>
       <c r="D13" t="n">
-        <v>15.00204697330562</v>
+        <v>67.74542702828985</v>
       </c>
       <c r="E13" t="n">
-        <v>15.00204697330562</v>
+        <v>67.74542702828985</v>
       </c>
       <c r="F13" t="n">
-        <v>15.00204697330562</v>
+        <v>67.74542702828985</v>
       </c>
       <c r="G13" t="n">
-        <v>15.00204697330562</v>
+        <v>67.74542702828985</v>
       </c>
       <c r="H13" t="n">
-        <v>15.00204697330562</v>
+        <v>67.74542702828985</v>
       </c>
       <c r="I13" t="n">
-        <v>15.00204697330562</v>
+        <v>67.74542702828985</v>
       </c>
       <c r="J13" t="n">
-        <v>15.00204697330562</v>
+        <v>29.24882464404146</v>
       </c>
       <c r="K13" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L13" t="n">
-        <v>27.03967056230187</v>
+        <v>27.03967056230175</v>
       </c>
       <c r="M13" t="n">
-        <v>42.98993985170739</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N13" t="n">
-        <v>66.41847329396366</v>
+        <v>66.41847329396333</v>
       </c>
       <c r="O13" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828985</v>
       </c>
       <c r="P13" t="n">
-        <v>49.45491281910462</v>
+        <v>67.74542702828985</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.00204697330562</v>
+        <v>67.74542702828985</v>
       </c>
       <c r="R13" t="n">
-        <v>15.00204697330562</v>
+        <v>67.74542702828985</v>
       </c>
       <c r="S13" t="n">
-        <v>15.00204697330562</v>
+        <v>67.74542702828985</v>
       </c>
       <c r="T13" t="n">
-        <v>15.00204697330562</v>
+        <v>67.74542702828985</v>
       </c>
       <c r="U13" t="n">
-        <v>15.00204697330562</v>
+        <v>67.74542702828985</v>
       </c>
       <c r="V13" t="n">
-        <v>15.00204697330562</v>
+        <v>67.74542702828985</v>
       </c>
       <c r="W13" t="n">
-        <v>15.00204697330562</v>
+        <v>67.74542702828985</v>
       </c>
       <c r="X13" t="n">
-        <v>15.00204697330562</v>
+        <v>67.74542702828985</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.00204697330562</v>
+        <v>67.74542702828985</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>750.1023486652798</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="C14" t="n">
-        <v>750.1023486652798</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="D14" t="n">
-        <v>750.1023486652798</v>
+        <v>393.841617006275</v>
       </c>
       <c r="E14" t="n">
-        <v>710.0001061843507</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="F14" t="n">
-        <v>520.5803211678658</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G14" t="n">
-        <v>331.1605361513811</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H14" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I14" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J14" t="n">
         <v>21.03371160678478</v>
@@ -5288,40 +5288,40 @@
         <v>347.1218190644753</v>
       </c>
       <c r="N14" t="n">
-        <v>509.4952041123828</v>
+        <v>509.4952041123825</v>
       </c>
       <c r="O14" t="n">
-        <v>649.4845259985584</v>
+        <v>649.484525998558</v>
       </c>
       <c r="P14" t="n">
-        <v>734.4611726020266</v>
+        <v>734.4611726020262</v>
       </c>
       <c r="Q14" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R14" t="n">
-        <v>750.1023486652798</v>
+        <v>672.242026426225</v>
       </c>
       <c r="S14" t="n">
-        <v>750.1023486652798</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="T14" t="n">
-        <v>750.1023486652798</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="U14" t="n">
-        <v>750.1023486652798</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="V14" t="n">
-        <v>750.1023486652798</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="W14" t="n">
-        <v>750.1023486652798</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="X14" t="n">
-        <v>750.1023486652798</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="Y14" t="n">
-        <v>750.1023486652798</v>
+        <v>583.2614020227597</v>
       </c>
     </row>
     <row r="15">
@@ -5331,34 +5331,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15.0020469733056</v>
+        <v>163.9364566345569</v>
       </c>
       <c r="C15" t="n">
-        <v>15.0020469733056</v>
+        <v>163.9364566345569</v>
       </c>
       <c r="D15" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E15" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F15" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G15" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H15" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I15" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J15" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K15" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024213</v>
       </c>
       <c r="L15" t="n">
         <v>183.5548280772649</v>
@@ -5370,37 +5370,37 @@
         <v>512.5000587546601</v>
       </c>
       <c r="O15" t="n">
-        <v>649.2101578476349</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P15" t="n">
-        <v>739.5989987017064</v>
+        <v>739.5989987017063</v>
       </c>
       <c r="Q15" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R15" t="n">
-        <v>750.1023486652798</v>
+        <v>710.9913636875942</v>
       </c>
       <c r="S15" t="n">
-        <v>750.1023486652798</v>
+        <v>710.9913636875942</v>
       </c>
       <c r="T15" t="n">
-        <v>583.26140202276</v>
+        <v>710.9913636875942</v>
       </c>
       <c r="U15" t="n">
-        <v>393.8416170062752</v>
+        <v>710.9913636875942</v>
       </c>
       <c r="V15" t="n">
-        <v>204.4218319897904</v>
+        <v>710.9913636875942</v>
       </c>
       <c r="W15" t="n">
-        <v>204.4218319897904</v>
+        <v>710.9913636875942</v>
       </c>
       <c r="X15" t="n">
-        <v>204.4218319897904</v>
+        <v>521.5715786711096</v>
       </c>
       <c r="Y15" t="n">
-        <v>15.0020469733056</v>
+        <v>332.1517936546249</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C16" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D16" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E16" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F16" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G16" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H16" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I16" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J16" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K16" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L16" t="n">
-        <v>27.03967056230176</v>
+        <v>27.03967056230175</v>
       </c>
       <c r="M16" t="n">
         <v>42.98993985170716</v>
       </c>
       <c r="N16" t="n">
-        <v>66.41847329396334</v>
+        <v>66.41847329396333</v>
       </c>
       <c r="O16" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828985</v>
       </c>
       <c r="P16" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702828985</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828985</v>
       </c>
       <c r="R16" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="S16" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="T16" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="U16" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="V16" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W16" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X16" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y16" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>393.8416170062752</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="C17" t="n">
-        <v>204.4218319897904</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="D17" t="n">
-        <v>15.00204697330559</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="E17" t="n">
-        <v>15.00204697330559</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="F17" t="n">
-        <v>15.00204697330559</v>
+        <v>393.841617006275</v>
       </c>
       <c r="G17" t="n">
-        <v>15.00204697330559</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="H17" t="n">
         <v>15.00204697330559</v>
@@ -5513,52 +5513,52 @@
         <v>15.00204697330559</v>
       </c>
       <c r="J17" t="n">
-        <v>21.03371160678497</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K17" t="n">
-        <v>80.81213159058946</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L17" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M17" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N17" t="n">
-        <v>509.4952041123829</v>
+        <v>509.4952041123825</v>
       </c>
       <c r="O17" t="n">
-        <v>649.4845259985583</v>
+        <v>649.484525998558</v>
       </c>
       <c r="P17" t="n">
-        <v>734.4611726020265</v>
+        <v>734.4611726020262</v>
       </c>
       <c r="Q17" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R17" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="S17" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="T17" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="U17" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="V17" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="W17" t="n">
-        <v>583.26140202276</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="X17" t="n">
-        <v>583.26140202276</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="Y17" t="n">
-        <v>583.26140202276</v>
+        <v>750.1023486652794</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>181.8429936158254</v>
+        <v>364.227097959543</v>
       </c>
       <c r="C18" t="n">
-        <v>15.00204697330559</v>
+        <v>189.774068678416</v>
       </c>
       <c r="D18" t="n">
-        <v>15.00204697330559</v>
+        <v>189.774068678416</v>
       </c>
       <c r="E18" t="n">
-        <v>15.00204697330559</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="F18" t="n">
-        <v>15.00204697330559</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="G18" t="n">
-        <v>15.00204697330559</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="H18" t="n">
-        <v>15.00204697330559</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="I18" t="n">
-        <v>15.00204697330559</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="J18" t="n">
         <v>15.00204697330559</v>
@@ -5622,22 +5622,22 @@
         <v>750.1023486652797</v>
       </c>
       <c r="T18" t="n">
-        <v>560.6825636487949</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="U18" t="n">
-        <v>560.6825636487949</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="V18" t="n">
-        <v>560.6825636487949</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="W18" t="n">
-        <v>371.2627786323102</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="X18" t="n">
-        <v>371.2627786323102</v>
+        <v>721.8622199960957</v>
       </c>
       <c r="Y18" t="n">
-        <v>181.8429936158254</v>
+        <v>532.4424349796111</v>
       </c>
     </row>
     <row r="19">
@@ -5677,37 +5677,37 @@
         <v>15.00204697330559</v>
       </c>
       <c r="L19" t="n">
-        <v>27.03967056230176</v>
+        <v>27.03967056230175</v>
       </c>
       <c r="M19" t="n">
         <v>42.98993985170716</v>
       </c>
       <c r="N19" t="n">
-        <v>66.41847329396334</v>
+        <v>66.41847329396333</v>
       </c>
       <c r="O19" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828985</v>
       </c>
       <c r="P19" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828985</v>
       </c>
       <c r="Q19" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828985</v>
       </c>
       <c r="R19" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="S19" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="T19" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="U19" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="V19" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W19" t="n">
         <v>15.00204697330559</v>
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>710.0001061843506</v>
+        <v>210.8831693494282</v>
       </c>
       <c r="C20" t="n">
-        <v>710.0001061843506</v>
+        <v>210.8831693494282</v>
       </c>
       <c r="D20" t="n">
-        <v>710.0001061843506</v>
+        <v>210.8831693494282</v>
       </c>
       <c r="E20" t="n">
-        <v>710.0001061843506</v>
+        <v>210.8831693494282</v>
       </c>
       <c r="F20" t="n">
-        <v>520.5803211678658</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="G20" t="n">
-        <v>331.1605361513811</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="H20" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I20" t="n">
         <v>15.00204697330559</v>
       </c>
       <c r="J20" t="n">
-        <v>21.03371160678484</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K20" t="n">
-        <v>80.81213159058933</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L20" t="n">
-        <v>191.8743094079183</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M20" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N20" t="n">
-        <v>509.4952041123828</v>
+        <v>509.4952041123827</v>
       </c>
       <c r="O20" t="n">
         <v>649.4845259985582</v>
       </c>
       <c r="P20" t="n">
-        <v>734.4611726020265</v>
+        <v>734.4611726020264</v>
       </c>
       <c r="Q20" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R20" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="S20" t="n">
-        <v>750.1023486652797</v>
+        <v>589.7227393823977</v>
       </c>
       <c r="T20" t="n">
-        <v>750.1023486652797</v>
+        <v>589.7227393823977</v>
       </c>
       <c r="U20" t="n">
-        <v>750.1023486652797</v>
+        <v>589.7227393823977</v>
       </c>
       <c r="V20" t="n">
-        <v>750.1023486652797</v>
+        <v>400.3029543659129</v>
       </c>
       <c r="W20" t="n">
-        <v>710.0001061843506</v>
+        <v>400.3029543659129</v>
       </c>
       <c r="X20" t="n">
-        <v>710.0001061843506</v>
+        <v>400.3029543659129</v>
       </c>
       <c r="Y20" t="n">
-        <v>710.0001061843506</v>
+        <v>210.8831693494282</v>
       </c>
     </row>
     <row r="21">
@@ -5805,34 +5805,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>181.8429936158254</v>
+        <v>30.55991817042172</v>
       </c>
       <c r="C21" t="n">
-        <v>15.00204697330562</v>
+        <v>30.55991817042172</v>
       </c>
       <c r="D21" t="n">
-        <v>15.00204697330562</v>
+        <v>30.55991817042172</v>
       </c>
       <c r="E21" t="n">
-        <v>15.00204697330562</v>
+        <v>30.55991817042172</v>
       </c>
       <c r="F21" t="n">
-        <v>15.00204697330562</v>
+        <v>30.55991817042172</v>
       </c>
       <c r="G21" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H21" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I21" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J21" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K21" t="n">
-        <v>67.13418877024216</v>
+        <v>67.13418877024213</v>
       </c>
       <c r="L21" t="n">
         <v>183.5548280772649</v>
@@ -5856,25 +5856,25 @@
         <v>750.1023486652797</v>
       </c>
       <c r="S21" t="n">
-        <v>750.1023486652797</v>
+        <v>598.819273219876</v>
       </c>
       <c r="T21" t="n">
-        <v>560.6825636487949</v>
+        <v>409.3994882033912</v>
       </c>
       <c r="U21" t="n">
-        <v>371.2627786323102</v>
+        <v>219.9797031869065</v>
       </c>
       <c r="V21" t="n">
-        <v>371.2627786323102</v>
+        <v>30.55991817042172</v>
       </c>
       <c r="W21" t="n">
-        <v>371.2627786323102</v>
+        <v>30.55991817042172</v>
       </c>
       <c r="X21" t="n">
-        <v>181.8429936158254</v>
+        <v>30.55991817042172</v>
       </c>
       <c r="Y21" t="n">
-        <v>181.8429936158254</v>
+        <v>30.55991817042172</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.00204697330559</v>
+        <v>697.3589686102954</v>
       </c>
       <c r="C22" t="n">
-        <v>15.00204697330559</v>
+        <v>697.3589686102954</v>
       </c>
       <c r="D22" t="n">
-        <v>15.00204697330559</v>
+        <v>697.3589686102954</v>
       </c>
       <c r="E22" t="n">
-        <v>15.00204697330559</v>
+        <v>697.3589686102954</v>
       </c>
       <c r="F22" t="n">
-        <v>15.00204697330559</v>
+        <v>697.3589686102954</v>
       </c>
       <c r="G22" t="n">
-        <v>15.00204697330559</v>
+        <v>697.3589686102954</v>
       </c>
       <c r="H22" t="n">
-        <v>15.00204697330559</v>
+        <v>697.3589686102954</v>
       </c>
       <c r="I22" t="n">
-        <v>15.00204697330559</v>
+        <v>697.3589686102954</v>
       </c>
       <c r="J22" t="n">
-        <v>15.00204697330559</v>
+        <v>697.3589686102954</v>
       </c>
       <c r="K22" t="n">
-        <v>15.00204697330559</v>
+        <v>697.3589686102954</v>
       </c>
       <c r="L22" t="n">
-        <v>27.03967056230176</v>
+        <v>709.3965921992916</v>
       </c>
       <c r="M22" t="n">
-        <v>42.98993985170716</v>
+        <v>725.346861488697</v>
       </c>
       <c r="N22" t="n">
-        <v>66.41847329396334</v>
+        <v>748.7753949309531</v>
       </c>
       <c r="O22" t="n">
-        <v>67.74542702828987</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="P22" t="n">
-        <v>49.45491281910415</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="Q22" t="n">
-        <v>49.45491281910415</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R22" t="n">
-        <v>49.45491281910415</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="S22" t="n">
-        <v>49.45491281910415</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="T22" t="n">
-        <v>49.45491281910415</v>
+        <v>697.3589686102954</v>
       </c>
       <c r="U22" t="n">
-        <v>49.45491281910415</v>
+        <v>697.3589686102954</v>
       </c>
       <c r="V22" t="n">
-        <v>49.45491281910415</v>
+        <v>697.3589686102954</v>
       </c>
       <c r="W22" t="n">
-        <v>49.45491281910415</v>
+        <v>697.3589686102954</v>
       </c>
       <c r="X22" t="n">
-        <v>49.45491281910415</v>
+        <v>697.3589686102954</v>
       </c>
       <c r="Y22" t="n">
-        <v>15.00204697330559</v>
+        <v>697.3589686102954</v>
       </c>
     </row>
     <row r="23">
@@ -5993,46 +5993,46 @@
         <v>80.81213159058944</v>
       </c>
       <c r="L23" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079183</v>
       </c>
       <c r="M23" t="n">
-        <v>347.1218190644756</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N23" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O23" t="n">
         <v>649.4845259985582</v>
       </c>
       <c r="P23" t="n">
-        <v>734.4611726020265</v>
+        <v>734.4611726020264</v>
       </c>
       <c r="Q23" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R23" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="S23" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="T23" t="n">
-        <v>560.6825636487949</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="U23" t="n">
-        <v>371.2627786323102</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="V23" t="n">
-        <v>204.4218319897904</v>
+        <v>583.2614020227599</v>
       </c>
       <c r="W23" t="n">
-        <v>15.00204697330559</v>
+        <v>583.2614020227599</v>
       </c>
       <c r="X23" t="n">
-        <v>15.00204697330559</v>
+        <v>393.8416170062751</v>
       </c>
       <c r="Y23" t="n">
-        <v>15.00204697330559</v>
+        <v>204.4218319897903</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>174.2395019787611</v>
+        <v>298.0982375934584</v>
       </c>
       <c r="C24" t="n">
-        <v>174.2395019787611</v>
+        <v>298.0982375934584</v>
       </c>
       <c r="D24" t="n">
-        <v>174.2395019787611</v>
+        <v>298.0982375934584</v>
       </c>
       <c r="E24" t="n">
-        <v>15.00204697330559</v>
+        <v>138.8607825880029</v>
       </c>
       <c r="F24" t="n">
         <v>15.00204697330559</v>
@@ -6093,25 +6093,25 @@
         <v>676.9378076264279</v>
       </c>
       <c r="S24" t="n">
-        <v>553.0790720117307</v>
+        <v>676.9378076264279</v>
       </c>
       <c r="T24" t="n">
-        <v>363.6592869952459</v>
+        <v>487.5180226099432</v>
       </c>
       <c r="U24" t="n">
-        <v>363.6592869952459</v>
+        <v>298.0982375934584</v>
       </c>
       <c r="V24" t="n">
-        <v>174.2395019787611</v>
+        <v>298.0982375934584</v>
       </c>
       <c r="W24" t="n">
-        <v>174.2395019787611</v>
+        <v>298.0982375934584</v>
       </c>
       <c r="X24" t="n">
-        <v>174.2395019787611</v>
+        <v>298.0982375934584</v>
       </c>
       <c r="Y24" t="n">
-        <v>174.2395019787611</v>
+        <v>298.0982375934584</v>
       </c>
     </row>
     <row r="25">
@@ -6169,7 +6169,7 @@
         <v>67.74542702828987</v>
       </c>
       <c r="R25" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S25" t="n">
         <v>15.00204697330559</v>
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>482.8222414097406</v>
+      </c>
+      <c r="C26" t="n">
+        <v>482.8222414097406</v>
+      </c>
+      <c r="D26" t="n">
+        <v>482.8222414097406</v>
+      </c>
+      <c r="E26" t="n">
+        <v>482.8222414097406</v>
+      </c>
+      <c r="F26" t="n">
         <v>293.4024563932559</v>
       </c>
-      <c r="C26" t="n">
+      <c r="G26" t="n">
         <v>103.9826713767711</v>
-      </c>
-      <c r="D26" t="n">
-        <v>15.00204697330559</v>
-      </c>
-      <c r="E26" t="n">
-        <v>15.00204697330559</v>
-      </c>
-      <c r="F26" t="n">
-        <v>15.00204697330559</v>
-      </c>
-      <c r="G26" t="n">
-        <v>15.00204697330559</v>
       </c>
       <c r="H26" t="n">
         <v>15.00204697330559</v>
@@ -6224,10 +6224,10 @@
         <v>15.00204697330559</v>
       </c>
       <c r="J26" t="n">
-        <v>21.03371160678495</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K26" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L26" t="n">
         <v>191.8743094079184</v>
@@ -6254,22 +6254,22 @@
         <v>672.2420264262254</v>
       </c>
       <c r="T26" t="n">
-        <v>672.2420264262254</v>
+        <v>482.8222414097406</v>
       </c>
       <c r="U26" t="n">
         <v>482.8222414097406</v>
       </c>
       <c r="V26" t="n">
-        <v>293.4024563932559</v>
+        <v>482.8222414097406</v>
       </c>
       <c r="W26" t="n">
-        <v>293.4024563932559</v>
+        <v>482.8222414097406</v>
       </c>
       <c r="X26" t="n">
-        <v>293.4024563932559</v>
+        <v>482.8222414097406</v>
       </c>
       <c r="Y26" t="n">
-        <v>293.4024563932559</v>
+        <v>482.8222414097406</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>409.3994882033912</v>
+        <v>371.2627786323102</v>
       </c>
       <c r="C27" t="n">
-        <v>409.3994882033912</v>
+        <v>196.8097493511832</v>
       </c>
       <c r="D27" t="n">
-        <v>409.3994882033912</v>
+        <v>174.2395019787611</v>
       </c>
       <c r="E27" t="n">
-        <v>250.1620331979357</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F27" t="n">
-        <v>103.6274752248207</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G27" t="n">
         <v>15.00204697330559</v>
@@ -6306,7 +6306,7 @@
         <v>15.00204697330559</v>
       </c>
       <c r="K27" t="n">
-        <v>67.13418877024213</v>
+        <v>67.13418877024216</v>
       </c>
       <c r="L27" t="n">
         <v>183.5548280772649</v>
@@ -6330,25 +6330,25 @@
         <v>750.1023486652797</v>
       </c>
       <c r="S27" t="n">
-        <v>598.819273219876</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="T27" t="n">
-        <v>598.819273219876</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="U27" t="n">
-        <v>598.819273219876</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="V27" t="n">
-        <v>598.819273219876</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="W27" t="n">
-        <v>598.819273219876</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="X27" t="n">
-        <v>598.819273219876</v>
+        <v>371.2627786323102</v>
       </c>
       <c r="Y27" t="n">
-        <v>409.3994882033912</v>
+        <v>371.2627786323102</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>15.00204697330559</v>
+        <v>697.3589686102955</v>
       </c>
       <c r="C28" t="n">
-        <v>15.00204697330559</v>
+        <v>697.3589686102955</v>
       </c>
       <c r="D28" t="n">
-        <v>15.00204697330559</v>
+        <v>697.3589686102955</v>
       </c>
       <c r="E28" t="n">
-        <v>15.00204697330559</v>
+        <v>697.3589686102955</v>
       </c>
       <c r="F28" t="n">
-        <v>15.00204697330559</v>
+        <v>697.3589686102955</v>
       </c>
       <c r="G28" t="n">
-        <v>15.00204697330559</v>
+        <v>697.3589686102955</v>
       </c>
       <c r="H28" t="n">
-        <v>15.00204697330559</v>
+        <v>697.3589686102955</v>
       </c>
       <c r="I28" t="n">
-        <v>15.00204697330559</v>
+        <v>697.3589686102955</v>
       </c>
       <c r="J28" t="n">
-        <v>15.00204697330559</v>
+        <v>697.3589686102955</v>
       </c>
       <c r="K28" t="n">
-        <v>15.00204697330559</v>
+        <v>697.3589686102955</v>
       </c>
       <c r="L28" t="n">
-        <v>27.03967056230176</v>
+        <v>709.3965921992917</v>
       </c>
       <c r="M28" t="n">
-        <v>42.98993985170716</v>
+        <v>725.3468614886971</v>
       </c>
       <c r="N28" t="n">
-        <v>66.41847329396334</v>
+        <v>748.7753949309532</v>
       </c>
       <c r="O28" t="n">
-        <v>67.74542702828987</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="P28" t="n">
-        <v>67.74542702828987</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="Q28" t="n">
-        <v>67.74542702828987</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R28" t="n">
-        <v>67.74542702828987</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="S28" t="n">
-        <v>67.74542702828987</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="T28" t="n">
-        <v>67.74542702828987</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="U28" t="n">
-        <v>67.74542702828987</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="V28" t="n">
-        <v>67.74542702828987</v>
+        <v>697.3589686102955</v>
       </c>
       <c r="W28" t="n">
-        <v>67.74542702828987</v>
+        <v>697.3589686102955</v>
       </c>
       <c r="X28" t="n">
-        <v>67.74542702828987</v>
+        <v>697.3589686102955</v>
       </c>
       <c r="Y28" t="n">
-        <v>15.00204697330559</v>
+        <v>697.3589686102955</v>
       </c>
     </row>
     <row r="29">
@@ -6440,70 +6440,70 @@
         <v>204.4218319897904</v>
       </c>
       <c r="C29" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D29" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E29" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F29" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G29" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H29" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I29" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J29" t="n">
-        <v>21.03371160678498</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K29" t="n">
-        <v>80.81213159058947</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L29" t="n">
         <v>191.8743094079184</v>
       </c>
       <c r="M29" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N29" t="n">
         <v>509.4952041123828</v>
       </c>
       <c r="O29" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P29" t="n">
-        <v>734.4611726020265</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q29" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R29" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S29" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T29" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="U29" t="n">
-        <v>583.26140202276</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="V29" t="n">
-        <v>583.26140202276</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="W29" t="n">
-        <v>393.8416170062752</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="X29" t="n">
-        <v>393.8416170062752</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="Y29" t="n">
         <v>204.4218319897904</v>
@@ -6516,34 +6516,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>487.5180226099432</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C30" t="n">
-        <v>487.5180226099432</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D30" t="n">
-        <v>338.5836129486919</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E30" t="n">
-        <v>179.3461579432364</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F30" t="n">
-        <v>32.81159997012136</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G30" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H30" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I30" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J30" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K30" t="n">
-        <v>67.13418877024213</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L30" t="n">
         <v>183.5548280772649</v>
@@ -6555,37 +6555,37 @@
         <v>512.5000587546601</v>
       </c>
       <c r="O30" t="n">
-        <v>649.2101578476348</v>
+        <v>649.2101578476349</v>
       </c>
       <c r="P30" t="n">
-        <v>739.5989987017063</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q30" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R30" t="n">
-        <v>676.9378076264279</v>
+        <v>734.5444774681637</v>
       </c>
       <c r="S30" t="n">
-        <v>676.9378076264279</v>
+        <v>583.26140202276</v>
       </c>
       <c r="T30" t="n">
-        <v>676.9378076264279</v>
+        <v>583.26140202276</v>
       </c>
       <c r="U30" t="n">
-        <v>676.9378076264279</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="V30" t="n">
-        <v>676.9378076264279</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="W30" t="n">
-        <v>676.9378076264279</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X30" t="n">
-        <v>487.5180226099432</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y30" t="n">
-        <v>487.5180226099432</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="31">
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C31" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D31" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E31" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F31" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G31" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H31" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I31" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J31" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K31" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L31" t="n">
         <v>27.03967056230176</v>
@@ -6640,31 +6640,31 @@
         <v>67.74542702828987</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R31" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S31" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T31" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="U31" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="V31" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="W31" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X31" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y31" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>204.4218319897904</v>
+        <v>710.0001061843506</v>
       </c>
       <c r="C32" t="n">
-        <v>204.4218319897904</v>
+        <v>710.0001061843506</v>
       </c>
       <c r="D32" t="n">
-        <v>15.00204697330559</v>
+        <v>710.0001061843506</v>
       </c>
       <c r="E32" t="n">
-        <v>15.00204697330559</v>
+        <v>520.5803211678658</v>
       </c>
       <c r="F32" t="n">
-        <v>15.00204697330559</v>
+        <v>520.5803211678658</v>
       </c>
       <c r="G32" t="n">
-        <v>15.00204697330559</v>
+        <v>331.1605361513811</v>
       </c>
       <c r="H32" t="n">
-        <v>15.00204697330559</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I32" t="n">
         <v>15.00204697330559</v>
@@ -6704,13 +6704,13 @@
         <v>80.81213159058944</v>
       </c>
       <c r="L32" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M32" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N32" t="n">
-        <v>509.4952041123828</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O32" t="n">
         <v>649.4845259985582</v>
@@ -6725,25 +6725,25 @@
         <v>750.1023486652797</v>
       </c>
       <c r="S32" t="n">
-        <v>750.1023486652797</v>
+        <v>710.0001061843506</v>
       </c>
       <c r="T32" t="n">
-        <v>750.1023486652797</v>
+        <v>710.0001061843506</v>
       </c>
       <c r="U32" t="n">
-        <v>750.1023486652797</v>
+        <v>710.0001061843506</v>
       </c>
       <c r="V32" t="n">
-        <v>750.1023486652797</v>
+        <v>710.0001061843506</v>
       </c>
       <c r="W32" t="n">
-        <v>583.26140202276</v>
+        <v>710.0001061843506</v>
       </c>
       <c r="X32" t="n">
-        <v>393.8416170062752</v>
+        <v>710.0001061843506</v>
       </c>
       <c r="Y32" t="n">
-        <v>204.4218319897904</v>
+        <v>710.0001061843506</v>
       </c>
     </row>
     <row r="33">
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>30.55991817042167</v>
+        <v>219.9797031869064</v>
       </c>
       <c r="C33" t="n">
-        <v>30.55991817042167</v>
+        <v>45.52667390577943</v>
       </c>
       <c r="D33" t="n">
-        <v>30.55991817042167</v>
+        <v>45.52667390577943</v>
       </c>
       <c r="E33" t="n">
         <v>15.00204697330559</v>
@@ -6780,7 +6780,7 @@
         <v>15.00204697330559</v>
       </c>
       <c r="K33" t="n">
-        <v>67.13418877024216</v>
+        <v>67.13418877024213</v>
       </c>
       <c r="L33" t="n">
         <v>183.5548280772649</v>
@@ -6807,7 +6807,7 @@
         <v>598.819273219876</v>
       </c>
       <c r="T33" t="n">
-        <v>598.819273219876</v>
+        <v>409.3994882033912</v>
       </c>
       <c r="U33" t="n">
         <v>409.3994882033912</v>
@@ -6822,7 +6822,7 @@
         <v>219.9797031869064</v>
       </c>
       <c r="Y33" t="n">
-        <v>30.55991817042167</v>
+        <v>219.9797031869064</v>
       </c>
     </row>
     <row r="34">
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>697.3589686102955</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="C34" t="n">
         <v>697.3589686102955</v>
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>393.8416170062752</v>
+        <v>371.2627786323102</v>
       </c>
       <c r="C35" t="n">
-        <v>393.8416170062752</v>
+        <v>371.2627786323102</v>
       </c>
       <c r="D35" t="n">
-        <v>393.8416170062752</v>
+        <v>371.2627786323102</v>
       </c>
       <c r="E35" t="n">
-        <v>393.8416170062752</v>
+        <v>371.2627786323102</v>
       </c>
       <c r="F35" t="n">
-        <v>204.4218319897904</v>
+        <v>371.2627786323102</v>
       </c>
       <c r="G35" t="n">
-        <v>15.00204697330559</v>
+        <v>181.8429936158254</v>
       </c>
       <c r="H35" t="n">
         <v>15.00204697330559</v>
@@ -6935,13 +6935,13 @@
         <v>15.00204697330559</v>
       </c>
       <c r="J35" t="n">
-        <v>21.03371160678484</v>
+        <v>21.03371160678498</v>
       </c>
       <c r="K35" t="n">
-        <v>80.81213159058933</v>
+        <v>80.81213159058947</v>
       </c>
       <c r="L35" t="n">
-        <v>191.8743094079183</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M35" t="n">
         <v>347.1218190644754</v>
@@ -6965,22 +6965,22 @@
         <v>750.1023486652797</v>
       </c>
       <c r="T35" t="n">
-        <v>750.1023486652797</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="U35" t="n">
-        <v>750.1023486652797</v>
+        <v>371.2627786323102</v>
       </c>
       <c r="V35" t="n">
-        <v>750.1023486652797</v>
+        <v>371.2627786323102</v>
       </c>
       <c r="W35" t="n">
-        <v>750.1023486652797</v>
+        <v>371.2627786323102</v>
       </c>
       <c r="X35" t="n">
-        <v>750.1023486652797</v>
+        <v>371.2627786323102</v>
       </c>
       <c r="Y35" t="n">
-        <v>560.6825636487949</v>
+        <v>371.2627786323102</v>
       </c>
     </row>
     <row r="36">
@@ -6990,13 +6990,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>15.00204697330559</v>
+        <v>409.3994882033912</v>
       </c>
       <c r="C36" t="n">
-        <v>15.00204697330559</v>
+        <v>234.9464589222642</v>
       </c>
       <c r="D36" t="n">
-        <v>15.00204697330559</v>
+        <v>174.2395019787611</v>
       </c>
       <c r="E36" t="n">
         <v>15.00204697330559</v>
@@ -7041,25 +7041,25 @@
         <v>750.1023486652797</v>
       </c>
       <c r="S36" t="n">
-        <v>750.1023486652797</v>
+        <v>598.819273219876</v>
       </c>
       <c r="T36" t="n">
-        <v>750.1023486652797</v>
+        <v>409.3994882033912</v>
       </c>
       <c r="U36" t="n">
-        <v>750.1023486652797</v>
+        <v>409.3994882033912</v>
       </c>
       <c r="V36" t="n">
-        <v>560.6825636487949</v>
+        <v>409.3994882033912</v>
       </c>
       <c r="W36" t="n">
-        <v>560.6825636487949</v>
+        <v>409.3994882033912</v>
       </c>
       <c r="X36" t="n">
-        <v>372.6371690098584</v>
+        <v>409.3994882033912</v>
       </c>
       <c r="Y36" t="n">
-        <v>183.2173839933736</v>
+        <v>409.3994882033912</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>15.00204697330559</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="C37" t="n">
-        <v>15.00204697330559</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="D37" t="n">
-        <v>15.00204697330559</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="E37" t="n">
-        <v>15.00204697330559</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="F37" t="n">
-        <v>15.00204697330559</v>
+        <v>697.3589686102955</v>
       </c>
       <c r="G37" t="n">
-        <v>15.00204697330559</v>
+        <v>697.3589686102955</v>
       </c>
       <c r="H37" t="n">
-        <v>15.00204697330559</v>
+        <v>697.3589686102955</v>
       </c>
       <c r="I37" t="n">
-        <v>15.00204697330559</v>
+        <v>697.3589686102955</v>
       </c>
       <c r="J37" t="n">
-        <v>15.00204697330559</v>
+        <v>697.3589686102955</v>
       </c>
       <c r="K37" t="n">
-        <v>15.00204697330559</v>
+        <v>697.3589686102955</v>
       </c>
       <c r="L37" t="n">
-        <v>27.03967056230176</v>
+        <v>709.3965921992917</v>
       </c>
       <c r="M37" t="n">
-        <v>42.98993985170716</v>
+        <v>725.3468614886971</v>
       </c>
       <c r="N37" t="n">
-        <v>66.41847329396334</v>
+        <v>748.7753949309532</v>
       </c>
       <c r="O37" t="n">
-        <v>67.74542702828987</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="P37" t="n">
-        <v>67.74542702828987</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="Q37" t="n">
-        <v>67.74542702828987</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R37" t="n">
-        <v>67.74542702828987</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="S37" t="n">
-        <v>67.74542702828987</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="T37" t="n">
-        <v>67.74542702828987</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="U37" t="n">
-        <v>67.74542702828987</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="V37" t="n">
-        <v>15.00204697330559</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="W37" t="n">
-        <v>15.00204697330559</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="X37" t="n">
-        <v>15.00204697330559</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="Y37" t="n">
-        <v>15.00204697330559</v>
+        <v>750.1023486652797</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>181.8429936158254</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="C38" t="n">
-        <v>181.8429936158254</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="D38" t="n">
-        <v>15.00204697330559</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="E38" t="n">
         <v>15.00204697330559</v>
@@ -7172,7 +7172,7 @@
         <v>15.00204697330559</v>
       </c>
       <c r="J38" t="n">
-        <v>21.03371160678495</v>
+        <v>21.03371160678496</v>
       </c>
       <c r="K38" t="n">
         <v>80.81213159058944</v>
@@ -7181,43 +7181,43 @@
         <v>191.8743094079184</v>
       </c>
       <c r="M38" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N38" t="n">
-        <v>509.4952041123828</v>
+        <v>509.4952041123829</v>
       </c>
       <c r="O38" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985583</v>
       </c>
       <c r="P38" t="n">
-        <v>734.4611726020265</v>
+        <v>734.4611726020264</v>
       </c>
       <c r="Q38" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R38" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="S38" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="T38" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="U38" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="V38" t="n">
-        <v>750.1023486652797</v>
+        <v>560.6825636487948</v>
       </c>
       <c r="W38" t="n">
-        <v>750.1023486652797</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="X38" t="n">
-        <v>560.6825636487949</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="Y38" t="n">
-        <v>371.2627786323102</v>
+        <v>371.2627786323101</v>
       </c>
     </row>
     <row r="39">
@@ -7227,10 +7227,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>371.2627786323102</v>
+        <v>174.2395019787611</v>
       </c>
       <c r="C39" t="n">
-        <v>196.8097493511832</v>
+        <v>174.2395019787611</v>
       </c>
       <c r="D39" t="n">
         <v>174.2395019787611</v>
@@ -7251,10 +7251,10 @@
         <v>15.00204697330559</v>
       </c>
       <c r="J39" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K39" t="n">
-        <v>67.13418877024216</v>
+        <v>67.13418877024213</v>
       </c>
       <c r="L39" t="n">
         <v>183.5548280772649</v>
@@ -7278,25 +7278,25 @@
         <v>750.1023486652797</v>
       </c>
       <c r="S39" t="n">
-        <v>750.1023486652797</v>
+        <v>598.819273219876</v>
       </c>
       <c r="T39" t="n">
-        <v>750.1023486652797</v>
+        <v>553.0790720117307</v>
       </c>
       <c r="U39" t="n">
-        <v>750.1023486652797</v>
+        <v>553.0790720117307</v>
       </c>
       <c r="V39" t="n">
-        <v>750.1023486652797</v>
+        <v>363.6592869952458</v>
       </c>
       <c r="W39" t="n">
-        <v>560.6825636487949</v>
+        <v>174.2395019787611</v>
       </c>
       <c r="X39" t="n">
-        <v>560.6825636487949</v>
+        <v>174.2395019787611</v>
       </c>
       <c r="Y39" t="n">
-        <v>371.2627786323102</v>
+        <v>174.2395019787611</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>750.1023486652797</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C40" t="n">
-        <v>750.1023486652797</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D40" t="n">
-        <v>750.1023486652797</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E40" t="n">
-        <v>750.1023486652797</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F40" t="n">
-        <v>697.3589686102955</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G40" t="n">
-        <v>697.3589686102955</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H40" t="n">
-        <v>697.3589686102955</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I40" t="n">
-        <v>697.3589686102955</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J40" t="n">
-        <v>697.3589686102955</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K40" t="n">
-        <v>697.3589686102955</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L40" t="n">
-        <v>709.3965921992917</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M40" t="n">
-        <v>725.3468614886971</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N40" t="n">
-        <v>748.7753949309532</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O40" t="n">
-        <v>750.1023486652797</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P40" t="n">
-        <v>750.1023486652797</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q40" t="n">
-        <v>750.1023486652797</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R40" t="n">
-        <v>750.1023486652797</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="S40" t="n">
-        <v>750.1023486652797</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="T40" t="n">
-        <v>750.1023486652797</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="U40" t="n">
-        <v>750.1023486652797</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="V40" t="n">
-        <v>750.1023486652797</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W40" t="n">
-        <v>750.1023486652797</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X40" t="n">
-        <v>750.1023486652797</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y40" t="n">
-        <v>750.1023486652797</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>393.8416170062752</v>
+        <v>583.2614020227599</v>
       </c>
       <c r="C41" t="n">
-        <v>393.8416170062752</v>
+        <v>583.2614020227599</v>
       </c>
       <c r="D41" t="n">
-        <v>393.8416170062752</v>
+        <v>583.2614020227599</v>
       </c>
       <c r="E41" t="n">
-        <v>393.8416170062752</v>
+        <v>583.2614020227599</v>
       </c>
       <c r="F41" t="n">
-        <v>204.4218319897904</v>
+        <v>393.8416170062751</v>
       </c>
       <c r="G41" t="n">
-        <v>204.4218319897904</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="H41" t="n">
         <v>15.00204697330559</v>
@@ -7409,52 +7409,52 @@
         <v>15.00204697330559</v>
       </c>
       <c r="J41" t="n">
-        <v>21.03371160678497</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K41" t="n">
-        <v>80.81213159058946</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L41" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M41" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N41" t="n">
-        <v>509.4952041123829</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O41" t="n">
-        <v>649.4845259985583</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P41" t="n">
-        <v>734.4611726020266</v>
+        <v>734.4611726020264</v>
       </c>
       <c r="Q41" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R41" t="n">
-        <v>750.1023486652797</v>
+        <v>672.2420264262253</v>
       </c>
       <c r="S41" t="n">
-        <v>750.1023486652797</v>
+        <v>672.2420264262253</v>
       </c>
       <c r="T41" t="n">
-        <v>583.26140202276</v>
+        <v>583.2614020227599</v>
       </c>
       <c r="U41" t="n">
-        <v>583.26140202276</v>
+        <v>583.2614020227599</v>
       </c>
       <c r="V41" t="n">
-        <v>583.26140202276</v>
+        <v>583.2614020227599</v>
       </c>
       <c r="W41" t="n">
-        <v>393.8416170062752</v>
+        <v>583.2614020227599</v>
       </c>
       <c r="X41" t="n">
-        <v>393.8416170062752</v>
+        <v>583.2614020227599</v>
       </c>
       <c r="Y41" t="n">
-        <v>393.8416170062752</v>
+        <v>583.2614020227599</v>
       </c>
     </row>
     <row r="42">
@@ -7500,37 +7500,37 @@
         <v>338.7690911140244</v>
       </c>
       <c r="N42" t="n">
-        <v>512.5000587546601</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O42" t="n">
-        <v>649.2101578476348</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P42" t="n">
-        <v>739.5989987017063</v>
+        <v>739.5989987017061</v>
       </c>
       <c r="Q42" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R42" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="S42" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="T42" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="U42" t="n">
-        <v>560.6825636487949</v>
+        <v>560.6825636487948</v>
       </c>
       <c r="V42" t="n">
-        <v>371.2627786323102</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="W42" t="n">
-        <v>181.8429936158254</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="X42" t="n">
-        <v>181.8429936158254</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y42" t="n">
         <v>15.00204697330559</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>750.1023486652797</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C43" t="n">
-        <v>750.1023486652797</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D43" t="n">
-        <v>750.1023486652797</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E43" t="n">
-        <v>750.1023486652797</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F43" t="n">
-        <v>750.1023486652797</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G43" t="n">
-        <v>750.1023486652797</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H43" t="n">
-        <v>750.1023486652797</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I43" t="n">
-        <v>697.3589686102955</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J43" t="n">
-        <v>697.3589686102955</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K43" t="n">
-        <v>697.3589686102955</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L43" t="n">
-        <v>709.3965921992917</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M43" t="n">
-        <v>725.3468614886971</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N43" t="n">
-        <v>748.7753949309532</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O43" t="n">
-        <v>750.1023486652797</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P43" t="n">
-        <v>750.1023486652797</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q43" t="n">
-        <v>750.1023486652797</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R43" t="n">
-        <v>750.1023486652797</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S43" t="n">
-        <v>750.1023486652797</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="T43" t="n">
-        <v>750.1023486652797</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="U43" t="n">
-        <v>750.1023486652797</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="V43" t="n">
-        <v>750.1023486652797</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W43" t="n">
-        <v>750.1023486652797</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X43" t="n">
-        <v>750.1023486652797</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y43" t="n">
-        <v>750.1023486652797</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>371.2627786323102</v>
+        <v>560.6825636487948</v>
       </c>
       <c r="C44" t="n">
-        <v>181.8429936158254</v>
+        <v>560.6825636487948</v>
       </c>
       <c r="D44" t="n">
-        <v>15.00204697330559</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="E44" t="n">
-        <v>15.00204697330559</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="F44" t="n">
-        <v>15.00204697330559</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="G44" t="n">
         <v>15.00204697330559</v>
@@ -7646,52 +7646,52 @@
         <v>15.00204697330559</v>
       </c>
       <c r="J44" t="n">
-        <v>21.03371160678497</v>
+        <v>21.03371160678496</v>
       </c>
       <c r="K44" t="n">
-        <v>80.81213159058946</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L44" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079182</v>
       </c>
       <c r="M44" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N44" t="n">
-        <v>509.4952041123829</v>
+        <v>509.4952041123827</v>
       </c>
       <c r="O44" t="n">
-        <v>649.4845259985583</v>
+        <v>649.4845259985581</v>
       </c>
       <c r="P44" t="n">
-        <v>734.4611726020265</v>
+        <v>734.4611726020264</v>
       </c>
       <c r="Q44" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R44" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="S44" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="T44" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="U44" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="V44" t="n">
-        <v>560.6825636487949</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="W44" t="n">
-        <v>371.2627786323102</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="X44" t="n">
-        <v>371.2627786323102</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="Y44" t="n">
-        <v>371.2627786323102</v>
+        <v>560.6825636487948</v>
       </c>
     </row>
     <row r="45">
@@ -7728,7 +7728,7 @@
         <v>15.00204697330559</v>
       </c>
       <c r="K45" t="n">
-        <v>67.13418877024213</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L45" t="n">
         <v>183.5548280772649</v>
@@ -7740,31 +7740,31 @@
         <v>512.5000587546601</v>
       </c>
       <c r="O45" t="n">
-        <v>649.2101578476348</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P45" t="n">
-        <v>739.5989987017063</v>
+        <v>739.5989987017061</v>
       </c>
       <c r="Q45" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R45" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="S45" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="T45" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="U45" t="n">
-        <v>560.6825636487949</v>
+        <v>583.2614020227599</v>
       </c>
       <c r="V45" t="n">
-        <v>371.2627786323102</v>
+        <v>393.8416170062751</v>
       </c>
       <c r="W45" t="n">
-        <v>181.8429936158254</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="X45" t="n">
         <v>15.00204697330559</v>
@@ -7831,16 +7831,16 @@
         <v>67.74542702828987</v>
       </c>
       <c r="S46" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="T46" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="U46" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="V46" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W46" t="n">
         <v>15.00204697330559</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>238.0586849924383</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>244.9346944028855</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22562,13 +22562,13 @@
         <v>413.2531730278943</v>
       </c>
       <c r="H2" t="n">
-        <v>318.4846998108123</v>
+        <v>318.4846998108122</v>
       </c>
       <c r="I2" t="n">
         <v>131.4600546760548</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.091680627731961</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22589,7 +22589,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.9757828529239987</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>86.83958259249187</v>
@@ -22604,7 +22604,7 @@
         <v>251.1816877488572</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>183.0771017990926</v>
       </c>
       <c r="W2" t="n">
         <v>204.5658120463707</v>
@@ -22613,7 +22613,7 @@
         <v>225.0559440074267</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>259.7838435131236</v>
       </c>
     </row>
     <row r="3">
@@ -22632,19 +22632,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>63.75410343207378</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3940557223415908</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.2469034849667</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>61.76616344642424</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,16 +22671,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>77.59326173053483</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>151.3140530013673</v>
+        <v>6.638896330325053</v>
       </c>
       <c r="T3" t="n">
-        <v>195.7446060180399</v>
+        <v>51.06944934699766</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8692364442482</v>
+        <v>156.2336108911073</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22729,7 +22729,7 @@
         <v>61.99638167634127</v>
       </c>
       <c r="K4" t="n">
-        <v>2.607050288750845</v>
+        <v>22.19986892380261</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22741,10 +22741,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>8.508606056834793</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>26.53509868619516</v>
+        <v>15.45088610797821</v>
       </c>
       <c r="Q4" t="n">
         <v>74.52079753307214</v>
@@ -22781,13 +22781,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>238.0586849924383</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>220.5977350999653</v>
       </c>
       <c r="D5" t="n">
-        <v>210.0078849496407</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22802,10 +22802,10 @@
         <v>318.4846998108122</v>
       </c>
       <c r="I5" t="n">
-        <v>131.4600546760548</v>
+        <v>12.09764016085674</v>
       </c>
       <c r="J5" t="n">
-        <v>7.091680627731961</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,13 +22826,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.9757828529239987</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>86.83958259249187</v>
       </c>
       <c r="S5" t="n">
-        <v>162.3156188332455</v>
+        <v>17.64046216220319</v>
       </c>
       <c r="T5" t="n">
         <v>214.1238810212347</v>
@@ -22847,10 +22847,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>225.0559440074267</v>
       </c>
       <c r="Y5" t="n">
-        <v>258.8080606601995</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22869,19 +22869,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>12.96992378435866</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0.3940557223415908</v>
       </c>
       <c r="G6" t="n">
-        <v>136.2469034849667</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>101.6444647650348</v>
+        <v>50.78417964771516</v>
       </c>
       <c r="I6" t="n">
-        <v>35.16122979929079</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22908,16 +22908,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>77.59326173053483</v>
       </c>
       <c r="S6" t="n">
-        <v>6.638896330325053</v>
+        <v>151.3140530013673</v>
       </c>
       <c r="T6" t="n">
-        <v>51.06944934699766</v>
+        <v>195.7446060180399</v>
       </c>
       <c r="U6" t="n">
-        <v>81.19407977320594</v>
+        <v>225.8692364442482</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22966,7 +22966,7 @@
         <v>61.99638167634127</v>
       </c>
       <c r="K7" t="n">
-        <v>2.607050288750873</v>
+        <v>11.11565634558567</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22978,7 +22978,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>8.508606056834793</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>26.53509868619516</v>
@@ -23027,19 +23027,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>215.1479433739335</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>240.0936190433831</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>266.267655950507</v>
+        <v>413.1696173863946</v>
       </c>
       <c r="H8" t="n">
-        <v>317.6289855973038</v>
+        <v>317.6289855973039</v>
       </c>
       <c r="I8" t="n">
-        <v>128.238775807139</v>
+        <v>128.2387758071391</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,19 +23066,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>81.59093052713874</v>
+        <v>81.59093052713877</v>
       </c>
       <c r="S8" t="n">
-        <v>160.4115946525719</v>
+        <v>13.50963321668431</v>
       </c>
       <c r="T8" t="n">
-        <v>213.75811620057</v>
+        <v>46.97568950224161</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1750032975372</v>
+        <v>84.39257659920889</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>160.9698317718066</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23087,7 +23087,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>219.4555119577253</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23103,25 +23103,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>119.5598737730588</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.2021972754605</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>101.2126968995411</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>60.22693649632168</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>19.00792621918457</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,19 +23145,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>74.81755514382759</v>
+        <v>74.8175551438276</v>
       </c>
       <c r="S9" t="n">
-        <v>3.581693331889454</v>
+        <v>150.483654767777</v>
       </c>
       <c r="T9" t="n">
-        <v>28.78198192262317</v>
+        <v>195.5644086209515</v>
       </c>
       <c r="U9" t="n">
-        <v>59.0838685479261</v>
+        <v>225.8662952462544</v>
       </c>
       <c r="V9" t="n">
-        <v>66.01816045109695</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -23200,7 +23200,7 @@
         <v>126.6755586201103</v>
       </c>
       <c r="J10" t="n">
-        <v>40.75804705997353</v>
+        <v>40.75804705997369</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23215,13 +23215,13 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>3.210952374594797</v>
+        <v>3.210952374594825</v>
       </c>
       <c r="P10" t="n">
-        <v>22.00204076308472</v>
+        <v>22.00204076308474</v>
       </c>
       <c r="Q10" t="n">
-        <v>71.38234319379296</v>
+        <v>71.38234319379299</v>
       </c>
       <c r="R10" t="n">
         <v>134.2701942625523</v>
@@ -23264,16 +23264,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>342.2291500161419</v>
       </c>
       <c r="F11" t="n">
-        <v>219.3504585753912</v>
+        <v>219.3504585753916</v>
       </c>
       <c r="G11" t="n">
-        <v>225.5722460637378</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H11" t="n">
-        <v>129.3682389399021</v>
+        <v>129.3682389399025</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23303,7 +23303,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>37.38049896054363</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S11" t="n">
         <v>158.7758131900531</v>
@@ -23334,13 +23334,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>125.9487901047517</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23349,16 +23349,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>101.5591789048035</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>58.90455890409147</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,13 +23382,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>72.43289562846314</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S12" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T12" t="n">
-        <v>7.884010625681015</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U12" t="n">
         <v>225.8637684100909</v>
@@ -23400,7 +23400,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>18.24739803715727</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23431,16 +23431,16 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H13" t="n">
-        <v>153.4336708318195</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I13" t="n">
-        <v>125.7072197708666</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J13" t="n">
-        <v>57.06999962825412</v>
+        <v>18.95836326784828</v>
       </c>
       <c r="K13" t="n">
-        <v>14.10430989402845</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,10 +23455,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q13" t="n">
-        <v>34.57770336425619</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R13" t="n">
         <v>132.8223696106904</v>
@@ -23498,22 +23498,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>167.1574544543631</v>
       </c>
       <c r="E14" t="n">
-        <v>342.2291500161419</v>
+        <v>194.4047829059419</v>
       </c>
       <c r="F14" t="n">
-        <v>219.3504585753915</v>
+        <v>219.3504585753916</v>
       </c>
       <c r="G14" t="n">
-        <v>225.5722460637381</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H14" t="n">
-        <v>129.3682389399024</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,10 +23540,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>158.7758131900531</v>
+        <v>70.68499503062246</v>
       </c>
       <c r="T14" t="n">
         <v>213.4438810562068</v>
@@ -23571,13 +23571,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -23619,28 +23619,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>72.4328956284632</v>
+        <v>33.7130205005546</v>
       </c>
       <c r="S15" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T15" t="n">
-        <v>30.23706061590661</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U15" t="n">
-        <v>38.33818124377098</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V15" t="n">
-        <v>45.27499998310532</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715764</v>
       </c>
       <c r="Y15" t="n">
-        <v>18.15710861098441</v>
+        <v>18.15710861098452</v>
       </c>
     </row>
     <row r="16">
@@ -23692,13 +23692,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q16" t="n">
-        <v>34.57770336425669</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R16" t="n">
-        <v>132.8223696106904</v>
+        <v>80.60642335625596</v>
       </c>
       <c r="S16" t="n">
         <v>206.7802557954962</v>
@@ -23729,25 +23729,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>195.2082544971607</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>177.7473046046876</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>167.157454454363</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>216.7578328961674</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753916</v>
       </c>
       <c r="G17" t="n">
-        <v>413.097833230058</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H17" t="n">
-        <v>316.8938261062223</v>
+        <v>129.3682389399025</v>
       </c>
       <c r="I17" t="n">
         <v>125.4713171199747</v>
@@ -23792,7 +23792,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>184.0684315413185</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23808,16 +23808,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>7.535961812221132</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23832,7 +23832,7 @@
         <v>58.90455890409149</v>
       </c>
       <c r="J18" t="n">
-        <v>15.37922103265839</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23862,7 +23862,7 @@
         <v>149.7702446909496</v>
       </c>
       <c r="T18" t="n">
-        <v>7.884010625681327</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U18" t="n">
         <v>225.8637684100909</v>
@@ -23871,13 +23871,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>64.16939599459968</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>177.8152578209854</v>
       </c>
       <c r="Y18" t="n">
-        <v>18.15710861098444</v>
+        <v>18.15710861098452</v>
       </c>
     </row>
     <row r="19">
@@ -23935,7 +23935,7 @@
         <v>68.68604055159726</v>
       </c>
       <c r="R19" t="n">
-        <v>132.8223696106904</v>
+        <v>80.60642335625596</v>
       </c>
       <c r="S19" t="n">
         <v>206.7802557954962</v>
@@ -23950,7 +23950,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>234.3070520821566</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23978,16 +23978,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>219.3504585753915</v>
+        <v>400.47932175567</v>
       </c>
       <c r="G20" t="n">
-        <v>225.5722460637381</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H20" t="n">
         <v>129.3682389399024</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>77.08171901666378</v>
       </c>
       <c r="S20" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>213.4438810562068</v>
@@ -24026,16 +24026,16 @@
         <v>251.1692605650303</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>140.226671303815</v>
       </c>
       <c r="W20" t="n">
-        <v>309.5397486612932</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897337</v>
       </c>
     </row>
     <row r="21">
@@ -24048,7 +24048,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>7.53596181222116</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24060,7 +24060,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.1637893657753</v>
+        <v>120.7614968806304</v>
       </c>
       <c r="H21" t="n">
         <v>100.8417573507397</v>
@@ -24096,22 +24096,22 @@
         <v>72.4328956284632</v>
       </c>
       <c r="S21" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>7.884010625681327</v>
+        <v>7.884010625681356</v>
       </c>
       <c r="U21" t="n">
-        <v>38.338181243771</v>
+        <v>38.33818124377103</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310537</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>18.24739803715755</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24166,7 +24166,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q22" t="n">
         <v>68.68604055159726</v>
@@ -24178,7 +24178,7 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T22" t="n">
-        <v>223.7196734901001</v>
+        <v>171.5037272356657</v>
       </c>
       <c r="U22" t="n">
         <v>286.2650814934503</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>184.4763161647542</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971607</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24257,22 +24257,22 @@
         <v>158.7758131900531</v>
       </c>
       <c r="T23" t="n">
-        <v>25.91829388988685</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U23" t="n">
-        <v>63.6436733987104</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V23" t="n">
-        <v>162.5797212940403</v>
+        <v>162.5797212940404</v>
       </c>
       <c r="W23" t="n">
-        <v>161.7153815510931</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>182.2055135121491</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897337</v>
       </c>
     </row>
     <row r="24">
@@ -24294,7 +24294,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>22.44906413483355</v>
       </c>
       <c r="G24" t="n">
         <v>136.1637893657753</v>
@@ -24333,16 +24333,16 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>27.15009643239935</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T24" t="n">
-        <v>7.884010625681327</v>
+        <v>7.884010625681356</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377103</v>
       </c>
       <c r="V24" t="n">
-        <v>45.27499998310535</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -24409,10 +24409,10 @@
         <v>68.68604055159726</v>
       </c>
       <c r="R25" t="n">
-        <v>80.60642335625595</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S25" t="n">
-        <v>206.7802557954962</v>
+        <v>154.5643095410618</v>
       </c>
       <c r="T25" t="n">
         <v>223.7196734901001</v>
@@ -24443,22 +24443,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>177.7473046046876</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>266.5922234612521</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753915</v>
       </c>
       <c r="G26" t="n">
-        <v>413.097833230058</v>
+        <v>225.5722460637381</v>
       </c>
       <c r="H26" t="n">
-        <v>316.8938261062223</v>
+        <v>228.8030079467915</v>
       </c>
       <c r="I26" t="n">
         <v>125.4713171199747</v>
@@ -24494,13 +24494,13 @@
         <v>158.7758131900531</v>
       </c>
       <c r="T26" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988685</v>
       </c>
       <c r="U26" t="n">
-        <v>63.6436733987104</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V26" t="n">
-        <v>140.226671303815</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24522,19 +24522,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>125.1005206659409</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>48.42461539677538</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H27" t="n">
         <v>100.8417573507397</v>
@@ -24570,7 +24570,7 @@
         <v>72.4328956284632</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T27" t="n">
         <v>195.4095977920013</v>
@@ -24582,13 +24582,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459968</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715755</v>
       </c>
       <c r="Y27" t="n">
-        <v>18.15710861098444</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24658,7 +24658,7 @@
         <v>286.2650814934503</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>199.9216970693936</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>166.3687070976604</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24734,19 +24734,19 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U29" t="n">
-        <v>85.99672338893581</v>
+        <v>63.64367339871038</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>140.226671303815</v>
       </c>
       <c r="W29" t="n">
-        <v>161.7153815510931</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>204.5585635023745</v>
       </c>
       <c r="Y29" t="n">
-        <v>198.7123514897337</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24762,16 +24762,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>118.5323318989277</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H30" t="n">
         <v>100.8417573507397</v>
@@ -24804,25 +24804,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>57.03060314331823</v>
       </c>
       <c r="S30" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>195.4095977920013</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377098</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310532</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459965</v>
       </c>
       <c r="X30" t="n">
-        <v>18.24739803715755</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24880,7 +24880,7 @@
         <v>18.10760906709386</v>
       </c>
       <c r="Q31" t="n">
-        <v>16.47009429716283</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R31" t="n">
         <v>132.8223696106904</v>
@@ -24889,7 +24889,7 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T31" t="n">
-        <v>223.7196734901001</v>
+        <v>171.5037272356657</v>
       </c>
       <c r="U31" t="n">
         <v>286.2650814934503</v>
@@ -24920,22 +24920,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>167.157454454363</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059419</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.097833230058</v>
+        <v>225.5722460637381</v>
       </c>
       <c r="H32" t="n">
-        <v>316.8938261062223</v>
+        <v>129.3682389399024</v>
       </c>
       <c r="I32" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,7 +24965,7 @@
         <v>77.08171901666378</v>
       </c>
       <c r="S32" t="n">
-        <v>158.7758131900531</v>
+        <v>119.0745931339333</v>
       </c>
       <c r="T32" t="n">
         <v>213.4438810562068</v>
@@ -24977,13 +24977,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>184.0684315413185</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>182.2055135121491</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>198.7123514897337</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24996,13 +24996,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>142.242787970256</v>
+        <v>127.4256997922518</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25047,10 +25047,10 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>195.4095977920013</v>
+        <v>7.884010625681327</v>
       </c>
       <c r="U33" t="n">
-        <v>38.338181243771</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25062,7 +25062,7 @@
         <v>18.24739803715755</v>
       </c>
       <c r="Y33" t="n">
-        <v>18.15710861098444</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25072,10 +25072,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>127.616033927503</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>115.0308748441935</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>217.561304487386</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25163,13 +25163,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>219.3504585753915</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>225.5722460637381</v>
       </c>
       <c r="H35" t="n">
-        <v>316.8938261062223</v>
+        <v>151.7212889301277</v>
       </c>
       <c r="I35" t="n">
         <v>125.4713171199747</v>
@@ -25205,10 +25205,10 @@
         <v>158.7758131900531</v>
       </c>
       <c r="T35" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988685</v>
       </c>
       <c r="U35" t="n">
-        <v>251.1692605650303</v>
+        <v>63.6436733987104</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25220,7 +25220,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>198.7123514897337</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,16 +25230,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>87.34517819057066</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25281,25 +25281,25 @@
         <v>72.4328956284632</v>
       </c>
       <c r="S36" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>195.4095977920013</v>
+        <v>7.884010625681327</v>
       </c>
       <c r="U36" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V36" t="n">
-        <v>45.27499998310535</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>19.60804451093034</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>18.15710861098444</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25321,7 +25321,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>93.2051017684969</v>
       </c>
       <c r="G37" t="n">
         <v>167.0019352027142</v>
@@ -25369,7 +25369,7 @@
         <v>286.2650814934503</v>
       </c>
       <c r="V37" t="n">
-        <v>199.9216970693936</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25388,16 +25388,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>195.2082544971607</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>189.5105044445883</v>
+        <v>167.1574544543631</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>216.7578328961673</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25448,16 +25448,16 @@
         <v>251.1692605650303</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>140.226671303815</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>161.7153815510931</v>
       </c>
       <c r="X38" t="n">
-        <v>182.2055135121491</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>198.7123514897337</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25470,10 +25470,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>125.1005206659409</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -25518,25 +25518,25 @@
         <v>72.4328956284632</v>
       </c>
       <c r="S39" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>195.4095977920013</v>
+        <v>150.1267985959374</v>
       </c>
       <c r="U39" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310537</v>
       </c>
       <c r="W39" t="n">
-        <v>64.16939599459968</v>
+        <v>64.16939599459971</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>18.15710861098444</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25558,7 +25558,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>93.2051017684969</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.0019352027142</v>
@@ -25594,7 +25594,7 @@
         <v>68.68604055159726</v>
       </c>
       <c r="R40" t="n">
-        <v>132.8223696106904</v>
+        <v>80.60642335625595</v>
       </c>
       <c r="S40" t="n">
         <v>206.7802557954962</v>
@@ -25640,7 +25640,7 @@
         <v>219.3504585753915</v>
       </c>
       <c r="G41" t="n">
-        <v>413.097833230058</v>
+        <v>225.5722460637381</v>
       </c>
       <c r="H41" t="n">
         <v>129.3682389399024</v>
@@ -25673,13 +25673,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T41" t="n">
-        <v>48.27134388011225</v>
+        <v>125.353062896776</v>
       </c>
       <c r="U41" t="n">
         <v>251.1692605650303</v>
@@ -25688,7 +25688,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>161.7153815510931</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25761,19 +25761,19 @@
         <v>195.4095977920013</v>
       </c>
       <c r="U42" t="n">
-        <v>38.338181243771</v>
+        <v>38.33818124377103</v>
       </c>
       <c r="V42" t="n">
-        <v>45.27499998310535</v>
+        <v>45.27499998310537</v>
       </c>
       <c r="W42" t="n">
-        <v>64.16939599459968</v>
+        <v>64.16939599459971</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>40.60044802738295</v>
       </c>
       <c r="Y42" t="n">
-        <v>40.51015860120975</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25804,7 +25804,7 @@
         <v>153.4336708318196</v>
       </c>
       <c r="I43" t="n">
-        <v>73.49127351643232</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J43" t="n">
         <v>57.06999962825418</v>
@@ -25834,7 +25834,7 @@
         <v>132.8223696106904</v>
       </c>
       <c r="S43" t="n">
-        <v>206.7802557954962</v>
+        <v>154.5643095410618</v>
       </c>
       <c r="T43" t="n">
         <v>223.7196734901001</v>
@@ -25865,19 +25865,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>177.7473046046876</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>189.5105044445883</v>
+        <v>167.1574544543631</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753915</v>
       </c>
       <c r="G44" t="n">
-        <v>413.097833230058</v>
+        <v>247.9252960539635</v>
       </c>
       <c r="H44" t="n">
         <v>316.8938261062223</v>
@@ -25922,16 +25922,16 @@
         <v>251.1692605650303</v>
       </c>
       <c r="V44" t="n">
-        <v>140.226671303815</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>161.7153815510931</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897337</v>
       </c>
     </row>
     <row r="45">
@@ -25998,16 +25998,16 @@
         <v>195.4095977920013</v>
       </c>
       <c r="U45" t="n">
-        <v>38.338181243771</v>
+        <v>60.6912312339964</v>
       </c>
       <c r="V45" t="n">
-        <v>45.27499998310535</v>
+        <v>45.27499998310537</v>
       </c>
       <c r="W45" t="n">
-        <v>64.16939599459968</v>
+        <v>64.16939599459971</v>
       </c>
       <c r="X45" t="n">
-        <v>40.60044802738287</v>
+        <v>18.24739803715758</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26071,7 +26071,7 @@
         <v>132.8223696106904</v>
       </c>
       <c r="S46" t="n">
-        <v>206.7802557954962</v>
+        <v>154.5643095410618</v>
       </c>
       <c r="T46" t="n">
         <v>223.7196734901001</v>
@@ -26083,7 +26083,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>234.3070520821566</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>425925.172222098</v>
+        <v>425925.1722220979</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>441595.0580613401</v>
+        <v>441595.0580613399</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>441595.05806134</v>
+        <v>441595.0580613399</v>
       </c>
     </row>
     <row r="7">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>441595.0580613401</v>
+        <v>441595.05806134</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>441595.0580613401</v>
+        <v>441595.0580613399</v>
       </c>
     </row>
     <row r="16">
@@ -26320,7 +26320,7 @@
         <v>136617.5080712389</v>
       </c>
       <c r="E2" t="n">
-        <v>141643.6978687318</v>
+        <v>141643.6978687317</v>
       </c>
       <c r="F2" t="n">
         <v>141643.6978687317</v>
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>24667.28880194964</v>
+        <v>24667.28880194955</v>
       </c>
       <c r="E3" t="n">
-        <v>20539.26349633131</v>
+        <v>20539.26349633101</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>37853.38669203819</v>
+        <v>37853.3866920382</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>5595.15107847585</v>
       </c>
       <c r="M3" t="n">
-        <v>5169.27856126545</v>
+        <v>5169.278561265351</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,10 +26421,10 @@
         <v>105.5521581027501</v>
       </c>
       <c r="D4" t="n">
-        <v>122.1898065383437</v>
+        <v>122.1898065383436</v>
       </c>
       <c r="E4" t="n">
-        <v>137.8001180723343</v>
+        <v>137.800118072334</v>
       </c>
       <c r="F4" t="n">
         <v>137.800118072334</v>
@@ -26476,13 +26476,13 @@
         <v>55335.34872138573</v>
       </c>
       <c r="E5" t="n">
-        <v>23358.20041161359</v>
+        <v>23358.20041161356</v>
       </c>
       <c r="F5" t="n">
-        <v>23358.20041161357</v>
+        <v>23358.20041161356</v>
       </c>
       <c r="G5" t="n">
-        <v>23358.20041161357</v>
+        <v>23358.20041161356</v>
       </c>
       <c r="H5" t="n">
         <v>23358.20041161357</v>
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-462501.8261642464</v>
+        <v>-462501.8261642463</v>
       </c>
       <c r="C6" t="n">
-        <v>77260.15869541242</v>
+        <v>77260.15869541238</v>
       </c>
       <c r="D6" t="n">
-        <v>56492.68074136521</v>
+        <v>56492.68074136529</v>
       </c>
       <c r="E6" t="n">
-        <v>97608.43384271456</v>
+        <v>97608.43384271479</v>
       </c>
       <c r="F6" t="n">
-        <v>118147.6973390461</v>
+        <v>118147.6973390458</v>
       </c>
       <c r="G6" t="n">
         <v>118147.6973390458</v>
@@ -26543,13 +26543,13 @@
         <v>118147.6973390458</v>
       </c>
       <c r="J6" t="n">
-        <v>80294.3106470076</v>
+        <v>80294.31064700762</v>
       </c>
       <c r="K6" t="n">
         <v>118147.6973390458</v>
       </c>
       <c r="L6" t="n">
-        <v>112552.54626057</v>
+        <v>112552.5462605699</v>
       </c>
       <c r="M6" t="n">
         <v>112978.4187777804</v>
@@ -26741,10 +26741,10 @@
         <v>509.8291662011503</v>
       </c>
       <c r="D3" t="n">
-        <v>530.6136320241912</v>
+        <v>530.6136320241911</v>
       </c>
       <c r="E3" t="n">
-        <v>548.4699409129049</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="F3" t="n">
         <v>548.4699409129046</v>
@@ -26793,16 +26793,16 @@
         <v>144.6751566710423</v>
       </c>
       <c r="D4" t="n">
-        <v>166.7824266983283</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="E4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="F4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="G4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="H4" t="n">
         <v>187.5255871663199</v>
@@ -26814,7 +26814,7 @@
         <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="L4" t="n">
         <v>187.5255871663199</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>20.78446582304093</v>
+        <v>20.78446582304082</v>
       </c>
       <c r="E3" t="n">
-        <v>17.85630888871367</v>
+        <v>17.85630888871344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>22.10727002728603</v>
+        <v>22.10727002728606</v>
       </c>
       <c r="E4" t="n">
-        <v>20.74316046799188</v>
+        <v>20.74316046799149</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>22.10727002728603</v>
       </c>
       <c r="M4" t="n">
-        <v>20.74316046799188</v>
+        <v>20.74316046799149</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.10727002728603</v>
+        <v>22.10727002728606</v>
       </c>
       <c r="M4" t="n">
-        <v>20.74316046799188</v>
+        <v>20.74316046799149</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31042,7 +31042,7 @@
         <v>2.049564487240804</v>
       </c>
       <c r="H2" t="n">
-        <v>20.99010230495488</v>
+        <v>20.99010230495489</v>
       </c>
       <c r="I2" t="n">
         <v>79.01583489435116</v>
@@ -31130,13 +31130,13 @@
         <v>103.6059440484809</v>
       </c>
       <c r="K3" t="n">
-        <v>177.0790604908279</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>238.1046497432825</v>
+        <v>238.1046497432826</v>
       </c>
       <c r="M3" t="n">
-        <v>237.7793976178838</v>
+        <v>277.8568955796269</v>
       </c>
       <c r="N3" t="n">
         <v>276.0168687543756</v>
@@ -31145,7 +31145,7 @@
         <v>260.9122903671113</v>
       </c>
       <c r="P3" t="n">
-        <v>209.4051154534499</v>
+        <v>208.5652390081756</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -31197,7 +31197,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9193640701987956</v>
+        <v>0.9193640701987955</v>
       </c>
       <c r="H4" t="n">
         <v>8.17398236958566</v>
@@ -31370,7 +31370,7 @@
         <v>177.0790604908279</v>
       </c>
       <c r="L6" t="n">
-        <v>198.0271517815394</v>
+        <v>238.1046497432826</v>
       </c>
       <c r="M6" t="n">
         <v>277.8568955796269</v>
@@ -31382,7 +31382,7 @@
         <v>260.9122903671113</v>
       </c>
       <c r="P6" t="n">
-        <v>209.4051154534499</v>
+        <v>169.3276174917068</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -31513,31 +31513,31 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.133120128740466</v>
+        <v>2.133120128740465</v>
       </c>
       <c r="H8" t="n">
-        <v>21.8458165184633</v>
+        <v>21.84581651846329</v>
       </c>
       <c r="I8" t="n">
-        <v>82.23711376326689</v>
+        <v>82.23711376326686</v>
       </c>
       <c r="J8" t="n">
-        <v>181.0459045266863</v>
+        <v>181.0459045266862</v>
       </c>
       <c r="K8" t="n">
-        <v>271.3408795762703</v>
+        <v>271.3408795762702</v>
       </c>
       <c r="L8" t="n">
-        <v>336.6223547162113</v>
+        <v>336.6223547162112</v>
       </c>
       <c r="M8" t="n">
-        <v>374.5572298056996</v>
+        <v>374.5572298056995</v>
       </c>
       <c r="N8" t="n">
         <v>380.6179573714834</v>
       </c>
       <c r="O8" t="n">
-        <v>359.4067440913204</v>
+        <v>359.4067440913203</v>
       </c>
       <c r="P8" t="n">
         <v>306.7453409130401</v>
@@ -31549,10 +31549,10 @@
         <v>133.9946072869934</v>
       </c>
       <c r="S8" t="n">
-        <v>48.60847493367341</v>
+        <v>48.6084749336734</v>
       </c>
       <c r="T8" t="n">
-        <v>9.337733363561393</v>
+        <v>9.337733363561391</v>
       </c>
       <c r="U8" t="n">
         <v>0.1706496102992372</v>
@@ -31598,25 +31598,25 @@
         <v>11.02274733695537</v>
       </c>
       <c r="I9" t="n">
-        <v>39.29544350367832</v>
+        <v>39.29544350367831</v>
       </c>
       <c r="J9" t="n">
         <v>107.8297004474821</v>
       </c>
       <c r="K9" t="n">
-        <v>184.298132926742</v>
+        <v>157.8011617537554</v>
       </c>
       <c r="L9" t="n">
         <v>247.8115835222414</v>
       </c>
       <c r="M9" t="n">
-        <v>289.1844294531842</v>
+        <v>289.1844294531841</v>
       </c>
       <c r="N9" t="n">
         <v>296.8382808056841</v>
       </c>
       <c r="O9" t="n">
-        <v>245.0520636988649</v>
+        <v>271.5490348718519</v>
       </c>
       <c r="P9" t="n">
         <v>217.9420406704645</v>
@@ -31625,16 +31625,16 @@
         <v>145.68848251351</v>
       </c>
       <c r="R9" t="n">
-        <v>70.86194882013636</v>
+        <v>70.86194882013635</v>
       </c>
       <c r="S9" t="n">
-        <v>21.19951633606084</v>
+        <v>21.19951633606083</v>
       </c>
       <c r="T9" t="n">
-        <v>4.600320073870109</v>
+        <v>4.600320073870108</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07508683472040445</v>
+        <v>0.07508683472040444</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.956844254469853</v>
+        <v>0.9568442544698528</v>
       </c>
       <c r="H10" t="n">
-        <v>8.507215280650154</v>
+        <v>8.507215280650152</v>
       </c>
       <c r="I10" t="n">
-        <v>28.77491630714795</v>
+        <v>28.77491630714794</v>
       </c>
       <c r="J10" t="n">
-        <v>67.64888879101861</v>
+        <v>67.64888879101859</v>
       </c>
       <c r="K10" t="n">
         <v>111.1679052011338</v>
@@ -31701,16 +31701,16 @@
         <v>115.7259632860629</v>
       </c>
       <c r="Q10" t="n">
-        <v>80.12265843565288</v>
+        <v>80.12265843565285</v>
       </c>
       <c r="R10" t="n">
-        <v>43.0231971146172</v>
+        <v>43.02319711461719</v>
       </c>
       <c r="S10" t="n">
-        <v>16.67518578017007</v>
+        <v>16.67518578017006</v>
       </c>
       <c r="T10" t="n">
-        <v>4.088334541825734</v>
+        <v>4.088334541825733</v>
       </c>
       <c r="U10" t="n">
         <v>0.05219150478926476</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.204904285077003</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H11" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I11" t="n">
-        <v>85.00457245043124</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J11" t="n">
-        <v>187.1384950655545</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K11" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L11" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M11" t="n">
-        <v>387.1618995470276</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N11" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O11" t="n">
-        <v>371.5015668622682</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P11" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q11" t="n">
-        <v>238.1048576151094</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R11" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S11" t="n">
-        <v>50.24425639619226</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T11" t="n">
-        <v>9.651968507924586</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H12" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I12" t="n">
-        <v>40.61782109590853</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J12" t="n">
-        <v>111.4584056340084</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K12" t="n">
-        <v>190.5001680621738</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L12" t="n">
-        <v>256.1509851405034</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M12" t="n">
-        <v>298.9161177975332</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N12" t="n">
-        <v>306.8275379829656</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O12" t="n">
-        <v>280.6872536292675</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P12" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q12" t="n">
-        <v>150.5912184936716</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R12" t="n">
-        <v>73.24660833550081</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S12" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T12" t="n">
-        <v>4.755130902820373</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07761367088390167</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,16 +31908,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9890441557445825</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H13" t="n">
-        <v>8.793501675620021</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I13" t="n">
-        <v>29.74325515639164</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J13" t="n">
-        <v>69.92542181114199</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K13" t="n">
         <v>114.9089482765069</v>
@@ -31926,31 +31926,31 @@
         <v>147.0438920276991</v>
       </c>
       <c r="M13" t="n">
-        <v>155.0371670682167</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N13" t="n">
         <v>151.3507297604415</v>
       </c>
       <c r="O13" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P13" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q13" t="n">
-        <v>82.81896107784864</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R13" t="n">
-        <v>44.47102176647913</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S13" t="n">
-        <v>17.23634224147604</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T13" t="n">
-        <v>4.225915938181397</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05394786304061366</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32470,7 +32470,7 @@
         <v>85.00457245043118</v>
       </c>
       <c r="J20" t="n">
-        <v>187.1384950655542</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K20" t="n">
         <v>280.4720934528639</v>
@@ -33044,7 +33044,7 @@
         <v>225.2762668628872</v>
       </c>
       <c r="Q27" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R27" t="n">
         <v>73.24660833550075</v>
@@ -33518,7 +33518,7 @@
         <v>225.2762668628872</v>
       </c>
       <c r="Q33" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R33" t="n">
         <v>73.24660833550075</v>
@@ -33655,7 +33655,7 @@
         <v>85.00457245043118</v>
       </c>
       <c r="J35" t="n">
-        <v>187.1384950655542</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K35" t="n">
         <v>280.4720934528639</v>
@@ -33910,7 +33910,7 @@
         <v>371.501566862268</v>
       </c>
       <c r="P38" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244293</v>
       </c>
       <c r="Q38" t="n">
         <v>238.1048576151092</v>
@@ -34150,7 +34150,7 @@
         <v>317.0679923244294</v>
       </c>
       <c r="Q41" t="n">
-        <v>238.1048576151091</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R41" t="n">
         <v>138.5038187974683</v>
@@ -34220,7 +34220,7 @@
         <v>298.9161177975329</v>
       </c>
       <c r="N42" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O42" t="n">
         <v>280.6872536292673</v>
@@ -34372,7 +34372,7 @@
         <v>280.4720934528639</v>
       </c>
       <c r="L44" t="n">
-        <v>347.9504329672893</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M44" t="n">
         <v>387.1618995470274</v>
@@ -34466,7 +34466,7 @@
         <v>225.2762668628872</v>
       </c>
       <c r="Q45" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R45" t="n">
         <v>73.24660833550075</v>
@@ -34778,13 +34778,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>39.23762151646886</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>99.55026996340834</v>
+        <v>99.55026996340837</v>
       </c>
       <c r="M3" t="n">
-        <v>95.64536369586546</v>
+        <v>135.7228616576086</v>
       </c>
       <c r="N3" t="n">
         <v>144.6751566710423</v>
@@ -34793,7 +34793,7 @@
         <v>118.3160459226669</v>
       </c>
       <c r="P3" t="n">
-        <v>75.43070803911962</v>
+        <v>74.59083159384535</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34866,7 +34866,7 @@
         <v>5.188712983647946</v>
       </c>
       <c r="N4" t="n">
-        <v>13.00223184073351</v>
+        <v>13.00223184073349</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -35018,7 +35018,7 @@
         <v>39.23762151646886</v>
       </c>
       <c r="L6" t="n">
-        <v>59.47277200166522</v>
+        <v>99.55026996340837</v>
       </c>
       <c r="M6" t="n">
         <v>135.7228616576086</v>
@@ -35030,7 +35030,7 @@
         <v>118.3160459226669</v>
       </c>
       <c r="P6" t="n">
-        <v>75.43070803911962</v>
+        <v>35.35321007737658</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35173,25 +35173,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>51.25102853128971</v>
+        <v>51.25102853128965</v>
       </c>
       <c r="L8" t="n">
-        <v>100.8559397462241</v>
+        <v>100.855939746224</v>
       </c>
       <c r="M8" t="n">
-        <v>144.2109965784269</v>
+        <v>144.2109965784267</v>
       </c>
       <c r="N8" t="n">
         <v>151.2048937748925</v>
       </c>
       <c r="O8" t="n">
-        <v>129.3085326696337</v>
+        <v>129.3085326696336</v>
       </c>
       <c r="P8" t="n">
-        <v>75.5123451577706</v>
+        <v>75.51234515777054</v>
       </c>
       <c r="Q8" t="n">
-        <v>8.047286428072653</v>
+        <v>8.047286428072596</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>46.45669395238301</v>
+        <v>19.95972277939636</v>
       </c>
       <c r="L9" t="n">
         <v>109.2572037423672</v>
       </c>
       <c r="M9" t="n">
-        <v>147.0503955311659</v>
+        <v>147.0503955311658</v>
       </c>
       <c r="N9" t="n">
         <v>165.4965687223508</v>
       </c>
       <c r="O9" t="n">
-        <v>102.4558192544205</v>
+        <v>128.9527904274074</v>
       </c>
       <c r="P9" t="n">
-        <v>83.96763325613429</v>
+        <v>83.96763325613423</v>
       </c>
       <c r="Q9" t="n">
-        <v>5.706708427488508</v>
+        <v>5.706708427488479</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35334,13 +35334,13 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>7.371968606034244</v>
+        <v>7.371968606034216</v>
       </c>
       <c r="M10" t="n">
-        <v>11.06390223261016</v>
+        <v>11.0639022326101</v>
       </c>
       <c r="N10" t="n">
-        <v>18.73772222104904</v>
+        <v>18.73772222104901</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>6.092590538868166</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K11" t="n">
-        <v>60.3822424078835</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L11" t="n">
-        <v>112.1840179973022</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M11" t="n">
-        <v>156.8156663197549</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N11" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O11" t="n">
-        <v>141.4033554405815</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P11" t="n">
-        <v>85.83499656916007</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q11" t="n">
-        <v>15.7991677406599</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>52.65872908781481</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L12" t="n">
-        <v>117.5966053606292</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M12" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N12" t="n">
-        <v>175.4858258996323</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O12" t="n">
-        <v>138.0910091848231</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P12" t="n">
-        <v>91.30185944855708</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q12" t="n">
-        <v>10.60944440765005</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35571,16 +35571,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>12.15921574646086</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M13" t="n">
-        <v>16.11138312061163</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N13" t="n">
-        <v>23.66518529520835</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O13" t="n">
-        <v>1.340357307400609</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35899,7 +35899,7 @@
         <v>141.4033554405812</v>
       </c>
       <c r="P17" t="n">
-        <v>85.83499656915983</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q17" t="n">
         <v>15.79916774065975</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>6.092590538867927</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K20" t="n">
         <v>60.38224240788333</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781471</v>
       </c>
       <c r="L27" t="n">
         <v>117.596605360629</v>
@@ -36692,7 +36692,7 @@
         <v>91.30185944855694</v>
       </c>
       <c r="Q27" t="n">
-        <v>10.60944440764994</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>52.65872908781471</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L33" t="n">
         <v>117.596605360629</v>
@@ -37166,7 +37166,7 @@
         <v>91.30185944855694</v>
       </c>
       <c r="Q33" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764994</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>6.092590538867927</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K35" t="n">
         <v>60.38224240788333</v>
@@ -37558,7 +37558,7 @@
         <v>141.4033554405812</v>
       </c>
       <c r="P38" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915971</v>
       </c>
       <c r="Q38" t="n">
         <v>15.79916774065975</v>
@@ -37798,7 +37798,7 @@
         <v>85.8349965691599</v>
       </c>
       <c r="Q41" t="n">
-        <v>15.79916774065965</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37868,7 +37868,7 @@
         <v>156.7820838755146</v>
       </c>
       <c r="N42" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O42" t="n">
         <v>138.0910091848229</v>
@@ -38020,7 +38020,7 @@
         <v>60.38224240788333</v>
       </c>
       <c r="L44" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M44" t="n">
         <v>156.8156663197546</v>
@@ -38032,7 +38032,7 @@
         <v>141.4033554405812</v>
       </c>
       <c r="P44" t="n">
-        <v>85.83499656915983</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q44" t="n">
         <v>15.79916774065975</v>
@@ -38114,7 +38114,7 @@
         <v>91.30185944855694</v>
       </c>
       <c r="Q45" t="n">
-        <v>10.60944440764994</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_19_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_19_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>337781.5590914951</v>
+        <v>245167.2580288287</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14758048.2846054</v>
+        <v>14785957.46876066</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6288032.183655249</v>
+        <v>6282241.008167089</v>
       </c>
     </row>
     <row r="11">
@@ -703,31 +703,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>49.79500702712463</v>
       </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.848256208035306</v>
-      </c>
-      <c r="T2" t="n">
+      <c r="W2" t="n">
         <v>49.79500702712463</v>
       </c>
-      <c r="U2" t="n">
+      <c r="X2" t="n">
         <v>49.79500702712463</v>
       </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1.848256208035304</v>
       </c>
     </row>
     <row r="3">
@@ -752,58 +752,58 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>16.44799022605971</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>43.85944218949135</v>
+      </c>
+      <c r="U3" t="n">
         <v>49.79500702712463</v>
       </c>
-      <c r="I3" t="n">
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
         <v>49.79500702712463</v>
       </c>
-      <c r="J3" t="n">
-        <v>46.18894706358476</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>31.01751192697151</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>2.108154729829949</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -916,13 +916,13 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>34.49641925921217</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>17.14684397594775</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>49.79500702712468</v>
+        <v>35.46192228085542</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -992,13 +992,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>46.18894706358476</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1019,16 +1019,16 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>21.81101977343823</v>
       </c>
       <c r="R6" t="n">
-        <v>49.79500702712468</v>
+        <v>42.89642527627125</v>
       </c>
       <c r="S6" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>47.46550215303132</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>83.13719072031597</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="G8" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>24.91528667358037</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>23.65357118422324</v>
+        <v>15.61164031771682</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>33.05042947603757</v>
+        <v>112.1126601249237</v>
       </c>
     </row>
     <row r="9">
@@ -1211,31 +1211,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>78.43385687022766</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>60.45947654110297</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>92.6649492891022</v>
+        <v>102.3448132540521</v>
       </c>
       <c r="I9" t="n">
-        <v>65.63472101605001</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>33.84730027516773</v>
+        <v>30.08282103867671</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>14.3427387906227</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
     </row>
     <row r="10">
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>3.625377488803587</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,22 +1417,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>77.08171901666373</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>150.1450882057763</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>123.9456940637675</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1466,13 +1466,13 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H12" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>58.90455890409147</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>15.37922103265835</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>149.3009866603066</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>52.21594625443465</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="G14" t="n">
-        <v>187.5255871663201</v>
+        <v>88.09081815943067</v>
       </c>
       <c r="H14" t="n">
-        <v>165.1725371760947</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="15">
@@ -1688,19 +1688,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>36.39469600159786</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>149.7702446909496</v>
+        <v>94.69874621569464</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1751,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>52.21594625443465</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>52.21594625443444</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1846,25 +1846,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>337.6361713017724</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>337.6361713017724</v>
       </c>
       <c r="F17" t="n">
-        <v>188.5306089997005</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>380.175575964397</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>310.0661072569079</v>
+        <v>46.26223714979425</v>
       </c>
       <c r="I17" t="n">
-        <v>99.76882660971522</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,22 +1891,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>35.20287667141801</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>210.5254541783477</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1159255221454</v>
+        <v>251.1277025328068</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>337.6361713017724</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1922,16 +1922,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1940,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>73.23653030317644</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>15.57790799160442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>50.28561341314804</v>
+        <v>55.17599625828863</v>
       </c>
       <c r="S18" t="n">
-        <v>143.1445213099197</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>193.97180799574</v>
+        <v>194.2892890521601</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8403006767461</v>
+        <v>225.845482630877</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>86.11823956497645</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>211.7839247910102</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>337.6361713017724</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>380.1755759643971</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>310.0661072569079</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>99.76882660971522</v>
+        <v>105.4442416537264</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>35.20287667141801</v>
+        <v>44.45022224585207</v>
       </c>
       <c r="S20" t="n">
-        <v>74.37364275083866</v>
+        <v>146.9382674488656</v>
       </c>
       <c r="T20" t="n">
-        <v>210.5254541783477</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>337.6361713017724</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>10.44112116579431</v>
       </c>
     </row>
     <row r="21">
@@ -2168,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>22.71628892798966</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2213,10 +2213,10 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>193.97180799574</v>
+        <v>194.2892890521601</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8403006767461</v>
+        <v>225.845482630877</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>190.1992466359243</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2241,16 +2241,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>98.70339864828586</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>66.36287676807899</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>24.87325378943651</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>112.5803669580014</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2402,7 +2402,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -2453,10 +2453,10 @@
         <v>192.7632183107638</v>
       </c>
       <c r="U24" t="n">
-        <v>205.3835611767541</v>
+        <v>120.0280395919674</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>108.0728512656385</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.1876907596158</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>166.8904069722276</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>143.7034957973324</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>168.6438467263244</v>
       </c>
       <c r="G26" t="n">
         <v>411.8707348436268</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>78.1636065770829</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>226.1693462177482</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2639,19 +2639,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>83.83369232362027</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2681,22 +2681,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>31.66886087721423</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>137.5750138932992</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>168.7650553874552</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2712,31 +2712,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>9.85469223407264</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>160.0357802740664</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>18.15430933923916</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2794,25 +2794,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>191.3784863087064</v>
       </c>
       <c r="H29" t="n">
-        <v>160.2601066055975</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>78.1636065770829</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2888,7 +2888,7 @@
         <v>135.5072338470352</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,22 +2921,22 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U30" t="n">
-        <v>117.5703332470986</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>150.1992561455774</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -3003,16 +3003,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>185.9158911817651</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2350578157167</v>
+        <v>185.627950660891</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3040,10 +3040,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>217.9335812216243</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>319.7926215681799</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3113,16 +3113,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.2293911801176856</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3161,10 +3161,10 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>120.0280395919674</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3173,7 +3173,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>73.73431546344987</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>11.73858850237367</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3268,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.8707348436268</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>147.1935340707749</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>169.2012090326965</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3395,13 +3395,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>192.7632183107638</v>
       </c>
       <c r="U36" t="n">
-        <v>140.0981061540692</v>
+        <v>120.0280395919674</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>185.627950660891</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>220.0133056736537</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3511,19 +3511,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H38" t="n">
-        <v>291.4673204653297</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>78.1636065770829</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>72.47139712901028</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3587,13 +3587,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3629,16 +3629,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>20.2769799447086</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>140.0981061540692</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>7.748843519396612</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>125.0721477169169</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3748,16 +3748,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.8707348436268</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>148.9563657262918</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T41" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>79.00999148773846</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3824,16 +3824,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3869,25 +3869,25 @@
         <v>31.66886087721423</v>
       </c>
       <c r="S42" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>55.30182305744867</v>
       </c>
       <c r="U42" t="n">
-        <v>172.9035502653841</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3942,13 +3942,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>22.59469128425545</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>108.0728512656385</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>174.2365853489601</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3957,10 +3957,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>220.013305673654</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3979,10 +3979,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3991,10 +3991,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>197.2954741359663</v>
+        <v>273.289620208577</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4055,22 +4055,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>80.81071583586791</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>20.27697994470844</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4106,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>125.0721477169168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>185.627950660891</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4351,28 +4351,28 @@
         <v>156.7444867130883</v>
       </c>
       <c r="Q2" t="n">
+        <v>156.7444867130883</v>
+      </c>
+      <c r="R2" t="n">
+        <v>156.7444867130883</v>
+      </c>
+      <c r="S2" t="n">
+        <v>156.7444867130883</v>
+      </c>
+      <c r="T2" t="n">
+        <v>156.7444867130883</v>
+      </c>
+      <c r="U2" t="n">
+        <v>156.7444867130883</v>
+      </c>
+      <c r="V2" t="n">
         <v>106.4464998170029</v>
       </c>
-      <c r="R2" t="n">
-        <v>106.4464998170029</v>
-      </c>
-      <c r="S2" t="n">
-        <v>104.5795743543409</v>
-      </c>
-      <c r="T2" t="n">
-        <v>54.28158745825545</v>
-      </c>
-      <c r="U2" t="n">
-        <v>3.98360056216997</v>
-      </c>
-      <c r="V2" t="n">
-        <v>3.98360056216997</v>
-      </c>
       <c r="W2" t="n">
-        <v>3.98360056216997</v>
+        <v>56.14851292091738</v>
       </c>
       <c r="X2" t="n">
-        <v>3.98360056216997</v>
+        <v>5.850526024831893</v>
       </c>
       <c r="Y2" t="n">
         <v>3.98360056216997</v>
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>167.8492079802444</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="C3" t="n">
-        <v>167.8492079802444</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="D3" t="n">
-        <v>167.8492079802444</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="E3" t="n">
-        <v>167.8492079802444</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="F3" t="n">
-        <v>167.8492079802444</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="G3" t="n">
-        <v>151.23507643877</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="H3" t="n">
-        <v>100.9370895426845</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="I3" t="n">
-        <v>50.63910264659903</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="J3" t="n">
         <v>3.98360056216997</v>
@@ -4430,31 +4430,31 @@
         <v>199.1800281084985</v>
       </c>
       <c r="Q3" t="n">
-        <v>167.8492079802444</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="R3" t="n">
-        <v>167.8492079802444</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="S3" t="n">
-        <v>167.8492079802444</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="T3" t="n">
-        <v>167.8492079802444</v>
+        <v>154.8775612504264</v>
       </c>
       <c r="U3" t="n">
-        <v>167.8492079802444</v>
+        <v>104.5795743543409</v>
       </c>
       <c r="V3" t="n">
-        <v>167.8492079802444</v>
+        <v>104.5795743543409</v>
       </c>
       <c r="W3" t="n">
-        <v>167.8492079802444</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="X3" t="n">
-        <v>167.8492079802444</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="Y3" t="n">
-        <v>167.8492079802444</v>
+        <v>3.98360056216997</v>
       </c>
     </row>
     <row r="4">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>106.4464998170029</v>
+        <v>80.08361853967295</v>
       </c>
       <c r="C5" t="n">
-        <v>106.4464998170029</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="D5" t="n">
-        <v>106.4464998170029</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="E5" t="n">
-        <v>106.4464998170029</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="F5" t="n">
-        <v>106.4464998170029</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="G5" t="n">
-        <v>106.4464998170029</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="H5" t="n">
-        <v>106.4464998170029</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="I5" t="n">
-        <v>56.14851292091738</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="J5" t="n">
-        <v>21.30364498231922</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="K5" t="n">
-        <v>3.983600562169975</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="L5" t="n">
-        <v>19.82590800208273</v>
+        <v>42.77891399687743</v>
       </c>
       <c r="M5" t="n">
-        <v>69.12296495893617</v>
+        <v>115.5086717162376</v>
       </c>
       <c r="N5" t="n">
-        <v>118.4200219157896</v>
+        <v>188.2384294355977</v>
       </c>
       <c r="O5" t="n">
-        <v>156.7444867130885</v>
+        <v>249.0477644106464</v>
       </c>
       <c r="P5" t="n">
-        <v>156.7444867130885</v>
+        <v>266.4461240792085</v>
       </c>
       <c r="Q5" t="n">
-        <v>106.4464998170029</v>
+        <v>230.6260005631929</v>
       </c>
       <c r="R5" t="n">
-        <v>106.4464998170029</v>
+        <v>230.6260005631929</v>
       </c>
       <c r="S5" t="n">
-        <v>106.4464998170029</v>
+        <v>230.6260005631929</v>
       </c>
       <c r="T5" t="n">
-        <v>106.4464998170029</v>
+        <v>230.6260005631929</v>
       </c>
       <c r="U5" t="n">
-        <v>106.4464998170029</v>
+        <v>230.6260005631929</v>
       </c>
       <c r="V5" t="n">
-        <v>106.4464998170029</v>
+        <v>230.6260005631929</v>
       </c>
       <c r="W5" t="n">
-        <v>106.4464998170029</v>
+        <v>156.4195341624582</v>
       </c>
       <c r="X5" t="n">
-        <v>106.4464998170029</v>
+        <v>82.21306776172341</v>
       </c>
       <c r="Y5" t="n">
-        <v>106.4464998170029</v>
+        <v>82.21306776172341</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50.63910264659904</v>
+        <v>154.2900849404077</v>
       </c>
       <c r="C6" t="n">
-        <v>50.63910264659904</v>
+        <v>154.2900849404077</v>
       </c>
       <c r="D6" t="n">
-        <v>50.63910264659904</v>
+        <v>80.08361853967295</v>
       </c>
       <c r="E6" t="n">
-        <v>50.63910264659904</v>
+        <v>80.08361853967295</v>
       </c>
       <c r="F6" t="n">
-        <v>50.63910264659904</v>
+        <v>80.08361853967295</v>
       </c>
       <c r="G6" t="n">
-        <v>50.63910264659904</v>
+        <v>80.08361853967295</v>
       </c>
       <c r="H6" t="n">
-        <v>50.63910264659904</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="I6" t="n">
-        <v>50.63910264659904</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="J6" t="n">
-        <v>3.983600562169975</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="K6" t="n">
-        <v>3.983600562169975</v>
+        <v>17.40704038112031</v>
       </c>
       <c r="L6" t="n">
-        <v>22.5489608811108</v>
+        <v>79.23293915447337</v>
       </c>
       <c r="M6" t="n">
-        <v>71.84601783796424</v>
+        <v>151.9626968738335</v>
       </c>
       <c r="N6" t="n">
-        <v>121.1430747948177</v>
+        <v>224.6924545931936</v>
       </c>
       <c r="O6" t="n">
-        <v>170.4401317516711</v>
+        <v>293.8576069469096</v>
       </c>
       <c r="P6" t="n">
-        <v>199.1800281084987</v>
+        <v>293.8576069469096</v>
       </c>
       <c r="Q6" t="n">
-        <v>199.1800281084987</v>
+        <v>271.8262738424266</v>
       </c>
       <c r="R6" t="n">
-        <v>148.8820412124132</v>
+        <v>228.4965513411425</v>
       </c>
       <c r="S6" t="n">
-        <v>98.58405431632764</v>
+        <v>228.4965513411425</v>
       </c>
       <c r="T6" t="n">
-        <v>50.63910264659904</v>
+        <v>228.4965513411425</v>
       </c>
       <c r="U6" t="n">
-        <v>50.63910264659904</v>
+        <v>228.4965513411425</v>
       </c>
       <c r="V6" t="n">
-        <v>50.63910264659904</v>
+        <v>228.4965513411425</v>
       </c>
       <c r="W6" t="n">
-        <v>50.63910264659904</v>
+        <v>154.2900849404077</v>
       </c>
       <c r="X6" t="n">
-        <v>50.63910264659904</v>
+        <v>154.2900849404077</v>
       </c>
       <c r="Y6" t="n">
-        <v>50.63910264659904</v>
+        <v>154.2900849404077</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.983600562169975</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="C7" t="n">
-        <v>3.983600562169975</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="D7" t="n">
-        <v>3.983600562169975</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="E7" t="n">
-        <v>3.983600562169975</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="F7" t="n">
-        <v>3.983600562169975</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="G7" t="n">
-        <v>3.983600562169975</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="H7" t="n">
-        <v>3.983600562169975</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="I7" t="n">
-        <v>3.983600562169975</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="J7" t="n">
-        <v>3.983600562169975</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="K7" t="n">
-        <v>3.983600562169975</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="L7" t="n">
-        <v>3.983600562169975</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="M7" t="n">
-        <v>3.983600562169975</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="N7" t="n">
-        <v>3.983600562169975</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="O7" t="n">
-        <v>3.983600562169975</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="P7" t="n">
-        <v>3.983600562169975</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.983600562169975</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="R7" t="n">
-        <v>3.983600562169975</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="S7" t="n">
-        <v>3.983600562169975</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="T7" t="n">
-        <v>3.983600562169975</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="U7" t="n">
-        <v>3.983600562169975</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="V7" t="n">
-        <v>3.983600562169975</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="W7" t="n">
-        <v>3.983600562169975</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="X7" t="n">
-        <v>3.983600562169975</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.983600562169975</v>
+        <v>5.877152138938193</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>313.383028812711</v>
+        <v>206.1910843708421</v>
       </c>
       <c r="C8" t="n">
-        <v>313.383028812711</v>
+        <v>122.2141240472906</v>
       </c>
       <c r="D8" t="n">
-        <v>313.383028812711</v>
+        <v>122.2141240472906</v>
       </c>
       <c r="E8" t="n">
-        <v>313.383028812711</v>
+        <v>122.2141240472906</v>
       </c>
       <c r="F8" t="n">
-        <v>313.383028812711</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="G8" t="n">
-        <v>219.78206993483</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="H8" t="n">
-        <v>126.181111056949</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="I8" t="n">
-        <v>32.58015217906794</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="J8" t="n">
-        <v>7.413195943128176</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="K8" t="n">
-        <v>21.18357364821451</v>
+        <v>32.11753523687545</v>
       </c>
       <c r="L8" t="n">
-        <v>75.16870670940374</v>
+        <v>97.73708609773408</v>
       </c>
       <c r="M8" t="n">
-        <v>166.9070065056149</v>
+        <v>202.420917408393</v>
       </c>
       <c r="N8" t="n">
-        <v>258.6453063018261</v>
+        <v>313.4124509320676</v>
       </c>
       <c r="O8" t="n">
-        <v>337.6943058037292</v>
+        <v>404.8833474416799</v>
       </c>
       <c r="P8" t="n">
-        <v>370.6597971564088</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="Q8" t="n">
-        <v>346.7673010107287</v>
+        <v>432.6813068454354</v>
       </c>
       <c r="R8" t="n">
-        <v>346.7673010107287</v>
+        <v>432.6813068454354</v>
       </c>
       <c r="S8" t="n">
-        <v>346.7673010107287</v>
+        <v>432.6813068454354</v>
       </c>
       <c r="T8" t="n">
-        <v>346.7673010107287</v>
+        <v>432.6813068454354</v>
       </c>
       <c r="U8" t="n">
-        <v>346.7673010107287</v>
+        <v>319.4361956081387</v>
       </c>
       <c r="V8" t="n">
-        <v>346.7673010107287</v>
+        <v>319.4361956081387</v>
       </c>
       <c r="W8" t="n">
-        <v>346.7673010107287</v>
+        <v>319.4361956081387</v>
       </c>
       <c r="X8" t="n">
-        <v>346.7673010107287</v>
+        <v>319.4361956081387</v>
       </c>
       <c r="Y8" t="n">
-        <v>313.383028812711</v>
+        <v>206.1910843708421</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>356.1721822163859</v>
+        <v>255.9794112116631</v>
       </c>
       <c r="C9" t="n">
-        <v>356.1721822163859</v>
+        <v>255.9794112116631</v>
       </c>
       <c r="D9" t="n">
-        <v>356.1721822163859</v>
+        <v>142.7342999743665</v>
       </c>
       <c r="E9" t="n">
-        <v>356.1721822163859</v>
+        <v>142.7342999743665</v>
       </c>
       <c r="F9" t="n">
-        <v>295.1020038920394</v>
+        <v>142.7342999743665</v>
       </c>
       <c r="G9" t="n">
-        <v>201.5010450141584</v>
+        <v>142.7342999743665</v>
       </c>
       <c r="H9" t="n">
-        <v>107.9000861362774</v>
+        <v>39.35570072784916</v>
       </c>
       <c r="I9" t="n">
-        <v>41.60238814026729</v>
+        <v>39.35570072784916</v>
       </c>
       <c r="J9" t="n">
-        <v>7.413195943128176</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="K9" t="n">
-        <v>28.29609765201163</v>
+        <v>36.22166818534551</v>
       </c>
       <c r="L9" t="n">
-        <v>102.6982772648967</v>
+        <v>119.1887676792232</v>
       </c>
       <c r="M9" t="n">
-        <v>194.4365770611079</v>
+        <v>230.1803012028977</v>
       </c>
       <c r="N9" t="n">
-        <v>286.1748768573191</v>
+        <v>341.1718347265722</v>
       </c>
       <c r="O9" t="n">
-        <v>317.2247932514005</v>
+        <v>441.2239361578222</v>
       </c>
       <c r="P9" t="n">
-        <v>370.6597971564088</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="Q9" t="n">
-        <v>356.1721822163859</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="R9" t="n">
-        <v>356.1721822163859</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="S9" t="n">
-        <v>356.1721822163859</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="T9" t="n">
-        <v>356.1721822163859</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="U9" t="n">
-        <v>356.1721822163859</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="V9" t="n">
-        <v>356.1721822163859</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="W9" t="n">
-        <v>356.1721822163859</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="X9" t="n">
-        <v>356.1721822163859</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="Y9" t="n">
-        <v>356.1721822163859</v>
+        <v>335.2055292623982</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.413195943128176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="C10" t="n">
-        <v>7.413195943128176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="D10" t="n">
-        <v>7.413195943128176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="E10" t="n">
-        <v>7.413195943128176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="F10" t="n">
-        <v>7.413195943128176</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="G10" t="n">
-        <v>7.413195943128176</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="H10" t="n">
-        <v>7.413195943128176</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="I10" t="n">
-        <v>7.413195943128176</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="J10" t="n">
-        <v>7.413195943128176</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="K10" t="n">
-        <v>7.413195943128176</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="L10" t="n">
-        <v>7.413195943128176</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="M10" t="n">
-        <v>7.413195943128176</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="N10" t="n">
-        <v>7.413195943128176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="O10" t="n">
-        <v>7.413195943128176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="P10" t="n">
-        <v>7.413195943128176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="Q10" t="n">
-        <v>7.413195943128176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="R10" t="n">
-        <v>7.413195943128176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="S10" t="n">
-        <v>7.413195943128176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="T10" t="n">
-        <v>7.413195943128176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="U10" t="n">
-        <v>7.413195943128176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="V10" t="n">
-        <v>7.413195943128176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="W10" t="n">
-        <v>7.413195943128176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="X10" t="n">
-        <v>7.413195943128176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.413195943128176</v>
+        <v>12.63101027343186</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>141.7407511348962</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="C11" t="n">
-        <v>141.7407511348962</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="D11" t="n">
-        <v>141.7407511348962</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="E11" t="n">
-        <v>141.7407511348962</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="F11" t="n">
-        <v>141.7407511348962</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="G11" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H11" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I11" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J11" t="n">
-        <v>21.03371160678508</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K11" t="n">
-        <v>80.81213159058969</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L11" t="n">
-        <v>191.8743094079188</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M11" t="n">
-        <v>347.1218190644757</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N11" t="n">
-        <v>509.4952041123832</v>
+        <v>509.4952041123827</v>
       </c>
       <c r="O11" t="n">
-        <v>649.4845259985589</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P11" t="n">
-        <v>734.4611726020271</v>
+        <v>734.4611726020264</v>
       </c>
       <c r="Q11" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R11" t="n">
-        <v>672.2420264262261</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="S11" t="n">
-        <v>520.5803211678661</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="T11" t="n">
-        <v>331.1605361513812</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="U11" t="n">
-        <v>141.7407511348962</v>
+        <v>560.6825636487948</v>
       </c>
       <c r="V11" t="n">
-        <v>141.7407511348962</v>
+        <v>560.6825636487948</v>
       </c>
       <c r="W11" t="n">
-        <v>141.7407511348962</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="X11" t="n">
-        <v>141.7407511348962</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="Y11" t="n">
-        <v>141.7407511348962</v>
+        <v>371.2627786323101</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>750.1023486652804</v>
+        <v>448.0101957852228</v>
       </c>
       <c r="C12" t="n">
-        <v>624.9046778937981</v>
+        <v>448.0101957852228</v>
       </c>
       <c r="D12" t="n">
-        <v>475.9702682325468</v>
+        <v>299.0757861239715</v>
       </c>
       <c r="E12" t="n">
-        <v>475.9702682325468</v>
+        <v>299.0757861239715</v>
       </c>
       <c r="F12" t="n">
-        <v>329.4357102594317</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="G12" t="n">
-        <v>191.8965290818809</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H12" t="n">
-        <v>90.03616812153776</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I12" t="n">
-        <v>30.53661367296051</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J12" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K12" t="n">
-        <v>67.13418877024222</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L12" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M12" t="n">
-        <v>338.7690911140247</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N12" t="n">
-        <v>512.5000587546606</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O12" t="n">
-        <v>649.2101578476354</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P12" t="n">
-        <v>739.5989987017068</v>
+        <v>739.5989987017061</v>
       </c>
       <c r="Q12" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R12" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="S12" t="n">
-        <v>750.1023486652804</v>
+        <v>598.8192732198759</v>
       </c>
       <c r="T12" t="n">
-        <v>750.1023486652804</v>
+        <v>598.8192732198759</v>
       </c>
       <c r="U12" t="n">
-        <v>750.1023486652804</v>
+        <v>448.0101957852228</v>
       </c>
       <c r="V12" t="n">
-        <v>750.1023486652804</v>
+        <v>448.0101957852228</v>
       </c>
       <c r="W12" t="n">
-        <v>750.1023486652804</v>
+        <v>448.0101957852228</v>
       </c>
       <c r="X12" t="n">
-        <v>750.1023486652804</v>
+        <v>448.0101957852228</v>
       </c>
       <c r="Y12" t="n">
-        <v>750.1023486652804</v>
+        <v>448.0101957852228</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C13" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D13" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E13" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F13" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G13" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H13" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I13" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J13" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K13" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L13" t="n">
-        <v>27.03967056230183</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M13" t="n">
-        <v>42.98993985170729</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N13" t="n">
-        <v>66.41847329396353</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O13" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P13" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q13" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R13" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S13" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T13" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U13" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V13" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W13" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X13" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y13" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>750.1023486652804</v>
+        <v>293.4024563932556</v>
       </c>
       <c r="C14" t="n">
-        <v>560.6825636487954</v>
+        <v>293.4024563932556</v>
       </c>
       <c r="D14" t="n">
-        <v>560.6825636487954</v>
+        <v>293.4024563932556</v>
       </c>
       <c r="E14" t="n">
-        <v>560.6825636487954</v>
+        <v>293.4024563932556</v>
       </c>
       <c r="F14" t="n">
-        <v>371.2627786323104</v>
+        <v>103.9826713767709</v>
       </c>
       <c r="G14" t="n">
-        <v>181.8429936158255</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H14" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I14" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J14" t="n">
-        <v>21.03371160678506</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K14" t="n">
-        <v>80.81213159058967</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L14" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M14" t="n">
-        <v>347.1218190644757</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N14" t="n">
-        <v>509.4952041123833</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O14" t="n">
-        <v>649.4845259985589</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P14" t="n">
-        <v>734.4611726020271</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q14" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R14" t="n">
-        <v>750.1023486652804</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="S14" t="n">
-        <v>750.1023486652804</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="T14" t="n">
-        <v>750.1023486652804</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="U14" t="n">
-        <v>750.1023486652804</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="V14" t="n">
-        <v>750.1023486652804</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="W14" t="n">
-        <v>750.1023486652804</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="X14" t="n">
-        <v>750.1023486652804</v>
+        <v>482.8222414097404</v>
       </c>
       <c r="Y14" t="n">
-        <v>750.1023486652804</v>
+        <v>293.4024563932556</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>51.76436616683881</v>
+        <v>486.231712437439</v>
       </c>
       <c r="C15" t="n">
-        <v>51.76436616683881</v>
+        <v>311.778683156312</v>
       </c>
       <c r="D15" t="n">
-        <v>15.00204697330561</v>
+        <v>311.778683156312</v>
       </c>
       <c r="E15" t="n">
-        <v>15.00204697330561</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="F15" t="n">
-        <v>15.00204697330561</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="G15" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H15" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I15" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J15" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K15" t="n">
-        <v>67.1341887702422</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L15" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M15" t="n">
-        <v>338.7690911140247</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N15" t="n">
-        <v>512.5000587546606</v>
+        <v>512.5000587546599</v>
       </c>
       <c r="O15" t="n">
-        <v>649.2101578476354</v>
+        <v>649.2101578476346</v>
       </c>
       <c r="P15" t="n">
-        <v>739.5989987017068</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q15" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R15" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S15" t="n">
-        <v>598.8192732198768</v>
+        <v>654.4470494575071</v>
       </c>
       <c r="T15" t="n">
-        <v>598.8192732198768</v>
+        <v>654.4470494575071</v>
       </c>
       <c r="U15" t="n">
-        <v>409.3994882033918</v>
+        <v>654.4470494575071</v>
       </c>
       <c r="V15" t="n">
-        <v>409.3994882033918</v>
+        <v>654.4470494575071</v>
       </c>
       <c r="W15" t="n">
-        <v>409.3994882033918</v>
+        <v>654.4470494575071</v>
       </c>
       <c r="X15" t="n">
-        <v>219.9797031869068</v>
+        <v>654.4470494575071</v>
       </c>
       <c r="Y15" t="n">
-        <v>219.9797031869068</v>
+        <v>654.4470494575071</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C16" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D16" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E16" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F16" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G16" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H16" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I16" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J16" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K16" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L16" t="n">
-        <v>27.03967056230183</v>
+        <v>27.03967056230175</v>
       </c>
       <c r="M16" t="n">
-        <v>42.98993985170729</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N16" t="n">
-        <v>66.41847329396353</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O16" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P16" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q16" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R16" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S16" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T16" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="U16" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="V16" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W16" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X16" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y16" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1018.839418633435</v>
+        <v>755.8337015357974</v>
       </c>
       <c r="C17" t="n">
-        <v>1018.839418633435</v>
+        <v>414.7870638572394</v>
       </c>
       <c r="D17" t="n">
-        <v>1018.839418633435</v>
+        <v>414.7870638572394</v>
       </c>
       <c r="E17" t="n">
-        <v>1018.839418633435</v>
+        <v>73.74042617868145</v>
       </c>
       <c r="F17" t="n">
-        <v>828.4044600478792</v>
+        <v>73.74042617868145</v>
       </c>
       <c r="G17" t="n">
-        <v>444.3887267505084</v>
+        <v>73.74042617868145</v>
       </c>
       <c r="H17" t="n">
-        <v>131.1906386122176</v>
+        <v>27.01089370414179</v>
       </c>
       <c r="I17" t="n">
-        <v>30.41404607715176</v>
+        <v>27.01089370414179</v>
       </c>
       <c r="J17" t="n">
-        <v>92.46418127429581</v>
+        <v>76.69148555090078</v>
       </c>
       <c r="K17" t="n">
-        <v>236.199767342582</v>
+        <v>201.8883326102873</v>
       </c>
       <c r="L17" t="n">
-        <v>451.4182336881724</v>
+        <v>394.1078539078984</v>
       </c>
       <c r="M17" t="n">
-        <v>722.5596831006856</v>
+        <v>639.6585455322459</v>
       </c>
       <c r="N17" t="n">
-        <v>1002.702293013184</v>
+        <v>893.7963124412526</v>
       </c>
       <c r="O17" t="n">
-        <v>1253.897754396951</v>
+        <v>1120.436137987351</v>
       </c>
       <c r="P17" t="n">
-        <v>1433.786268216645</v>
+        <v>1279.36698473431</v>
       </c>
       <c r="Q17" t="n">
-        <v>1520.702303857588</v>
+        <v>1350.54468520709</v>
       </c>
       <c r="R17" t="n">
-        <v>1485.143842573327</v>
+        <v>1350.54468520709</v>
       </c>
       <c r="S17" t="n">
-        <v>1485.143842573327</v>
+        <v>1350.54468520709</v>
       </c>
       <c r="T17" t="n">
-        <v>1272.491868655804</v>
+        <v>1350.54468520709</v>
       </c>
       <c r="U17" t="n">
-        <v>1018.839418633435</v>
+        <v>1096.880339214355</v>
       </c>
       <c r="V17" t="n">
-        <v>1018.839418633435</v>
+        <v>1096.880339214355</v>
       </c>
       <c r="W17" t="n">
-        <v>1018.839418633435</v>
+        <v>755.8337015357974</v>
       </c>
       <c r="X17" t="n">
-        <v>1018.839418633435</v>
+        <v>755.8337015357974</v>
       </c>
       <c r="Y17" t="n">
-        <v>1018.839418633435</v>
+        <v>755.8337015357974</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>253.3247489739348</v>
+        <v>201.9836093071775</v>
       </c>
       <c r="C18" t="n">
-        <v>253.3247489739348</v>
+        <v>201.9836093071775</v>
       </c>
       <c r="D18" t="n">
-        <v>104.3903393126835</v>
+        <v>201.9836093071775</v>
       </c>
       <c r="E18" t="n">
-        <v>104.3903393126835</v>
+        <v>42.74615430172202</v>
       </c>
       <c r="F18" t="n">
-        <v>104.3903393126835</v>
+        <v>42.74615430172202</v>
       </c>
       <c r="G18" t="n">
-        <v>104.3903393126835</v>
+        <v>42.74615430172202</v>
       </c>
       <c r="H18" t="n">
-        <v>30.41404607715176</v>
+        <v>42.74615430172202</v>
       </c>
       <c r="I18" t="n">
-        <v>30.41404607715176</v>
+        <v>27.01089370414179</v>
       </c>
       <c r="J18" t="n">
-        <v>48.55283455759634</v>
+        <v>37.78246690495216</v>
       </c>
       <c r="K18" t="n">
-        <v>157.7097378993227</v>
+        <v>134.3476259009986</v>
       </c>
       <c r="L18" t="n">
-        <v>350.8072063959813</v>
+        <v>310.5139402071233</v>
       </c>
       <c r="M18" t="n">
-        <v>595.4997124846599</v>
+        <v>535.4485879464</v>
       </c>
       <c r="N18" t="n">
-        <v>861.0771460199772</v>
+        <v>780.7452314131492</v>
       </c>
       <c r="O18" t="n">
-        <v>1081.808817742993</v>
+        <v>982.9239423973728</v>
       </c>
       <c r="P18" t="n">
-        <v>1239.632378105363</v>
+        <v>1125.857116108951</v>
       </c>
       <c r="Q18" t="n">
-        <v>1295.214052212663</v>
+        <v>1171.484961076542</v>
       </c>
       <c r="R18" t="n">
-        <v>1244.420503310493</v>
+        <v>1115.751631522715</v>
       </c>
       <c r="S18" t="n">
-        <v>1099.830077744918</v>
+        <v>1115.751631522715</v>
       </c>
       <c r="T18" t="n">
-        <v>903.8989585573015</v>
+        <v>919.4998243993208</v>
       </c>
       <c r="U18" t="n">
-        <v>675.7774427222045</v>
+        <v>691.3730742671219</v>
       </c>
       <c r="V18" t="n">
-        <v>675.7774427222045</v>
+        <v>456.2209660353791</v>
       </c>
       <c r="W18" t="n">
-        <v>421.5400859940028</v>
+        <v>201.9836093071775</v>
       </c>
       <c r="X18" t="n">
-        <v>421.5400859940028</v>
+        <v>201.9836093071775</v>
       </c>
       <c r="Y18" t="n">
-        <v>421.5400859940028</v>
+        <v>201.9836093071775</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>117.4021668498553</v>
+        <v>27.01089370414179</v>
       </c>
       <c r="C19" t="n">
-        <v>117.4021668498553</v>
+        <v>27.01089370414179</v>
       </c>
       <c r="D19" t="n">
-        <v>117.4021668498553</v>
+        <v>27.01089370414179</v>
       </c>
       <c r="E19" t="n">
-        <v>30.41404607715176</v>
+        <v>27.01089370414179</v>
       </c>
       <c r="F19" t="n">
-        <v>30.41404607715176</v>
+        <v>27.01089370414179</v>
       </c>
       <c r="G19" t="n">
-        <v>30.41404607715176</v>
+        <v>27.01089370414179</v>
       </c>
       <c r="H19" t="n">
-        <v>30.41404607715176</v>
+        <v>27.01089370414179</v>
       </c>
       <c r="I19" t="n">
-        <v>30.41404607715176</v>
+        <v>27.01089370414179</v>
       </c>
       <c r="J19" t="n">
-        <v>30.41404607715176</v>
+        <v>27.01089370414179</v>
       </c>
       <c r="K19" t="n">
-        <v>50.84789001160262</v>
+        <v>39.84944722784345</v>
       </c>
       <c r="L19" t="n">
-        <v>106.9019728236725</v>
+        <v>86.18417328111897</v>
       </c>
       <c r="M19" t="n">
-        <v>169.2614268008277</v>
+        <v>138.2959283105005</v>
       </c>
       <c r="N19" t="n">
-        <v>237.9956382485872</v>
+        <v>197.0261081867309</v>
       </c>
       <c r="O19" t="n">
-        <v>281.1697185574735</v>
+        <v>230.9598461398794</v>
       </c>
       <c r="P19" t="n">
-        <v>299.050631680095</v>
+        <v>240.9340500586976</v>
       </c>
       <c r="Q19" t="n">
-        <v>299.050631680095</v>
+        <v>240.9340500586976</v>
       </c>
       <c r="R19" t="n">
-        <v>299.050631680095</v>
+        <v>240.9340500586976</v>
       </c>
       <c r="S19" t="n">
-        <v>299.050631680095</v>
+        <v>240.9340500586976</v>
       </c>
       <c r="T19" t="n">
-        <v>299.050631680095</v>
+        <v>27.01089370414179</v>
       </c>
       <c r="U19" t="n">
-        <v>299.050631680095</v>
+        <v>27.01089370414179</v>
       </c>
       <c r="V19" t="n">
-        <v>299.050631680095</v>
+        <v>27.01089370414179</v>
       </c>
       <c r="W19" t="n">
-        <v>299.050631680095</v>
+        <v>27.01089370414179</v>
       </c>
       <c r="X19" t="n">
-        <v>299.050631680095</v>
+        <v>27.01089370414179</v>
       </c>
       <c r="Y19" t="n">
-        <v>299.050631680095</v>
+        <v>27.01089370414179</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1197.366976988291</v>
+        <v>474.5668663864639</v>
       </c>
       <c r="C20" t="n">
-        <v>828.4044600478793</v>
+        <v>133.5202287079059</v>
       </c>
       <c r="D20" t="n">
-        <v>828.4044600478793</v>
+        <v>133.5202287079059</v>
       </c>
       <c r="E20" t="n">
-        <v>828.4044600478793</v>
+        <v>133.5202287079059</v>
       </c>
       <c r="F20" t="n">
-        <v>444.3887267505085</v>
+        <v>133.5202287079059</v>
       </c>
       <c r="G20" t="n">
-        <v>444.3887267505085</v>
+        <v>133.5202287079059</v>
       </c>
       <c r="H20" t="n">
-        <v>131.1906386122177</v>
+        <v>133.5202287079059</v>
       </c>
       <c r="I20" t="n">
-        <v>30.41404607715177</v>
+        <v>27.01089370414179</v>
       </c>
       <c r="J20" t="n">
-        <v>92.46418127429581</v>
+        <v>76.69148555090061</v>
       </c>
       <c r="K20" t="n">
-        <v>236.199767342582</v>
+        <v>201.8883326102873</v>
       </c>
       <c r="L20" t="n">
-        <v>451.4182336881724</v>
+        <v>394.1078539078981</v>
       </c>
       <c r="M20" t="n">
-        <v>722.5596831006856</v>
+        <v>639.6585455322455</v>
       </c>
       <c r="N20" t="n">
-        <v>1002.702293013184</v>
+        <v>893.7963124412522</v>
       </c>
       <c r="O20" t="n">
-        <v>1253.897754396951</v>
+        <v>1120.436137987351</v>
       </c>
       <c r="P20" t="n">
-        <v>1433.786268216646</v>
+        <v>1279.36698473431</v>
       </c>
       <c r="Q20" t="n">
-        <v>1520.702303857589</v>
+        <v>1350.54468520709</v>
       </c>
       <c r="R20" t="n">
-        <v>1485.143842573328</v>
+        <v>1305.64547081734</v>
       </c>
       <c r="S20" t="n">
-        <v>1410.018950905814</v>
+        <v>1157.222978444748</v>
       </c>
       <c r="T20" t="n">
-        <v>1197.366976988291</v>
+        <v>1157.222978444748</v>
       </c>
       <c r="U20" t="n">
-        <v>1197.366976988291</v>
+        <v>1157.222978444748</v>
       </c>
       <c r="V20" t="n">
-        <v>1197.366976988291</v>
+        <v>826.1600911011777</v>
       </c>
       <c r="W20" t="n">
-        <v>1197.366976988291</v>
+        <v>485.1134534226197</v>
       </c>
       <c r="X20" t="n">
-        <v>1197.366976988291</v>
+        <v>485.1134534226197</v>
       </c>
       <c r="Y20" t="n">
-        <v>1197.366976988291</v>
+        <v>474.5668663864639</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>189.6515010826073</v>
+        <v>49.95664009605053</v>
       </c>
       <c r="C21" t="n">
-        <v>189.6515010826073</v>
+        <v>49.95664009605053</v>
       </c>
       <c r="D21" t="n">
-        <v>189.6515010826073</v>
+        <v>49.95664009605053</v>
       </c>
       <c r="E21" t="n">
-        <v>30.41404607715177</v>
+        <v>27.01089370414179</v>
       </c>
       <c r="F21" t="n">
-        <v>30.41404607715177</v>
+        <v>27.01089370414179</v>
       </c>
       <c r="G21" t="n">
-        <v>30.41404607715177</v>
+        <v>27.01089370414179</v>
       </c>
       <c r="H21" t="n">
-        <v>30.41404607715177</v>
+        <v>27.01089370414179</v>
       </c>
       <c r="I21" t="n">
-        <v>30.41404607715177</v>
+        <v>27.01089370414179</v>
       </c>
       <c r="J21" t="n">
-        <v>48.55283455759636</v>
+        <v>37.78246690495216</v>
       </c>
       <c r="K21" t="n">
-        <v>157.7097378993227</v>
+        <v>134.3476259009986</v>
       </c>
       <c r="L21" t="n">
-        <v>350.8072063959813</v>
+        <v>310.5139402071233</v>
       </c>
       <c r="M21" t="n">
-        <v>595.49971248466</v>
+        <v>535.4485879464</v>
       </c>
       <c r="N21" t="n">
-        <v>861.0771460199774</v>
+        <v>780.7452314131492</v>
       </c>
       <c r="O21" t="n">
-        <v>1081.808817742993</v>
+        <v>982.9239423973728</v>
       </c>
       <c r="P21" t="n">
-        <v>1239.632378105364</v>
+        <v>1125.857116108951</v>
       </c>
       <c r="Q21" t="n">
-        <v>1295.214052212663</v>
+        <v>1171.484961076542</v>
       </c>
       <c r="R21" t="n">
-        <v>1295.214052212663</v>
+        <v>1171.484961076542</v>
       </c>
       <c r="S21" t="n">
-        <v>1295.214052212663</v>
+        <v>1171.484961076542</v>
       </c>
       <c r="T21" t="n">
-        <v>1099.282933025047</v>
+        <v>975.2331539531477</v>
       </c>
       <c r="U21" t="n">
-        <v>871.1614171899499</v>
+        <v>747.1064038209488</v>
       </c>
       <c r="V21" t="n">
-        <v>636.0093089582072</v>
+        <v>511.9542955892061</v>
       </c>
       <c r="W21" t="n">
-        <v>381.7719522300055</v>
+        <v>257.7169388610045</v>
       </c>
       <c r="X21" t="n">
-        <v>381.7719522300055</v>
+        <v>257.7169388610045</v>
       </c>
       <c r="Y21" t="n">
-        <v>189.6515010826073</v>
+        <v>49.95664009605053</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1520.702303857589</v>
+        <v>173.9008412020521</v>
       </c>
       <c r="C22" t="n">
-        <v>1351.766120929682</v>
+        <v>173.9008412020521</v>
       </c>
       <c r="D22" t="n">
-        <v>1252.065718254645</v>
+        <v>173.9008412020521</v>
       </c>
       <c r="E22" t="n">
-        <v>1252.065718254645</v>
+        <v>173.9008412020521</v>
       </c>
       <c r="F22" t="n">
-        <v>1252.065718254645</v>
+        <v>27.01089370414179</v>
       </c>
       <c r="G22" t="n">
-        <v>1252.065718254645</v>
+        <v>27.01089370414179</v>
       </c>
       <c r="H22" t="n">
-        <v>1252.065718254645</v>
+        <v>27.01089370414179</v>
       </c>
       <c r="I22" t="n">
-        <v>1252.065718254645</v>
+        <v>27.01089370414179</v>
       </c>
       <c r="J22" t="n">
-        <v>1252.065718254645</v>
+        <v>27.01089370414179</v>
       </c>
       <c r="K22" t="n">
-        <v>1272.499562189096</v>
+        <v>39.84944722784345</v>
       </c>
       <c r="L22" t="n">
-        <v>1328.553645001166</v>
+        <v>86.18417328111897</v>
       </c>
       <c r="M22" t="n">
-        <v>1390.913098978321</v>
+        <v>138.2959283105005</v>
       </c>
       <c r="N22" t="n">
-        <v>1459.647310426081</v>
+        <v>197.0261081867309</v>
       </c>
       <c r="O22" t="n">
-        <v>1502.821390734967</v>
+        <v>230.9598461398794</v>
       </c>
       <c r="P22" t="n">
-        <v>1520.702303857589</v>
+        <v>240.9340500586976</v>
       </c>
       <c r="Q22" t="n">
-        <v>1520.702303857589</v>
+        <v>240.9340500586976</v>
       </c>
       <c r="R22" t="n">
-        <v>1520.702303857589</v>
+        <v>240.9340500586976</v>
       </c>
       <c r="S22" t="n">
-        <v>1520.702303857589</v>
+        <v>240.9340500586976</v>
       </c>
       <c r="T22" t="n">
-        <v>1520.702303857589</v>
+        <v>240.9340500586976</v>
       </c>
       <c r="U22" t="n">
-        <v>1520.702303857589</v>
+        <v>240.9340500586976</v>
       </c>
       <c r="V22" t="n">
-        <v>1520.702303857589</v>
+        <v>173.9008412020521</v>
       </c>
       <c r="W22" t="n">
-        <v>1520.702303857589</v>
+        <v>173.9008412020521</v>
       </c>
       <c r="X22" t="n">
-        <v>1520.702303857589</v>
+        <v>173.9008412020521</v>
       </c>
       <c r="Y22" t="n">
-        <v>1520.702303857589</v>
+        <v>173.9008412020521</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>770.5974120852554</v>
+        <v>454.2819479135459</v>
       </c>
       <c r="C23" t="n">
-        <v>401.6348951448437</v>
+        <v>429.1574491363373</v>
       </c>
       <c r="D23" t="n">
-        <v>43.36919653809313</v>
+        <v>429.1574491363373</v>
       </c>
       <c r="E23" t="n">
-        <v>43.36919653809313</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="F23" t="n">
-        <v>43.36919653809313</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="G23" t="n">
-        <v>43.36919653809313</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="H23" t="n">
-        <v>43.36919653809313</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="I23" t="n">
-        <v>43.36919653809313</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="J23" t="n">
-        <v>152.5078184301906</v>
+        <v>152.5078184301902</v>
       </c>
       <c r="K23" t="n">
-        <v>366.8168396232727</v>
+        <v>366.8168396232723</v>
       </c>
       <c r="L23" t="n">
-        <v>669.5878927711881</v>
+        <v>669.5878927711875</v>
       </c>
       <c r="M23" t="n">
-        <v>1038.148464578732</v>
+        <v>1038.148464578731</v>
       </c>
       <c r="N23" t="n">
-        <v>1417.286540135169</v>
+        <v>1417.286540135168</v>
       </c>
       <c r="O23" t="n">
-        <v>1761.960612545599</v>
+        <v>1761.960612545598</v>
       </c>
       <c r="P23" t="n">
-        <v>2021.63095817245</v>
+        <v>2021.630958172449</v>
       </c>
       <c r="Q23" t="n">
-        <v>2168.459826904656</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="R23" t="n">
-        <v>2168.459826904656</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="S23" t="n">
-        <v>2168.459826904656</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="T23" t="n">
-        <v>1958.285829056572</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="U23" t="n">
-        <v>1844.568286674752</v>
+        <v>1914.852662567164</v>
       </c>
       <c r="V23" t="n">
-        <v>1513.505399331181</v>
+        <v>1583.789775223594</v>
       </c>
       <c r="W23" t="n">
-        <v>1160.736744061067</v>
+        <v>1231.021119953479</v>
       </c>
       <c r="X23" t="n">
-        <v>1160.736744061067</v>
+        <v>1231.021119953479</v>
       </c>
       <c r="Y23" t="n">
-        <v>770.5974120852554</v>
+        <v>840.8817879776677</v>
       </c>
     </row>
     <row r="24">
@@ -6044,40 +6044,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>525.9940904859269</v>
+        <v>377.0596808246756</v>
       </c>
       <c r="C24" t="n">
-        <v>351.5410612047999</v>
+        <v>202.6066515435486</v>
       </c>
       <c r="D24" t="n">
         <v>202.6066515435486</v>
       </c>
       <c r="E24" t="n">
-        <v>43.36919653809313</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="F24" t="n">
-        <v>43.36919653809313</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="G24" t="n">
-        <v>43.36919653809313</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="H24" t="n">
-        <v>43.36919653809313</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="I24" t="n">
-        <v>43.36919653809313</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="J24" t="n">
-        <v>89.55356510562338</v>
+        <v>89.55356510562335</v>
       </c>
       <c r="K24" t="n">
-        <v>246.6448318504524</v>
+        <v>246.6448318504523</v>
       </c>
       <c r="L24" t="n">
         <v>504.1959674104402</v>
       </c>
       <c r="M24" t="n">
-        <v>824.1028628789498</v>
+        <v>824.1028628789497</v>
       </c>
       <c r="N24" t="n">
         <v>1166.885386873582</v>
@@ -6101,19 +6101,19 @@
         <v>1571.516725807465</v>
       </c>
       <c r="U24" t="n">
-        <v>1364.058583204683</v>
+        <v>1450.276281775175</v>
       </c>
       <c r="V24" t="n">
-        <v>1364.058583204683</v>
+        <v>1215.124173543432</v>
       </c>
       <c r="W24" t="n">
-        <v>1109.821226476482</v>
+        <v>960.8868168152303</v>
       </c>
       <c r="X24" t="n">
-        <v>901.9697262709487</v>
+        <v>753.0353166096975</v>
       </c>
       <c r="Y24" t="n">
-        <v>694.2094275059949</v>
+        <v>545.2750178447436</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>43.36919653809313</v>
+        <v>193.4858359504288</v>
       </c>
       <c r="C25" t="n">
-        <v>43.36919653809313</v>
+        <v>193.4858359504288</v>
       </c>
       <c r="D25" t="n">
-        <v>43.36919653809313</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="E25" t="n">
-        <v>43.36919653809313</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="F25" t="n">
-        <v>43.36919653809313</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="G25" t="n">
-        <v>43.36919653809313</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="H25" t="n">
-        <v>43.36919653809313</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="I25" t="n">
-        <v>43.36919653809313</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="J25" t="n">
-        <v>43.36919653809313</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="K25" t="n">
-        <v>92.71685897981544</v>
+        <v>92.71685897981541</v>
       </c>
       <c r="L25" t="n">
         <v>185.7706748018945</v>
@@ -6171,28 +6171,28 @@
         <v>520.2893470406002</v>
       </c>
       <c r="R25" t="n">
-        <v>411.1248508126824</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="S25" t="n">
-        <v>211.9453651969089</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="T25" t="n">
-        <v>43.36919653809313</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="U25" t="n">
-        <v>43.36919653809313</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="V25" t="n">
-        <v>43.36919653809313</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="W25" t="n">
-        <v>43.36919653809313</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="X25" t="n">
-        <v>43.36919653809313</v>
+        <v>375.1343007806685</v>
       </c>
       <c r="Y25" t="n">
-        <v>43.36919653809313</v>
+        <v>375.1343007806685</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1256.174399222538</v>
+        <v>1094.48895231516</v>
       </c>
       <c r="C26" t="n">
-        <v>1256.174399222538</v>
+        <v>1094.48895231516</v>
       </c>
       <c r="D26" t="n">
-        <v>1256.174399222538</v>
+        <v>1094.48895231516</v>
       </c>
       <c r="E26" t="n">
-        <v>870.3861466242934</v>
+        <v>708.7006997169156</v>
       </c>
       <c r="F26" t="n">
-        <v>459.4002418346859</v>
+        <v>538.3533797913353</v>
       </c>
       <c r="G26" t="n">
-        <v>43.3691965380931</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H26" t="n">
-        <v>43.3691965380931</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I26" t="n">
-        <v>43.3691965380931</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="J26" t="n">
-        <v>152.5078184301904</v>
+        <v>152.5078184301906</v>
       </c>
       <c r="K26" t="n">
-        <v>366.8168396232724</v>
+        <v>366.8168396232727</v>
       </c>
       <c r="L26" t="n">
-        <v>669.5878927711874</v>
+        <v>669.5878927711881</v>
       </c>
       <c r="M26" t="n">
-        <v>1038.148464578731</v>
+        <v>1038.148464578732</v>
       </c>
       <c r="N26" t="n">
-        <v>1417.286540135168</v>
+        <v>1417.286540135169</v>
       </c>
       <c r="O26" t="n">
-        <v>1761.960612545598</v>
+        <v>1761.960612545599</v>
       </c>
       <c r="P26" t="n">
-        <v>2021.630958172449</v>
+        <v>2021.63095817245</v>
       </c>
       <c r="Q26" t="n">
-        <v>2168.459826904655</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="R26" t="n">
-        <v>2168.459826904655</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="S26" t="n">
-        <v>2168.459826904655</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="T26" t="n">
-        <v>2168.459826904655</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="U26" t="n">
-        <v>1940.005941836223</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="V26" t="n">
-        <v>1608.943054492652</v>
+        <v>1837.396939561086</v>
       </c>
       <c r="W26" t="n">
-        <v>1256.174399222538</v>
+        <v>1484.628284290972</v>
       </c>
       <c r="X26" t="n">
-        <v>1256.174399222538</v>
+        <v>1484.628284290972</v>
       </c>
       <c r="Y26" t="n">
-        <v>1256.174399222538</v>
+        <v>1094.48895231516</v>
       </c>
     </row>
     <row r="27">
@@ -6281,40 +6281,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>757.209145755628</v>
+        <v>450.153586535271</v>
       </c>
       <c r="C27" t="n">
-        <v>582.756116474501</v>
+        <v>275.700557254144</v>
       </c>
       <c r="D27" t="n">
-        <v>433.8217068132498</v>
+        <v>275.700557254144</v>
       </c>
       <c r="E27" t="n">
-        <v>274.5842518077943</v>
+        <v>275.700557254144</v>
       </c>
       <c r="F27" t="n">
-        <v>128.0496938346792</v>
+        <v>275.700557254144</v>
       </c>
       <c r="G27" t="n">
-        <v>43.3691965380931</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="H27" t="n">
-        <v>43.3691965380931</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="I27" t="n">
-        <v>43.3691965380931</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="J27" t="n">
-        <v>89.55356510562335</v>
+        <v>89.55356510562338</v>
       </c>
       <c r="K27" t="n">
-        <v>246.6448318504523</v>
+        <v>246.6448318504524</v>
       </c>
       <c r="L27" t="n">
         <v>504.1959674104402</v>
       </c>
       <c r="M27" t="n">
-        <v>824.1028628789497</v>
+        <v>824.1028628789498</v>
       </c>
       <c r="N27" t="n">
         <v>1166.885386873582</v>
@@ -6329,28 +6329,28 @@
         <v>1766.227047333489</v>
       </c>
       <c r="R27" t="n">
-        <v>1734.238298972666</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="S27" t="n">
-        <v>1595.273638474384</v>
+        <v>1627.262386835207</v>
       </c>
       <c r="T27" t="n">
-        <v>1595.273638474384</v>
+        <v>1432.552065309183</v>
       </c>
       <c r="U27" t="n">
-        <v>1595.273638474384</v>
+        <v>1204.450475442447</v>
       </c>
       <c r="V27" t="n">
-        <v>1595.273638474384</v>
+        <v>1033.980722525826</v>
       </c>
       <c r="W27" t="n">
-        <v>1341.036281746183</v>
+        <v>1033.980722525826</v>
       </c>
       <c r="X27" t="n">
-        <v>1133.18478154065</v>
+        <v>826.1292223202929</v>
       </c>
       <c r="Y27" t="n">
-        <v>925.4244827756961</v>
+        <v>618.3689235553391</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>520.2893470406002</v>
+        <v>510.3351124607289</v>
       </c>
       <c r="C28" t="n">
-        <v>520.2893470406002</v>
+        <v>341.398929532822</v>
       </c>
       <c r="D28" t="n">
-        <v>520.2893470406002</v>
+        <v>191.2822901204862</v>
       </c>
       <c r="E28" t="n">
-        <v>520.2893470406002</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="F28" t="n">
-        <v>373.3993995426898</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="G28" t="n">
-        <v>211.7470962355521</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="H28" t="n">
-        <v>61.70688273934478</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="I28" t="n">
-        <v>61.70688273934478</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="J28" t="n">
-        <v>43.3691965380931</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="K28" t="n">
-        <v>92.71685897981541</v>
+        <v>92.71685897981544</v>
       </c>
       <c r="L28" t="n">
         <v>185.7706748018945</v>
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1038.951999594608</v>
+        <v>1391.720654864722</v>
       </c>
       <c r="C29" t="n">
-        <v>669.9894826541963</v>
+        <v>1391.720654864722</v>
       </c>
       <c r="D29" t="n">
-        <v>669.9894826541963</v>
+        <v>1033.454956257972</v>
       </c>
       <c r="E29" t="n">
-        <v>284.2012300559521</v>
+        <v>647.6667036597273</v>
       </c>
       <c r="F29" t="n">
-        <v>284.2012300559521</v>
+        <v>236.6807988701198</v>
       </c>
       <c r="G29" t="n">
-        <v>284.2012300559521</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="H29" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="I29" t="n">
         <v>43.36919653809311</v>
@@ -6502,13 +6502,13 @@
         <v>2168.459826904656</v>
       </c>
       <c r="W29" t="n">
-        <v>1815.691171634541</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="X29" t="n">
-        <v>1815.691171634541</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="Y29" t="n">
-        <v>1425.55183965873</v>
+        <v>1778.320494928844</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>809.4046422439259</v>
+        <v>904.8600091750928</v>
       </c>
       <c r="C30" t="n">
-        <v>634.9516129627989</v>
+        <v>730.4069798939659</v>
       </c>
       <c r="D30" t="n">
-        <v>486.0172033015477</v>
+        <v>581.4725702327146</v>
       </c>
       <c r="E30" t="n">
-        <v>326.7797482960922</v>
+        <v>422.235115227259</v>
       </c>
       <c r="F30" t="n">
-        <v>180.2451903229772</v>
+        <v>275.700557254144</v>
       </c>
       <c r="G30" t="n">
-        <v>43.36919653809311</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="H30" t="n">
         <v>43.36919653809311</v>
@@ -6569,25 +6569,25 @@
         <v>1766.227047333489</v>
       </c>
       <c r="S30" t="n">
-        <v>1766.227047333489</v>
+        <v>1627.262386835207</v>
       </c>
       <c r="T30" t="n">
-        <v>1766.227047333489</v>
+        <v>1432.552065309183</v>
       </c>
       <c r="U30" t="n">
-        <v>1647.469134962682</v>
+        <v>1432.552065309183</v>
       </c>
       <c r="V30" t="n">
-        <v>1647.469134962682</v>
+        <v>1432.552065309183</v>
       </c>
       <c r="W30" t="n">
-        <v>1393.231778234481</v>
+        <v>1280.835644960115</v>
       </c>
       <c r="X30" t="n">
-        <v>1185.380278028948</v>
+        <v>1280.835644960115</v>
       </c>
       <c r="Y30" t="n">
-        <v>977.6199792639939</v>
+        <v>1073.075346195161</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1691.539676402149</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="C31" t="n">
-        <v>1691.539676402149</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="D31" t="n">
-        <v>1691.539676402149</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="E31" t="n">
-        <v>1691.539676402149</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="F31" t="n">
-        <v>1691.539676402149</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="G31" t="n">
-        <v>1691.539676402149</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="H31" t="n">
-        <v>1691.539676402149</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="I31" t="n">
-        <v>1691.539676402149</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J31" t="n">
-        <v>1691.539676402149</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="K31" t="n">
-        <v>1740.887338843871</v>
+        <v>92.71685897981541</v>
       </c>
       <c r="L31" t="n">
-        <v>1833.94115466595</v>
+        <v>185.7706748018945</v>
       </c>
       <c r="M31" t="n">
-        <v>1935.311639356789</v>
+        <v>287.1411594927338</v>
       </c>
       <c r="N31" t="n">
-        <v>2042.129286401802</v>
+        <v>393.9588065377468</v>
       </c>
       <c r="O31" t="n">
-        <v>2120.479583467422</v>
+        <v>472.3091036033668</v>
       </c>
       <c r="P31" t="n">
-        <v>2168.459826904656</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="Q31" t="n">
-        <v>2168.459826904656</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="R31" t="n">
-        <v>2168.459826904656</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="S31" t="n">
-        <v>2168.459826904656</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="T31" t="n">
-        <v>1980.665997428125</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="U31" t="n">
-        <v>1691.539676402149</v>
+        <v>332.7863665750537</v>
       </c>
       <c r="V31" t="n">
-        <v>1691.539676402149</v>
+        <v>332.7863665750537</v>
       </c>
       <c r="W31" t="n">
-        <v>1691.539676402149</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="X31" t="n">
-        <v>1691.539676402149</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="Y31" t="n">
-        <v>1691.539676402149</v>
+        <v>43.36919653809311</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1018.254896603642</v>
+        <v>752.180299205206</v>
       </c>
       <c r="C32" t="n">
-        <v>649.2923796632306</v>
+        <v>752.180299205206</v>
       </c>
       <c r="D32" t="n">
-        <v>649.2923796632306</v>
+        <v>752.180299205206</v>
       </c>
       <c r="E32" t="n">
-        <v>263.5041270649863</v>
+        <v>366.3920466069617</v>
       </c>
       <c r="F32" t="n">
-        <v>43.36919653809311</v>
+        <v>366.3920466069617</v>
       </c>
       <c r="G32" t="n">
-        <v>43.36919653809311</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="H32" t="n">
-        <v>43.36919653809311</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="I32" t="n">
-        <v>43.36919653809311</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="J32" t="n">
-        <v>152.5078184301904</v>
+        <v>152.5078184301906</v>
       </c>
       <c r="K32" t="n">
-        <v>366.8168396232724</v>
+        <v>366.8168396232727</v>
       </c>
       <c r="L32" t="n">
-        <v>669.5878927711874</v>
+        <v>669.5878927711881</v>
       </c>
       <c r="M32" t="n">
-        <v>1038.148464578731</v>
+        <v>1038.148464578732</v>
       </c>
       <c r="N32" t="n">
-        <v>1417.286540135168</v>
+        <v>1417.286540135169</v>
       </c>
       <c r="O32" t="n">
-        <v>1761.960612545598</v>
+        <v>1761.960612545599</v>
       </c>
       <c r="P32" t="n">
-        <v>2021.630958172449</v>
+        <v>2021.63095817245</v>
       </c>
       <c r="Q32" t="n">
         <v>2168.459826904656</v>
@@ -6727,25 +6727,25 @@
         <v>2168.459826904656</v>
       </c>
       <c r="S32" t="n">
-        <v>2168.459826904656</v>
+        <v>2036.325171642787</v>
       </c>
       <c r="T32" t="n">
-        <v>2168.459826904656</v>
+        <v>1826.151173794703</v>
       </c>
       <c r="U32" t="n">
-        <v>2168.459826904656</v>
+        <v>1826.151173794703</v>
       </c>
       <c r="V32" t="n">
-        <v>2168.459826904656</v>
+        <v>1495.088286451132</v>
       </c>
       <c r="W32" t="n">
-        <v>2168.459826904656</v>
+        <v>1142.319631181018</v>
       </c>
       <c r="X32" t="n">
-        <v>1794.994068643576</v>
+        <v>1142.319631181018</v>
       </c>
       <c r="Y32" t="n">
-        <v>1404.854736667764</v>
+        <v>752.180299205206</v>
       </c>
     </row>
     <row r="33">
@@ -6755,40 +6755,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>377.0596808246756</v>
+        <v>672.760356721787</v>
       </c>
       <c r="C33" t="n">
-        <v>202.6066515435486</v>
+        <v>498.3073274406601</v>
       </c>
       <c r="D33" t="n">
-        <v>202.6066515435486</v>
+        <v>349.3729177794088</v>
       </c>
       <c r="E33" t="n">
-        <v>43.36919653809311</v>
+        <v>190.1354627739533</v>
       </c>
       <c r="F33" t="n">
-        <v>43.36919653809311</v>
+        <v>43.60090480083826</v>
       </c>
       <c r="G33" t="n">
-        <v>43.36919653809311</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="H33" t="n">
-        <v>43.36919653809311</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="I33" t="n">
-        <v>43.36919653809311</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="J33" t="n">
-        <v>89.55356510562336</v>
+        <v>89.55356510562338</v>
       </c>
       <c r="K33" t="n">
-        <v>246.6448318504523</v>
+        <v>246.6448318504524</v>
       </c>
       <c r="L33" t="n">
         <v>504.1959674104402</v>
       </c>
       <c r="M33" t="n">
-        <v>824.1028628789497</v>
+        <v>824.1028628789498</v>
       </c>
       <c r="N33" t="n">
         <v>1166.885386873582</v>
@@ -6809,22 +6809,22 @@
         <v>1766.227047333489</v>
       </c>
       <c r="T33" t="n">
-        <v>1571.516725807465</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="U33" t="n">
-        <v>1450.276281775175</v>
+        <v>1538.125457466753</v>
       </c>
       <c r="V33" t="n">
-        <v>1215.124173543432</v>
+        <v>1302.973349235011</v>
       </c>
       <c r="W33" t="n">
-        <v>960.8868168152303</v>
+        <v>1048.735992506809</v>
       </c>
       <c r="X33" t="n">
-        <v>753.0353166096975</v>
+        <v>1048.735992506809</v>
       </c>
       <c r="Y33" t="n">
-        <v>545.2750178447436</v>
+        <v>840.9756937418551</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2168.459826904656</v>
+        <v>117.8483030668304</v>
       </c>
       <c r="C34" t="n">
-        <v>2168.459826904656</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="D34" t="n">
-        <v>2168.459826904656</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="E34" t="n">
-        <v>2156.602666801248</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="F34" t="n">
-        <v>2009.712719303338</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="G34" t="n">
-        <v>1841.579889898356</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="H34" t="n">
-        <v>1691.539676402149</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="I34" t="n">
-        <v>1691.539676402149</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="J34" t="n">
-        <v>1691.539676402149</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="K34" t="n">
-        <v>1740.887338843871</v>
+        <v>92.71685897981544</v>
       </c>
       <c r="L34" t="n">
-        <v>1833.94115466595</v>
+        <v>185.7706748018945</v>
       </c>
       <c r="M34" t="n">
-        <v>1935.311639356789</v>
+        <v>287.1411594927338</v>
       </c>
       <c r="N34" t="n">
-        <v>2042.129286401802</v>
+        <v>393.9588065377468</v>
       </c>
       <c r="O34" t="n">
-        <v>2120.479583467422</v>
+        <v>472.3091036033668</v>
       </c>
       <c r="P34" t="n">
-        <v>2168.459826904656</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="Q34" t="n">
-        <v>2168.459826904656</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="R34" t="n">
-        <v>2168.459826904656</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="S34" t="n">
-        <v>2168.459826904656</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="T34" t="n">
-        <v>2168.459826904656</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="U34" t="n">
-        <v>2168.459826904656</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="V34" t="n">
-        <v>2168.459826904656</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="W34" t="n">
-        <v>2168.459826904656</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="X34" t="n">
-        <v>2168.459826904656</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="Y34" t="n">
-        <v>2168.459826904656</v>
+        <v>299.4967678970701</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1404.854736667765</v>
+        <v>1181.583316874863</v>
       </c>
       <c r="C35" t="n">
-        <v>1404.854736667765</v>
+        <v>812.6207999344512</v>
       </c>
       <c r="D35" t="n">
-        <v>1404.854736667765</v>
+        <v>454.3551013277007</v>
       </c>
       <c r="E35" t="n">
-        <v>1019.066484069521</v>
+        <v>454.3551013277007</v>
       </c>
       <c r="F35" t="n">
-        <v>608.0805792799131</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="G35" t="n">
-        <v>192.0495339833203</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="H35" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="I35" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J35" t="n">
-        <v>152.5078184301906</v>
+        <v>152.5078184301904</v>
       </c>
       <c r="K35" t="n">
-        <v>366.8168396232727</v>
+        <v>366.8168396232724</v>
       </c>
       <c r="L35" t="n">
-        <v>669.5878927711881</v>
+        <v>669.5878927711874</v>
       </c>
       <c r="M35" t="n">
-        <v>1038.148464578732</v>
+        <v>1038.148464578731</v>
       </c>
       <c r="N35" t="n">
-        <v>1417.286540135169</v>
+        <v>1417.286540135168</v>
       </c>
       <c r="O35" t="n">
-        <v>1761.960612545599</v>
+        <v>1761.960612545598</v>
       </c>
       <c r="P35" t="n">
-        <v>2021.63095817245</v>
+        <v>2021.630958172449</v>
       </c>
       <c r="Q35" t="n">
         <v>2168.459826904656</v>
@@ -6964,25 +6964,25 @@
         <v>2168.459826904656</v>
       </c>
       <c r="S35" t="n">
-        <v>2168.459826904656</v>
+        <v>2036.325171642786</v>
       </c>
       <c r="T35" t="n">
-        <v>2168.459826904656</v>
+        <v>2036.325171642786</v>
       </c>
       <c r="U35" t="n">
-        <v>2168.459826904656</v>
+        <v>2036.325171642786</v>
       </c>
       <c r="V35" t="n">
-        <v>2168.459826904656</v>
+        <v>1705.262284299216</v>
       </c>
       <c r="W35" t="n">
-        <v>2168.459826904656</v>
+        <v>1352.493629029102</v>
       </c>
       <c r="X35" t="n">
-        <v>1794.994068643577</v>
+        <v>1181.583316874863</v>
       </c>
       <c r="Y35" t="n">
-        <v>1404.854736667765</v>
+        <v>1181.583316874863</v>
       </c>
     </row>
     <row r="36">
@@ -6992,40 +6992,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>217.8222258192201</v>
+        <v>377.0596808246756</v>
       </c>
       <c r="C36" t="n">
-        <v>43.36919653809313</v>
+        <v>202.6066515435486</v>
       </c>
       <c r="D36" t="n">
-        <v>43.36919653809313</v>
+        <v>202.6066515435486</v>
       </c>
       <c r="E36" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="F36" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="G36" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="H36" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="I36" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J36" t="n">
-        <v>89.55356510562338</v>
+        <v>89.55356510562336</v>
       </c>
       <c r="K36" t="n">
-        <v>246.6448318504524</v>
+        <v>246.6448318504523</v>
       </c>
       <c r="L36" t="n">
         <v>504.1959674104402</v>
       </c>
       <c r="M36" t="n">
-        <v>824.1028628789498</v>
+        <v>824.1028628789497</v>
       </c>
       <c r="N36" t="n">
         <v>1166.885386873582</v>
@@ -7043,25 +7043,25 @@
         <v>1766.227047333489</v>
       </c>
       <c r="S36" t="n">
-        <v>1627.262386835207</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="T36" t="n">
-        <v>1432.552065309183</v>
+        <v>1571.516725807465</v>
       </c>
       <c r="U36" t="n">
-        <v>1291.038826769719</v>
+        <v>1450.276281775175</v>
       </c>
       <c r="V36" t="n">
-        <v>1055.886718537977</v>
+        <v>1215.124173543432</v>
       </c>
       <c r="W36" t="n">
-        <v>801.649361809775</v>
+        <v>960.8868168152303</v>
       </c>
       <c r="X36" t="n">
-        <v>593.7978616042421</v>
+        <v>753.0353166096975</v>
       </c>
       <c r="Y36" t="n">
-        <v>386.0375628392882</v>
+        <v>545.2750178447436</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1691.53967640215</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="C37" t="n">
-        <v>1691.53967640215</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="D37" t="n">
-        <v>1691.53967640215</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="E37" t="n">
-        <v>1691.53967640215</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="F37" t="n">
-        <v>1691.53967640215</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="G37" t="n">
-        <v>1691.53967640215</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="H37" t="n">
-        <v>1691.53967640215</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="I37" t="n">
-        <v>1691.53967640215</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J37" t="n">
-        <v>1691.53967640215</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="K37" t="n">
-        <v>1740.887338843872</v>
+        <v>92.71685897981541</v>
       </c>
       <c r="L37" t="n">
-        <v>1833.941154665951</v>
+        <v>185.7706748018945</v>
       </c>
       <c r="M37" t="n">
-        <v>1935.31163935679</v>
+        <v>287.1411594927338</v>
       </c>
       <c r="N37" t="n">
-        <v>2042.129286401803</v>
+        <v>393.9588065377468</v>
       </c>
       <c r="O37" t="n">
-        <v>2120.479583467423</v>
+        <v>472.3091036033668</v>
       </c>
       <c r="P37" t="n">
-        <v>2168.459826904656</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="Q37" t="n">
-        <v>2168.459826904656</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="R37" t="n">
-        <v>2168.459826904656</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="S37" t="n">
-        <v>2168.459826904656</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="T37" t="n">
-        <v>2168.459826904656</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="U37" t="n">
-        <v>2168.459826904656</v>
+        <v>332.7863665750537</v>
       </c>
       <c r="V37" t="n">
-        <v>1913.775338698769</v>
+        <v>332.7863665750537</v>
       </c>
       <c r="W37" t="n">
-        <v>1691.53967640215</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="X37" t="n">
-        <v>1691.53967640215</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="Y37" t="n">
-        <v>1691.53967640215</v>
+        <v>43.36919653809311</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1450.797099496964</v>
+        <v>1572.982408223531</v>
       </c>
       <c r="C38" t="n">
-        <v>1081.834582556552</v>
+        <v>1204.019891283119</v>
       </c>
       <c r="D38" t="n">
-        <v>723.5688839498018</v>
+        <v>845.7541926763687</v>
       </c>
       <c r="E38" t="n">
-        <v>337.7806313515576</v>
+        <v>845.7541926763687</v>
       </c>
       <c r="F38" t="n">
-        <v>337.7806313515576</v>
+        <v>845.7541926763687</v>
       </c>
       <c r="G38" t="n">
-        <v>337.7806313515576</v>
+        <v>429.7231473797759</v>
       </c>
       <c r="H38" t="n">
-        <v>43.36919653809313</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I38" t="n">
         <v>43.36919653809313</v>
       </c>
       <c r="J38" t="n">
-        <v>152.5078184301906</v>
+        <v>152.5078184301904</v>
       </c>
       <c r="K38" t="n">
-        <v>366.8168396232732</v>
+        <v>366.8168396232724</v>
       </c>
       <c r="L38" t="n">
-        <v>669.5878927711883</v>
+        <v>669.5878927711876</v>
       </c>
       <c r="M38" t="n">
-        <v>1038.148464578732</v>
+        <v>1038.148464578731</v>
       </c>
       <c r="N38" t="n">
-        <v>1417.286540135169</v>
+        <v>1417.286540135168</v>
       </c>
       <c r="O38" t="n">
         <v>1761.960612545599</v>
@@ -7201,25 +7201,25 @@
         <v>2168.459826904656</v>
       </c>
       <c r="S38" t="n">
-        <v>2168.459826904656</v>
+        <v>2036.325171642787</v>
       </c>
       <c r="T38" t="n">
-        <v>2168.459826904656</v>
+        <v>2036.325171642787</v>
       </c>
       <c r="U38" t="n">
-        <v>2168.459826904656</v>
+        <v>2036.325171642787</v>
       </c>
       <c r="V38" t="n">
-        <v>1837.396939561086</v>
+        <v>2036.325171642787</v>
       </c>
       <c r="W38" t="n">
-        <v>1837.396939561086</v>
+        <v>1963.121740199343</v>
       </c>
       <c r="X38" t="n">
-        <v>1837.396939561086</v>
+        <v>1963.121740199343</v>
       </c>
       <c r="Y38" t="n">
-        <v>1837.396939561086</v>
+        <v>1572.982408223531</v>
       </c>
     </row>
     <row r="39">
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>672.528648459042</v>
+        <v>217.8222258192201</v>
       </c>
       <c r="C39" t="n">
-        <v>498.0756191779149</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="D39" t="n">
-        <v>349.1412095166637</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="E39" t="n">
-        <v>189.9037545112081</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="F39" t="n">
         <v>43.36919653809313</v>
@@ -7277,28 +7277,28 @@
         <v>1766.227047333489</v>
       </c>
       <c r="R39" t="n">
-        <v>1745.745249409541</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="S39" t="n">
-        <v>1745.745249409541</v>
+        <v>1627.262386835207</v>
       </c>
       <c r="T39" t="n">
-        <v>1745.745249409541</v>
+        <v>1432.552065309183</v>
       </c>
       <c r="U39" t="n">
-        <v>1745.745249409541</v>
+        <v>1291.038826769719</v>
       </c>
       <c r="V39" t="n">
-        <v>1510.593141177798</v>
+        <v>1055.886718537977</v>
       </c>
       <c r="W39" t="n">
-        <v>1256.355784449597</v>
+        <v>801.649361809775</v>
       </c>
       <c r="X39" t="n">
-        <v>1048.504284244064</v>
+        <v>593.7978616042421</v>
       </c>
       <c r="Y39" t="n">
-        <v>840.7439854791101</v>
+        <v>386.0375628392882</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>212.305379466</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="C40" t="n">
-        <v>43.36919653809313</v>
+        <v>351.3531641126933</v>
       </c>
       <c r="D40" t="n">
-        <v>43.36919653809313</v>
+        <v>201.2365247003576</v>
       </c>
       <c r="E40" t="n">
-        <v>43.36919653809313</v>
+        <v>193.4094100343004</v>
       </c>
       <c r="F40" t="n">
-        <v>43.36919653809313</v>
+        <v>193.4094100343004</v>
       </c>
       <c r="G40" t="n">
-        <v>43.36919653809313</v>
+        <v>193.4094100343004</v>
       </c>
       <c r="H40" t="n">
         <v>43.36919653809313</v>
@@ -7374,10 +7374,10 @@
         <v>520.2893470406002</v>
       </c>
       <c r="X40" t="n">
-        <v>393.9538442962397</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="Y40" t="n">
-        <v>393.9538442962397</v>
+        <v>520.2893470406002</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1020.847122105396</v>
+        <v>840.1433539259449</v>
       </c>
       <c r="C41" t="n">
-        <v>1020.847122105396</v>
+        <v>840.1433539259449</v>
       </c>
       <c r="D41" t="n">
-        <v>1020.847122105396</v>
+        <v>840.1433539259449</v>
       </c>
       <c r="E41" t="n">
-        <v>1020.847122105396</v>
+        <v>454.3551013277007</v>
       </c>
       <c r="F41" t="n">
-        <v>609.8612173157887</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="G41" t="n">
-        <v>193.830172019196</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="H41" t="n">
         <v>43.36919653809313</v>
@@ -7438,25 +7438,25 @@
         <v>2168.459826904656</v>
       </c>
       <c r="S41" t="n">
-        <v>2168.459826904656</v>
+        <v>2036.325171642787</v>
       </c>
       <c r="T41" t="n">
-        <v>1958.285829056572</v>
+        <v>2036.325171642787</v>
       </c>
       <c r="U41" t="n">
-        <v>1704.678664719081</v>
+        <v>2036.325171642787</v>
       </c>
       <c r="V41" t="n">
-        <v>1373.61577737551</v>
+        <v>1956.517099432951</v>
       </c>
       <c r="W41" t="n">
-        <v>1020.847122105396</v>
+        <v>1603.748444162836</v>
       </c>
       <c r="X41" t="n">
-        <v>1020.847122105396</v>
+        <v>1230.282685901757</v>
       </c>
       <c r="Y41" t="n">
-        <v>1020.847122105396</v>
+        <v>840.1433539259449</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>809.4046422439259</v>
+        <v>377.0596808246756</v>
       </c>
       <c r="C42" t="n">
-        <v>634.9516129627989</v>
+        <v>202.6066515435486</v>
       </c>
       <c r="D42" t="n">
-        <v>486.0172033015477</v>
+        <v>202.6066515435486</v>
       </c>
       <c r="E42" t="n">
-        <v>326.7797482960922</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="F42" t="n">
-        <v>180.2451903229772</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="G42" t="n">
         <v>43.36919653809313</v>
@@ -7517,25 +7517,25 @@
         <v>1734.238298972667</v>
       </c>
       <c r="S42" t="n">
-        <v>1595.273638474385</v>
+        <v>1734.238298972667</v>
       </c>
       <c r="T42" t="n">
-        <v>1595.273638474385</v>
+        <v>1678.37787164191</v>
       </c>
       <c r="U42" t="n">
-        <v>1420.623587701269</v>
+        <v>1450.276281775175</v>
       </c>
       <c r="V42" t="n">
-        <v>1185.471479469527</v>
+        <v>1215.124173543432</v>
       </c>
       <c r="W42" t="n">
-        <v>1185.471479469527</v>
+        <v>960.8868168152303</v>
       </c>
       <c r="X42" t="n">
-        <v>977.6199792639939</v>
+        <v>753.0353166096975</v>
       </c>
       <c r="Y42" t="n">
-        <v>977.6199792639939</v>
+        <v>545.2750178447436</v>
       </c>
     </row>
     <row r="43">
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>212.305379466</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="C43" t="n">
         <v>43.36919653809313</v>
@@ -7590,31 +7590,31 @@
         <v>520.2893470406002</v>
       </c>
       <c r="Q43" t="n">
-        <v>497.4664265514533</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="R43" t="n">
-        <v>388.3019303235355</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="S43" t="n">
-        <v>212.305379466</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="T43" t="n">
-        <v>212.305379466</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="U43" t="n">
-        <v>212.305379466</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="V43" t="n">
-        <v>212.305379466</v>
+        <v>265.6048588347134</v>
       </c>
       <c r="W43" t="n">
-        <v>212.305379466</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="X43" t="n">
-        <v>212.305379466</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="Y43" t="n">
-        <v>212.305379466</v>
+        <v>43.36919653809313</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1408.394228579454</v>
+        <v>1781.859986840534</v>
       </c>
       <c r="C44" t="n">
-        <v>1039.431711639042</v>
+        <v>1781.859986840534</v>
       </c>
       <c r="D44" t="n">
-        <v>1039.431711639042</v>
+        <v>1423.594288233783</v>
       </c>
       <c r="E44" t="n">
-        <v>653.643459040798</v>
+        <v>1037.806035635539</v>
       </c>
       <c r="F44" t="n">
-        <v>242.6575542511904</v>
+        <v>626.8201308459315</v>
       </c>
       <c r="G44" t="n">
-        <v>43.36919653809311</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="H44" t="n">
         <v>43.36919653809311</v>
@@ -7690,10 +7690,10 @@
         <v>2168.459826904656</v>
       </c>
       <c r="X44" t="n">
-        <v>1794.994068643576</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="Y44" t="n">
-        <v>1794.994068643576</v>
+        <v>2168.459826904656</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>693.0104463829898</v>
+        <v>299.449211512016</v>
       </c>
       <c r="C45" t="n">
-        <v>518.5574171018628</v>
+        <v>124.996182230889</v>
       </c>
       <c r="D45" t="n">
-        <v>369.6230074406116</v>
+        <v>124.996182230889</v>
       </c>
       <c r="E45" t="n">
-        <v>210.3855524351561</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="F45" t="n">
-        <v>63.85099446204103</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="G45" t="n">
         <v>43.36919653809311</v>
@@ -7754,25 +7754,25 @@
         <v>1766.227047333489</v>
       </c>
       <c r="S45" t="n">
-        <v>1766.227047333489</v>
+        <v>1627.262386835207</v>
       </c>
       <c r="T45" t="n">
-        <v>1766.227047333489</v>
+        <v>1432.552065309183</v>
       </c>
       <c r="U45" t="n">
-        <v>1766.227047333489</v>
+        <v>1204.450475442447</v>
       </c>
       <c r="V45" t="n">
-        <v>1531.074939101746</v>
+        <v>969.2983672107043</v>
       </c>
       <c r="W45" t="n">
-        <v>1276.837582373545</v>
+        <v>715.0610104825028</v>
       </c>
       <c r="X45" t="n">
-        <v>1068.986082168012</v>
+        <v>507.2095102769699</v>
       </c>
       <c r="Y45" t="n">
-        <v>861.2257834030579</v>
+        <v>299.449211512016</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>338.6408822103605</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="C46" t="n">
-        <v>169.7046992824536</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="D46" t="n">
-        <v>169.7046992824536</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="E46" t="n">
-        <v>169.7046992824536</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="F46" t="n">
-        <v>169.7046992824536</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="G46" t="n">
-        <v>169.7046992824536</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="H46" t="n">
         <v>43.36919653809311</v>
@@ -7839,19 +7839,19 @@
         <v>520.2893470406002</v>
       </c>
       <c r="U46" t="n">
-        <v>520.2893470406002</v>
+        <v>332.7863665750537</v>
       </c>
       <c r="V46" t="n">
-        <v>520.2893470406002</v>
+        <v>332.7863665750537</v>
       </c>
       <c r="W46" t="n">
-        <v>520.2893470406002</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="X46" t="n">
-        <v>520.2893470406002</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="Y46" t="n">
-        <v>520.2893470406002</v>
+        <v>43.36919653809311</v>
       </c>
     </row>
   </sheetData>
@@ -22591,31 +22591,31 @@
         <v>1.810057396252972</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.2236106924079309</v>
+        <v>50.01861771953256</v>
       </c>
       <c r="R2" t="n">
         <v>115.3674336481769</v>
       </c>
       <c r="S2" t="n">
-        <v>170.8162517411861</v>
+        <v>172.6645079492214</v>
       </c>
       <c r="T2" t="n">
-        <v>166.3169052439262</v>
+        <v>216.1119122710508</v>
       </c>
       <c r="U2" t="n">
-        <v>201.4230125321233</v>
+        <v>251.2180195592479</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>277.9572514430103</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>299.4459616902884</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>319.9360936513444</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>384.3896824480183</v>
       </c>
     </row>
     <row r="3">
@@ -22640,16 +22640,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>120.0419036629528</v>
+        <v>136.4898938890125</v>
       </c>
       <c r="H3" t="n">
-        <v>54.19623348224745</v>
+        <v>103.9912405093721</v>
       </c>
       <c r="I3" t="n">
-        <v>20.33727340070169</v>
+        <v>70.13228042782632</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>46.18894706358476</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22670,7 +22670,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>31.01751192697151</v>
       </c>
       <c r="R3" t="n">
         <v>92.6799817290989</v>
@@ -22679,19 +22679,19 @@
         <v>155.8274931817798</v>
       </c>
       <c r="T3" t="n">
-        <v>196.7240278659264</v>
+        <v>152.864585676435</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8852226550407</v>
+        <v>176.0902156279161</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>201.899976133795</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>155.9779781763528</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>380.6256869336506</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>291.8084900342801</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22798,16 +22798,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.707320657778</v>
+        <v>413.5725223992679</v>
       </c>
       <c r="H5" t="n">
-        <v>323.1357392253592</v>
+        <v>321.7552365603931</v>
       </c>
       <c r="I5" t="n">
-        <v>99.17357415002326</v>
+        <v>143.7717713159392</v>
       </c>
       <c r="J5" t="n">
-        <v>11.14047377036555</v>
+        <v>34.19605933636038</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22825,31 +22825,31 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.810057396252972</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.223610692407874</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>115.3674336481769</v>
+        <v>106.8999125420449</v>
       </c>
       <c r="S5" t="n">
-        <v>172.6645079492214</v>
+        <v>169.5927926334236</v>
       </c>
       <c r="T5" t="n">
-        <v>216.1119122710508</v>
+        <v>215.5218328944231</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2180195592479</v>
+        <v>251.2072356985671</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>275.7765669806856</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>296.2666989417417</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22868,7 +22868,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>73.98066382791134</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22877,16 +22877,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.4898938890125</v>
+        <v>136.4177704623012</v>
       </c>
       <c r="H6" t="n">
-        <v>103.9912405093721</v>
+        <v>29.83027830940662</v>
       </c>
       <c r="I6" t="n">
-        <v>70.13228042782632</v>
+        <v>67.64908349938912</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>39.37486489346175</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22907,25 +22907,25 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>31.01751192697151</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>42.88497470197422</v>
+        <v>45.30557738034904</v>
       </c>
       <c r="S6" t="n">
-        <v>106.0324861546551</v>
+        <v>154.4878321636994</v>
       </c>
       <c r="T6" t="n">
-        <v>149.2585257128951</v>
+        <v>196.4333198433488</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8852226550407</v>
+        <v>225.8804776927571</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>178.2305814241922</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22956,49 +22956,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.2753302804353</v>
+        <v>167.2148644222634</v>
       </c>
       <c r="H7" t="n">
-        <v>155.8644016137399</v>
+        <v>155.3268051656304</v>
       </c>
       <c r="I7" t="n">
-        <v>133.9289553808794</v>
+        <v>132.1105821187667</v>
       </c>
       <c r="J7" t="n">
-        <v>76.39903162313584</v>
+        <v>72.12409545038793</v>
       </c>
       <c r="K7" t="n">
-        <v>45.86784710562524</v>
+        <v>38.84281376529884</v>
       </c>
       <c r="L7" t="n">
-        <v>28.48717608127421</v>
+        <v>19.49755203998329</v>
       </c>
       <c r="M7" t="n">
-        <v>26.74453801706942</v>
+        <v>17.2662399038262</v>
       </c>
       <c r="N7" t="n">
-        <v>18.17171782551226</v>
+        <v>8.918792456364031</v>
       </c>
       <c r="O7" t="n">
-        <v>37.30279422357805</v>
+        <v>28.75622001580066</v>
       </c>
       <c r="P7" t="n">
-        <v>51.173501012562</v>
+        <v>43.86043031148982</v>
       </c>
       <c r="Q7" t="n">
-        <v>91.57915019604307</v>
+        <v>86.51595910858246</v>
       </c>
       <c r="R7" t="n">
-        <v>145.11520646895</v>
+        <v>142.3964416096969</v>
       </c>
       <c r="S7" t="n">
-        <v>211.5447863772357</v>
+        <v>210.4910313761868</v>
       </c>
       <c r="T7" t="n">
-        <v>224.8878160949084</v>
+        <v>224.6294619736288</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2799939522351</v>
+        <v>286.2766958145166</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23023,7 +23023,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>282.1357010506916</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23032,19 +23032,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>294.7633856167877</v>
       </c>
       <c r="G8" t="n">
-        <v>320.7982251355236</v>
+        <v>413.3887043444878</v>
       </c>
       <c r="H8" t="n">
-        <v>227.9704273259875</v>
+        <v>319.8727099068761</v>
       </c>
       <c r="I8" t="n">
-        <v>46.89118423444745</v>
+        <v>136.685125759028</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>18.59473170946464</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23068,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>100.0310828299331</v>
+        <v>95.3531516584621</v>
       </c>
       <c r="S8" t="n">
-        <v>167.1010256612668</v>
+        <v>165.4040387101212</v>
       </c>
       <c r="T8" t="n">
-        <v>215.0431621354273</v>
+        <v>214.717169359623</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1984878605957</v>
+        <v>139.079870129261</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>353.187509180016</v>
+        <v>274.1252785311299</v>
       </c>
     </row>
     <row r="9">
@@ -23099,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>88.09932677963968</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>35.33240543971505</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>84.60973585228091</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>43.69431484884211</v>
+        <v>136.3194191323308</v>
       </c>
       <c r="H9" t="n">
-        <v>10.06468283495377</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>64.26286446312977</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23144,19 +23144,19 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>9.256558775821418</v>
       </c>
       <c r="R9" t="n">
-        <v>84.56947841277972</v>
+        <v>82.095592888813</v>
       </c>
       <c r="S9" t="n">
-        <v>153.4011028494393</v>
+        <v>152.6609993460486</v>
       </c>
       <c r="T9" t="n">
-        <v>196.197498299121</v>
+        <v>196.0368949650912</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8766285924705</v>
+        <v>225.8740072105222</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23168,7 +23168,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>93.57003565238065</v>
       </c>
     </row>
     <row r="10">
@@ -23190,52 +23190,52 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>141.7956705341277</v>
       </c>
       <c r="G10" t="n">
-        <v>167.1658146852775</v>
+        <v>167.1324099710516</v>
       </c>
       <c r="H10" t="n">
-        <v>154.8907084131551</v>
+        <v>154.5937101357652</v>
       </c>
       <c r="I10" t="n">
-        <v>130.6355227555885</v>
+        <v>129.630951895051</v>
       </c>
       <c r="J10" t="n">
-        <v>68.65627904547948</v>
+        <v>66.29456574971167</v>
       </c>
       <c r="K10" t="n">
-        <v>33.14412614092828</v>
+        <v>29.26310570632462</v>
       </c>
       <c r="L10" t="n">
-        <v>12.20519387026839</v>
+        <v>7.238823902544752</v>
       </c>
       <c r="M10" t="n">
-        <v>9.577470677924651</v>
+        <v>4.341129883412066</v>
       </c>
       <c r="N10" t="n">
-        <v>1.412844977410202</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>21.823262646183</v>
+        <v>17.10165812996878</v>
       </c>
       <c r="P10" t="n">
-        <v>37.92808757638606</v>
+        <v>33.88793923037925</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.40871249605685</v>
+        <v>79.61152319847201</v>
       </c>
       <c r="R10" t="n">
-        <v>140.1909870721275</v>
+        <v>138.6889896488451</v>
       </c>
       <c r="S10" t="n">
-        <v>209.6362282325312</v>
+        <v>209.0540751673406</v>
       </c>
       <c r="T10" t="n">
-        <v>224.4198858246887</v>
+        <v>224.2771565911783</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2740203743174</v>
+        <v>286.2721982989959</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23269,16 +23269,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753915</v>
       </c>
       <c r="G11" t="n">
-        <v>413.097833230058</v>
+        <v>247.9252960539635</v>
       </c>
       <c r="H11" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,22 +23305,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S11" t="n">
-        <v>8.630724984276782</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T11" t="n">
-        <v>25.91829388988668</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U11" t="n">
-        <v>63.64367339871023</v>
+        <v>63.64367339871043</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>161.7153815510931</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23339,7 +23339,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>48.76280492454826</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23354,13 +23354,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>72.43289562846316</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S12" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8637684100909</v>
+        <v>76.56278174978436</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23439,10 +23439,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J13" t="n">
-        <v>4.85405337381949</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K13" t="n">
-        <v>14.10430989402848</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,10 +23457,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>18.10760906709382</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q13" t="n">
-        <v>68.68604055159722</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R13" t="n">
         <v>132.8223696106904</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>234.3070520821566</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,7 +23497,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>177.7473046046875</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23506,13 +23506,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>219.3504585753913</v>
+        <v>219.3504585753916</v>
       </c>
       <c r="G14" t="n">
-        <v>225.5722460637379</v>
+        <v>325.0070150706273</v>
       </c>
       <c r="H14" t="n">
-        <v>151.7212889301276</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I14" t="n">
         <v>125.4713171199747</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>77.08171901666373</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>158.7758131900531</v>
@@ -23560,10 +23560,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>182.2055135121492</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897337</v>
       </c>
     </row>
     <row r="15">
@@ -23576,28 +23576,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>111.0503695630409</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I15" t="n">
-        <v>58.90455890409147</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J15" t="n">
-        <v>15.37922103265835</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>72.43289562846316</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>55.07149847525498</v>
       </c>
       <c r="T15" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U15" t="n">
-        <v>38.33818124377083</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23639,7 +23639,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>18.24739803715738</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23676,10 +23676,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J16" t="n">
-        <v>4.85405337381949</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K16" t="n">
-        <v>14.10430989402848</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,10 +23694,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>18.10760906709382</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q16" t="n">
-        <v>68.68604055159722</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R16" t="n">
         <v>132.8223696106904</v>
@@ -23706,7 +23706,7 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T16" t="n">
-        <v>223.7196734901001</v>
+        <v>171.5037272356657</v>
       </c>
       <c r="U16" t="n">
         <v>286.2650814934503</v>
@@ -23734,25 +23734,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>27.63672046923517</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>44.2941987704894</v>
       </c>
       <c r="F17" t="n">
-        <v>218.345436742011</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>32.25556922959959</v>
+        <v>412.5783578272632</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>265.3115114875553</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>105.4442416537264</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,13 +23779,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>44.45022224585207</v>
       </c>
       <c r="S17" t="n">
-        <v>143.5836595683026</v>
+        <v>146.9382674488656</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>211.1698774804723</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23794,7 +23794,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>11.60479741564063</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23810,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.8070798189336</v>
+        <v>135.8858455217234</v>
       </c>
       <c r="H18" t="n">
-        <v>24.16016379253898</v>
+        <v>98.15740496213245</v>
       </c>
       <c r="I18" t="n">
-        <v>46.6231117869522</v>
+        <v>33.75709312385538</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>144.6075596928789</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23870,7 +23870,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23898,22 +23898,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>60.31572308159272</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.7028819012924</v>
+        <v>166.7689164205999</v>
       </c>
       <c r="H19" t="n">
-        <v>150.7748151155418</v>
+        <v>151.3619220235667</v>
       </c>
       <c r="I19" t="n">
-        <v>116.7138713971992</v>
+        <v>118.6997094869194</v>
       </c>
       <c r="J19" t="n">
-        <v>35.92693121773067</v>
+        <v>40.59557173277125</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>43.64440455708369</v>
+        <v>49.17389507836937</v>
       </c>
       <c r="R19" t="n">
-        <v>119.3758457122142</v>
+        <v>122.3449978258044</v>
       </c>
       <c r="S19" t="n">
-        <v>201.5685723516267</v>
+        <v>202.7193739290129</v>
       </c>
       <c r="T19" t="n">
-        <v>222.4419002931159</v>
+        <v>10.94012299369228</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2487694951909</v>
+        <v>286.2523713780622</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23971,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>27.63672046923517</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23980,13 +23980,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>26.70046977731431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>412.4311451939966</v>
+        <v>412.5783578272632</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>311.5737486373496</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>69.2100168174639</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>211.1698774804723</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1159255221454</v>
+        <v>251.1277025328068</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>11.60479741564063</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>375.7968174902593</v>
       </c>
     </row>
     <row r="21">
@@ -24056,19 +24056,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>134.9287915274113</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.8070798189336</v>
+        <v>135.8858455217234</v>
       </c>
       <c r="H21" t="n">
-        <v>97.39669409571542</v>
+        <v>98.15740496213245</v>
       </c>
       <c r="I21" t="n">
-        <v>46.6231117869522</v>
+        <v>49.3350011154598</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>50.28561341314804</v>
+        <v>55.17599625828863</v>
       </c>
       <c r="S21" t="n">
-        <v>143.1445213099197</v>
+        <v>144.6075596928789</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>15.48344914138011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24129,28 +24129,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>49.9120743699265</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.7028819012924</v>
+        <v>166.7689164205999</v>
       </c>
       <c r="H22" t="n">
-        <v>150.7748151155418</v>
+        <v>151.3619220235667</v>
       </c>
       <c r="I22" t="n">
-        <v>116.7138713971992</v>
+        <v>118.6997094869194</v>
       </c>
       <c r="J22" t="n">
-        <v>35.92693121773067</v>
+        <v>40.59557173277125</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,22 +24171,22 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>43.64440455708369</v>
+        <v>49.17389507836937</v>
       </c>
       <c r="R22" t="n">
-        <v>119.3758457122142</v>
+        <v>122.3449978258044</v>
       </c>
       <c r="S22" t="n">
-        <v>201.5685723516267</v>
+        <v>202.7193739290129</v>
       </c>
       <c r="T22" t="n">
-        <v>222.4419002931159</v>
+        <v>222.7240477847025</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2487694951909</v>
+        <v>286.2523713780622</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>185.774766555749</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>340.3996379815711</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24259,10 +24259,10 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U23" t="n">
-        <v>138.4907257361144</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24290,7 +24290,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -24341,10 +24341,10 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>20.43701279131449</v>
+        <v>105.7925343761012</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24411,13 +24411,13 @@
         <v>22.59469128425545</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T25" t="n">
-        <v>54.47741176207504</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U25" t="n">
         <v>286.2350578157167</v>
@@ -24429,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>82.0061595917048</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24454,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>238.232199015387</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>304.326804756183</v>
       </c>
       <c r="I26" t="n">
-        <v>78.1636065770829</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,7 +24499,7 @@
         <v>208.0722578696039</v>
       </c>
       <c r="U26" t="n">
-        <v>24.90174647636761</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24527,19 +24527,19 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>51.67354152341495</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>94.50081326185511</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>36.2994675790488</v>
@@ -24569,22 +24569,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>31.66886087721423</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>64.03553176197002</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24600,31 +24600,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>169.9772879478647</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>6.415720836865432</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I28" t="n">
         <v>109.1541654470835</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>18.15430933923916</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24682,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>411.8707348436268</v>
+        <v>220.4922485349204</v>
       </c>
       <c r="H29" t="n">
-        <v>144.0666981505855</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>78.1636065770829</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24742,7 +24742,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24776,7 +24776,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>94.50081326185511</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>36.2994675790488</v>
@@ -24809,22 +24809,22 @@
         <v>31.66886087721423</v>
       </c>
       <c r="S30" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>108.2502407209699</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>101.4957270153422</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24891,16 +24891,16 @@
         <v>197.1876907596158</v>
       </c>
       <c r="T31" t="n">
-        <v>35.45192755253754</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>100.6071071548257</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24928,10 +24928,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>188.9424645200872</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.8707348436268</v>
+        <v>92.07811327544692</v>
       </c>
       <c r="H32" t="n">
         <v>304.326804756183</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.0710926941158</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25001,16 +25001,16 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>135.5072338470352</v>
+        <v>135.2778426669175</v>
       </c>
       <c r="H33" t="n">
         <v>94.50081326185511</v>
@@ -25049,10 +25049,10 @@
         <v>137.5750138932992</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U33" t="n">
-        <v>105.7925343761012</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25061,7 +25061,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>93.51250563517796</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>134.6953741441955</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I34" t="n">
         <v>109.1541654470835</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25156,22 +25156,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H35" t="n">
-        <v>157.1332706854081</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I35" t="n">
         <v>78.1636065770829</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>208.0722578696039</v>
@@ -25213,16 +25213,16 @@
         <v>251.0710926941158</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>200.5298916457725</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25241,7 +25241,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25283,13 +25283,13 @@
         <v>31.66886087721423</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>85.72246781399937</v>
+        <v>105.7925343761012</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25368,13 +25368,13 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2350578157167</v>
+        <v>100.6071071548257</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>66.50969266293728</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,19 +25399,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.8707348436268</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>12.85948429085323</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>78.1636065770829</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>208.0722578696039</v>
@@ -25450,16 +25450,16 @@
         <v>251.0710926941158</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>276.7695715884028</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25475,13 +25475,13 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>135.5072338470352</v>
@@ -25517,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>11.39188093250563</v>
+        <v>31.66886087721423</v>
       </c>
       <c r="S39" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8205739680685</v>
+        <v>85.72246781399937</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>138.6851191271726</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,7 +25566,7 @@
         <v>166.4515011109318</v>
       </c>
       <c r="H40" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>109.1541654470835</v>
@@ -25614,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>100.6375076721203</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25636,16 +25636,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H41" t="n">
-        <v>155.3704390298912</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I41" t="n">
         <v>78.1636065770829</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>248.7422669823964</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25712,16 +25712,16 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H42" t="n">
         <v>94.50081326185511</v>
@@ -25757,25 +25757,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T42" t="n">
-        <v>192.7632183107638</v>
+        <v>137.4613952533151</v>
       </c>
       <c r="U42" t="n">
-        <v>52.91702370268445</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25830,13 +25830,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>22.59469128425545</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S43" t="n">
-        <v>22.95110541065569</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T43" t="n">
         <v>221.3678187343026</v>
@@ -25845,10 +25845,10 @@
         <v>286.2350578157167</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>66.50969266293697</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25867,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>214.5752607076604</v>
+        <v>138.5811146350497</v>
       </c>
       <c r="H44" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>78.1636065770829</v>
@@ -25930,7 +25930,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25943,22 +25943,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>76.83436461953303</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>115.2302539023268</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H45" t="n">
         <v>94.50081326185511</v>
@@ -25994,13 +25994,13 @@
         <v>31.66886087721423</v>
       </c>
       <c r="S45" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26040,7 +26040,7 @@
         <v>166.4515011109318</v>
       </c>
       <c r="H46" t="n">
-        <v>23.46766364432837</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I46" t="n">
         <v>109.1541654470835</v>
@@ -26079,13 +26079,13 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2350578157167</v>
+        <v>100.6071071548257</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>314318.0455466998</v>
+        <v>341002.523762429</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>362616.6230072703</v>
+        <v>379382.0342027748</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>441595.0580613401</v>
+        <v>441595.05806134</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>441595.0580613401</v>
+        <v>441595.05806134</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>573513.5818400488</v>
+        <v>544392.7033332874</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>573513.5818400488</v>
+        <v>544392.7033332874</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>684371.1989135403</v>
+        <v>684371.1989135402</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>684371.1989135402</v>
+        <v>684371.1989135403</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>684371.1989135403</v>
+        <v>684371.1989135401</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>684371.1989135405</v>
+        <v>684371.1989135403</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>684371.1989135401</v>
+        <v>684371.1989135402</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>684371.1989135401</v>
+        <v>684371.1989135402</v>
       </c>
     </row>
   </sheetData>
@@ -26316,10 +26316,10 @@
         <v>100818.9957413941</v>
       </c>
       <c r="C2" t="n">
-        <v>100818.9957413942</v>
+        <v>109378.1679992695</v>
       </c>
       <c r="D2" t="n">
-        <v>116310.9922853508</v>
+        <v>121688.5770084371</v>
       </c>
       <c r="E2" t="n">
         <v>141643.6978687317</v>
@@ -26328,16 +26328,16 @@
         <v>141643.6978687317</v>
       </c>
       <c r="G2" t="n">
-        <v>183957.1866279401</v>
+        <v>174616.527484262</v>
       </c>
       <c r="H2" t="n">
-        <v>183957.1866279401</v>
+        <v>174616.527484262</v>
       </c>
       <c r="I2" t="n">
+        <v>219515.2902175505</v>
+      </c>
+      <c r="J2" t="n">
         <v>219515.2902175506</v>
-      </c>
-      <c r="J2" t="n">
-        <v>219515.2902175505</v>
       </c>
       <c r="K2" t="n">
         <v>219515.2902175505</v>
@@ -26349,7 +26349,7 @@
         <v>219515.2902175505</v>
       </c>
       <c r="N2" t="n">
-        <v>219515.2902175506</v>
+        <v>219515.2902175505</v>
       </c>
       <c r="O2" t="n">
         <v>219515.2902175505</v>
@@ -26368,43 +26368,43 @@
         <v>399106.8526518422</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>38180.34408023355</v>
       </c>
       <c r="D3" t="n">
-        <v>65327.8903793811</v>
+        <v>51164.61695028653</v>
       </c>
       <c r="E3" t="n">
-        <v>101335.4572062676</v>
+        <v>80646.21400928599</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>181739.8658516835</v>
+        <v>141609.5458603385</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>147997.8543656438</v>
+        <v>186874.998309538</v>
       </c>
       <c r="J3" t="n">
-        <v>13028.5648186049</v>
+        <v>13028.56481860508</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>6091.744777620991</v>
       </c>
       <c r="L3" t="n">
-        <v>10849.99655702615</v>
+        <v>9781.526363727047</v>
       </c>
       <c r="M3" t="n">
-        <v>23639.65040155427</v>
+        <v>18793.20307042404</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>46361.41245424601</v>
+        <v>36124.26218278078</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>30.96378040239005</v>
       </c>
       <c r="C4" t="n">
-        <v>30.96378040239008</v>
+        <v>49.92675977318713</v>
       </c>
       <c r="D4" t="n">
-        <v>67.14558386063672</v>
+        <v>81.37067654131212</v>
       </c>
       <c r="E4" t="n">
-        <v>137.8001180723342</v>
+        <v>137.800118072334</v>
       </c>
       <c r="F4" t="n">
-        <v>137.8001180723342</v>
+        <v>137.800118072334</v>
       </c>
       <c r="G4" t="n">
-        <v>270.7602176271804</v>
+        <v>240.9290091102027</v>
       </c>
       <c r="H4" t="n">
-        <v>270.7602176271805</v>
+        <v>240.9290091102027</v>
       </c>
       <c r="I4" t="n">
         <v>384.3219252469141</v>
@@ -26472,37 +26472,37 @@
         <v>45306.68319048216</v>
       </c>
       <c r="C5" t="n">
-        <v>45306.68319048216</v>
+        <v>47476.75964516138</v>
       </c>
       <c r="D5" t="n">
-        <v>49237.11966583622</v>
+        <v>50823.37311172271</v>
       </c>
       <c r="E5" t="n">
-        <v>23358.20041161359</v>
+        <v>23358.20041161357</v>
       </c>
       <c r="F5" t="n">
-        <v>23358.20041161359</v>
+        <v>23358.20041161357</v>
       </c>
       <c r="G5" t="n">
-        <v>38686.60227808895</v>
+        <v>35301.90916755483</v>
       </c>
       <c r="H5" t="n">
-        <v>38686.60227808895</v>
+        <v>35301.90916755483</v>
       </c>
       <c r="I5" t="n">
+        <v>51571.48185587229</v>
+      </c>
+      <c r="J5" t="n">
         <v>51571.48185587231</v>
-      </c>
-      <c r="J5" t="n">
-        <v>51571.48185587229</v>
       </c>
       <c r="K5" t="n">
         <v>51571.48185587229</v>
       </c>
       <c r="L5" t="n">
+        <v>51571.48185587231</v>
+      </c>
+      <c r="M5" t="n">
         <v>51571.48185587229</v>
-      </c>
-      <c r="M5" t="n">
-        <v>51571.48185587231</v>
       </c>
       <c r="N5" t="n">
         <v>51571.48185587231</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-343625.5038813326</v>
+        <v>-358221.0189666812</v>
       </c>
       <c r="C6" t="n">
-        <v>55481.3487705096</v>
+        <v>9579.103149804319</v>
       </c>
       <c r="D6" t="n">
-        <v>1678.836656272877</v>
+        <v>6251.323612011041</v>
       </c>
       <c r="E6" t="n">
-        <v>16812.24013277824</v>
+        <v>25307.42131072515</v>
       </c>
       <c r="F6" t="n">
-        <v>118147.6973390458</v>
+        <v>105953.6353200111</v>
       </c>
       <c r="G6" t="n">
-        <v>-36740.04171945954</v>
+        <v>-12790.34035909794</v>
       </c>
       <c r="H6" t="n">
-        <v>144999.824132224</v>
+        <v>128819.2055012406</v>
       </c>
       <c r="I6" t="n">
-        <v>19561.63207078753</v>
+        <v>-26928.8919892697</v>
       </c>
       <c r="J6" t="n">
-        <v>154530.9216178264</v>
+        <v>146917.5415016633</v>
       </c>
       <c r="K6" t="n">
-        <v>167559.4864364313</v>
+        <v>153854.3615426474</v>
       </c>
       <c r="L6" t="n">
-        <v>156709.4898794051</v>
+        <v>150164.5799565413</v>
       </c>
       <c r="M6" t="n">
-        <v>143919.8360348771</v>
+        <v>141152.9032498444</v>
       </c>
       <c r="N6" t="n">
-        <v>167559.4864364314</v>
+        <v>159946.1063202684</v>
       </c>
       <c r="O6" t="n">
-        <v>121198.0739821853</v>
+        <v>123821.8441374876</v>
       </c>
       <c r="P6" t="n">
-        <v>167559.4864364313</v>
+        <v>159946.1063202684</v>
       </c>
     </row>
   </sheetData>
@@ -26740,22 +26740,22 @@
         <v>396.859943267568</v>
       </c>
       <c r="C3" t="n">
-        <v>396.859943267568</v>
+        <v>430.3910100719429</v>
       </c>
       <c r="D3" t="n">
-        <v>457.5913187641655</v>
+        <v>476.1157511985022</v>
       </c>
       <c r="E3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="F3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="G3" t="n">
-        <v>714.3085898831931</v>
+        <v>677.6894473581224</v>
       </c>
       <c r="H3" t="n">
-        <v>714.3085898831931</v>
+        <v>677.6894473581224</v>
       </c>
       <c r="I3" t="n">
         <v>853.7106645376848</v>
@@ -26792,37 +26792,37 @@
         <v>49.79500702712463</v>
       </c>
       <c r="C4" t="n">
-        <v>49.79500702712468</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="D4" t="n">
-        <v>92.6649492891022</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="E4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="F4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="G4" t="n">
-        <v>380.175575964397</v>
+        <v>337.6361713017724</v>
       </c>
       <c r="H4" t="n">
-        <v>380.1755759643971</v>
+        <v>337.6361713017724</v>
       </c>
       <c r="I4" t="n">
+        <v>542.1149567261638</v>
+      </c>
+      <c r="J4" t="n">
         <v>542.1149567261641</v>
-      </c>
-      <c r="J4" t="n">
-        <v>542.1149567261638</v>
       </c>
       <c r="K4" t="n">
         <v>542.1149567261639</v>
       </c>
       <c r="L4" t="n">
+        <v>542.1149567261641</v>
+      </c>
+      <c r="M4" t="n">
         <v>542.1149567261639</v>
-      </c>
-      <c r="M4" t="n">
-        <v>542.1149567261641</v>
       </c>
       <c r="N4" t="n">
         <v>542.1149567261641</v>
@@ -26962,25 +26962,25 @@
         <v>396.859943267568</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>33.53106680437492</v>
       </c>
       <c r="D3" t="n">
-        <v>60.73137549659748</v>
+        <v>45.72474112655925</v>
       </c>
       <c r="E3" t="n">
-        <v>90.87862214873928</v>
+        <v>72.35418971440237</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>165.8386489702883</v>
+        <v>129.2195064452178</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>139.4020746544917</v>
+        <v>176.0212171795624</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27014,43 +27014,43 @@
         <v>49.79500702712463</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>23.66939470960278</v>
       </c>
       <c r="D4" t="n">
-        <v>42.86994226197751</v>
+        <v>38.6482583881963</v>
       </c>
       <c r="E4" t="n">
-        <v>94.8606378772179</v>
+        <v>75.41292704139619</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>192.6499887980769</v>
+        <v>150.1105841354525</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>161.939380761767</v>
+        <v>204.4787854243914</v>
       </c>
       <c r="J4" t="n">
-        <v>49.79500702712426</v>
+        <v>49.79500702712494</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>23.66939470960256</v>
       </c>
       <c r="L4" t="n">
-        <v>42.86994226197751</v>
+        <v>38.64825838819652</v>
       </c>
       <c r="M4" t="n">
-        <v>94.86063787721812</v>
+        <v>75.41292704139596</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>192.6499887980769</v>
+        <v>150.1105841354525</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27260,19 +27260,19 @@
         <v>49.79500702712463</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>23.66939470960278</v>
       </c>
       <c r="L4" t="n">
-        <v>42.86994226197751</v>
+        <v>38.6482583881963</v>
       </c>
       <c r="M4" t="n">
-        <v>94.8606378772179</v>
+        <v>75.41292704139619</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>192.6499887980769</v>
+        <v>150.1105841354525</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.595416857357056</v>
+        <v>1.730215115867106</v>
       </c>
       <c r="H5" t="n">
-        <v>16.33906289040796</v>
+        <v>17.719565555374</v>
       </c>
       <c r="I5" t="n">
-        <v>61.50730839325797</v>
+        <v>66.70411825446666</v>
       </c>
       <c r="J5" t="n">
-        <v>135.4090114971086</v>
+        <v>146.8498451903259</v>
       </c>
       <c r="K5" t="n">
-        <v>202.9430070690328</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>251.7687457173739</v>
+        <v>273.0409218971986</v>
       </c>
       <c r="M5" t="n">
-        <v>280.1412402543974</v>
+        <v>303.8106349640001</v>
       </c>
       <c r="N5" t="n">
-        <v>279.2080706237156</v>
+        <v>302.8774653333184</v>
       </c>
       <c r="O5" t="n">
-        <v>268.8097920250189</v>
+        <v>291.5217821035541</v>
       </c>
       <c r="P5" t="n">
-        <v>229.4229383590166</v>
+        <v>248.8070964305848</v>
       </c>
       <c r="Q5" t="n">
-        <v>172.2870721549169</v>
+        <v>186.8437675935941</v>
       </c>
       <c r="R5" t="n">
-        <v>100.2181041659553</v>
+        <v>108.6856252720872</v>
       </c>
       <c r="S5" t="n">
-        <v>36.35556163702395</v>
+        <v>39.42727695282172</v>
       </c>
       <c r="T5" t="n">
-        <v>6.983937293080517</v>
+        <v>7.57401666970826</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1276333485885645</v>
+        <v>0.1384172092693684</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8536232741981653</v>
+        <v>0.9257467009094621</v>
       </c>
       <c r="H6" t="n">
-        <v>8.244203727124386</v>
+        <v>8.940764190362438</v>
       </c>
       <c r="I6" t="n">
-        <v>29.39009957217367</v>
+        <v>31.87329650061087</v>
       </c>
       <c r="J6" t="n">
-        <v>80.64867960308193</v>
+        <v>87.46276177320495</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>149.4877907341389</v>
       </c>
       <c r="L6" t="n">
-        <v>157.3072689909255</v>
+        <v>201.0047825812409</v>
       </c>
       <c r="M6" t="n">
-        <v>191.929040949143</v>
+        <v>215.5984356587457</v>
       </c>
       <c r="N6" t="n">
-        <v>181.136719110458</v>
+        <v>204.8061138200607</v>
       </c>
       <c r="O6" t="n">
-        <v>192.3912514715691</v>
+        <v>212.4600347007232</v>
       </c>
       <c r="P6" t="n">
-        <v>163.0046057545602</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>108.96426215905</v>
+        <v>118.1707543125833</v>
       </c>
       <c r="R6" t="n">
-        <v>52.99952223486505</v>
+        <v>57.47750130734365</v>
       </c>
       <c r="S6" t="n">
-        <v>15.85567792205802</v>
+        <v>17.19533894013846</v>
       </c>
       <c r="T6" t="n">
-        <v>3.440700828895235</v>
+        <v>3.731408851472787</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05615942593408984</v>
+        <v>0.0609043882177278</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7156490780234833</v>
+        <v>0.7761149361953068</v>
       </c>
       <c r="H7" t="n">
-        <v>6.362770893699701</v>
+        <v>6.900367341809188</v>
       </c>
       <c r="I7" t="n">
-        <v>21.52151954637894</v>
+        <v>23.3398928084916</v>
       </c>
       <c r="J7" t="n">
-        <v>50.59638981626026</v>
+        <v>54.87132598900818</v>
       </c>
       <c r="K7" t="n">
-        <v>83.14541106491014</v>
+        <v>90.17044440523654</v>
       </c>
       <c r="L7" t="n">
-        <v>106.3975001999641</v>
+        <v>115.387124241255</v>
       </c>
       <c r="M7" t="n">
-        <v>112.1812459305356</v>
+        <v>121.6595440437789</v>
       </c>
       <c r="N7" t="n">
-        <v>109.5138266397209</v>
+        <v>118.7667520088692</v>
       </c>
       <c r="O7" t="n">
-        <v>101.1537442282647</v>
+        <v>109.7003184360421</v>
       </c>
       <c r="P7" t="n">
-        <v>86.55450303658561</v>
+        <v>93.86757373765779</v>
       </c>
       <c r="Q7" t="n">
-        <v>59.92585143340277</v>
+        <v>64.98904252086338</v>
       </c>
       <c r="R7" t="n">
-        <v>32.17818490821952</v>
+        <v>34.89694976747261</v>
       </c>
       <c r="S7" t="n">
-        <v>12.47181165973652</v>
+        <v>13.52556666078548</v>
       </c>
       <c r="T7" t="n">
-        <v>3.057773333373064</v>
+        <v>3.316127454652674</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0390354042558264</v>
+        <v>0.04233354197428951</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.839563090509207</v>
+        <v>1.914033170647244</v>
       </c>
       <c r="H8" t="n">
-        <v>18.83942550067742</v>
+        <v>19.60209220889109</v>
       </c>
       <c r="I8" t="n">
-        <v>70.91975604685626</v>
+        <v>73.79076381137793</v>
       </c>
       <c r="J8" t="n">
-        <v>156.1306178531059</v>
+        <v>162.4511728172216</v>
       </c>
       <c r="K8" t="n">
-        <v>233.9993234743607</v>
+        <v>243.4721969307195</v>
       </c>
       <c r="L8" t="n">
-        <v>290.2968524055319</v>
+        <v>302.0487895769152</v>
       </c>
       <c r="M8" t="n">
-        <v>323.011182516375</v>
+        <v>336.087476975413</v>
       </c>
       <c r="N8" t="n">
-        <v>322.0780128856931</v>
+        <v>341.5257237215146</v>
       </c>
       <c r="O8" t="n">
-        <v>309.9456856660333</v>
+        <v>322.493056380891</v>
       </c>
       <c r="P8" t="n">
-        <v>264.5314718690873</v>
+        <v>275.2403624805372</v>
       </c>
       <c r="Q8" t="n">
-        <v>198.6521186902262</v>
+        <v>206.6940495567327</v>
       </c>
       <c r="R8" t="n">
-        <v>115.5544549841991</v>
+        <v>120.23238615567</v>
       </c>
       <c r="S8" t="n">
-        <v>41.91904392497859</v>
+        <v>43.61603087612411</v>
       </c>
       <c r="T8" t="n">
-        <v>8.052687428704056</v>
+        <v>8.378680204508314</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1471650472407365</v>
+        <v>0.1531226536517795</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9842530252663183</v>
+        <v>1.024098030879797</v>
       </c>
       <c r="H9" t="n">
-        <v>9.505812112440497</v>
+        <v>9.890630982444359</v>
       </c>
       <c r="I9" t="n">
-        <v>33.88765898395</v>
+        <v>35.25951553687022</v>
       </c>
       <c r="J9" t="n">
-        <v>92.99032639149897</v>
+        <v>96.75480562798998</v>
       </c>
       <c r="K9" t="n">
-        <v>158.9352790843423</v>
+        <v>165.3693736969364</v>
       </c>
       <c r="L9" t="n">
-        <v>213.7080965605662</v>
+        <v>222.3595307837911</v>
       </c>
       <c r="M9" t="n">
-        <v>234.7989832111205</v>
+        <v>254.246694046942</v>
       </c>
       <c r="N9" t="n">
-        <v>224.0066613724355</v>
+        <v>243.454372208257</v>
       </c>
       <c r="O9" t="n">
-        <v>173.959796357658</v>
+        <v>243.6589731628788</v>
       </c>
       <c r="P9" t="n">
-        <v>187.9491588335306</v>
+        <v>141.2741087697572</v>
       </c>
       <c r="Q9" t="n">
-        <v>125.6390352953988</v>
+        <v>130.7252153102001</v>
       </c>
       <c r="R9" t="n">
-        <v>61.11002555118424</v>
+        <v>63.58391107515094</v>
       </c>
       <c r="S9" t="n">
-        <v>18.28206825439849</v>
+        <v>19.0221717577892</v>
       </c>
       <c r="T9" t="n">
-        <v>3.967230395700641</v>
+        <v>4.127833729730409</v>
       </c>
       <c r="U9" t="n">
-        <v>0.06475348850436308</v>
+        <v>0.06737487045261827</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8251646731812819</v>
+        <v>0.8585693874071351</v>
       </c>
       <c r="H10" t="n">
-        <v>7.336464094284494</v>
+        <v>7.633462371674351</v>
       </c>
       <c r="I10" t="n">
-        <v>24.81495217166983</v>
+        <v>25.8195230322073</v>
       </c>
       <c r="J10" t="n">
-        <v>58.33914239391663</v>
+        <v>60.70085568968445</v>
       </c>
       <c r="K10" t="n">
-        <v>95.8691320296071</v>
+        <v>99.75015246421076</v>
       </c>
       <c r="L10" t="n">
-        <v>122.6794824109699</v>
+        <v>127.6458523786935</v>
       </c>
       <c r="M10" t="n">
-        <v>129.3483132696804</v>
+        <v>134.584654064193</v>
       </c>
       <c r="N10" t="n">
-        <v>126.272699487823</v>
+        <v>131.3845318020392</v>
       </c>
       <c r="O10" t="n">
-        <v>116.6332758056598</v>
+        <v>121.354880321874</v>
       </c>
       <c r="P10" t="n">
-        <v>99.79991647276155</v>
+        <v>103.8400648187684</v>
       </c>
       <c r="Q10" t="n">
-        <v>69.09628913338899</v>
+        <v>71.89347843097383</v>
       </c>
       <c r="R10" t="n">
-        <v>37.102404305042</v>
+        <v>38.60440172832445</v>
       </c>
       <c r="S10" t="n">
-        <v>14.38036980444106</v>
+        <v>14.96252286963161</v>
       </c>
       <c r="T10" t="n">
-        <v>3.52570360359275</v>
+        <v>3.668432837103212</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04500898217352452</v>
+        <v>0.04683105749493469</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31755,46 +31755,46 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H11" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I11" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J11" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K11" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L11" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M11" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N11" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O11" t="n">
-        <v>371.5015668622681</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P11" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q11" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R11" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S11" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T11" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,13 +31831,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H12" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I12" t="n">
-        <v>40.61782109590852</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J12" t="n">
         <v>111.4584056340083</v>
@@ -31846,34 +31846,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L12" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M12" t="n">
-        <v>298.9161177975331</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N12" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O12" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P12" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q12" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R12" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S12" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T12" t="n">
-        <v>4.755130902820371</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H13" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I13" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J13" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K13" t="n">
         <v>114.9089482765069</v>
@@ -31934,25 +31934,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O13" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P13" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q13" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R13" t="n">
-        <v>44.47102176647912</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S13" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T13" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,46 +31992,46 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H14" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I14" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J14" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K14" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L14" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M14" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N14" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O14" t="n">
-        <v>371.5015668622681</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P14" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q14" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R14" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S14" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T14" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,13 +32068,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H15" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I15" t="n">
-        <v>40.61782109590852</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J15" t="n">
         <v>111.4584056340083</v>
@@ -32083,34 +32083,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L15" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M15" t="n">
-        <v>298.9161177975331</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N15" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O15" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P15" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q15" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R15" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S15" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T15" t="n">
-        <v>4.755130902820371</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H16" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I16" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J16" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K16" t="n">
         <v>114.9089482765069</v>
@@ -32171,25 +32171,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O16" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P16" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q16" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R16" t="n">
-        <v>44.47102176647912</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S16" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T16" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.871592321138463</v>
+        <v>2.724379687871846</v>
       </c>
       <c r="H17" t="n">
-        <v>29.40869485885929</v>
+        <v>27.90105347841756</v>
       </c>
       <c r="I17" t="n">
-        <v>110.7070629606907</v>
+        <v>105.0316479166795</v>
       </c>
       <c r="J17" t="n">
-        <v>243.7228087662258</v>
+        <v>231.2283205335134</v>
       </c>
       <c r="K17" t="n">
-        <v>365.277311720017</v>
+        <v>346.5513127211287</v>
       </c>
       <c r="L17" t="n">
-        <v>453.1588052180583</v>
+        <v>429.9275475938368</v>
       </c>
       <c r="M17" t="n">
-        <v>504.2264851591045</v>
+        <v>478.3772348680278</v>
       </c>
       <c r="N17" t="n">
-        <v>512.3853968415391</v>
+        <v>486.1178786561937</v>
       </c>
       <c r="O17" t="n">
-        <v>483.8310006982185</v>
+        <v>459.027328134918</v>
       </c>
       <c r="P17" t="n">
-        <v>412.9385652701127</v>
+        <v>391.7692045905817</v>
       </c>
       <c r="Q17" t="n">
-        <v>310.0996652693414</v>
+        <v>294.2023570186711</v>
       </c>
       <c r="R17" t="n">
-        <v>180.3826611427141</v>
+        <v>171.13531556828</v>
       </c>
       <c r="S17" t="n">
-        <v>65.43641001794278</v>
+        <v>62.08180213737977</v>
       </c>
       <c r="T17" t="n">
-        <v>12.57039538578363</v>
+        <v>11.92597208365902</v>
       </c>
       <c r="U17" t="n">
-        <v>0.229727385691077</v>
+        <v>0.2179503750297477</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.536437344277057</v>
+        <v>1.457671641487282</v>
       </c>
       <c r="H18" t="n">
-        <v>14.83875014078105</v>
+        <v>14.07803927436402</v>
       </c>
       <c r="I18" t="n">
-        <v>52.8992682130478</v>
+        <v>50.1873788845402</v>
       </c>
       <c r="J18" t="n">
-        <v>145.1596352327723</v>
+        <v>137.7180036371822</v>
       </c>
       <c r="K18" t="n">
-        <v>248.1009372993351</v>
+        <v>235.3820036168301</v>
       </c>
       <c r="L18" t="n">
-        <v>333.602327756297</v>
+        <v>316.5001518062627</v>
       </c>
       <c r="M18" t="n">
-        <v>389.2981814863402</v>
+        <v>369.3407488101766</v>
       </c>
       <c r="N18" t="n">
-        <v>399.6017459573912</v>
+        <v>379.116099423484</v>
       </c>
       <c r="O18" t="n">
-        <v>365.557529013147</v>
+        <v>346.8171646305289</v>
       </c>
       <c r="P18" t="n">
-        <v>293.3921451540987</v>
+        <v>278.351350557339</v>
       </c>
       <c r="Q18" t="n">
-        <v>196.1248792449099</v>
+        <v>186.0705063765169</v>
       </c>
       <c r="R18" t="n">
-        <v>95.39389055081591</v>
+        <v>90.50350770567532</v>
       </c>
       <c r="S18" t="n">
-        <v>28.53864979391812</v>
+        <v>27.07561141095893</v>
       </c>
       <c r="T18" t="n">
-        <v>6.192920699081644</v>
+        <v>5.875439642661455</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1010814042287538</v>
+        <v>0.09589945009784755</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.288097457166414</v>
+        <v>1.222062937858909</v>
       </c>
       <c r="H19" t="n">
-        <v>11.45235739189776</v>
+        <v>10.86525048387285</v>
       </c>
       <c r="I19" t="n">
-        <v>38.73660353005907</v>
+        <v>36.75076544033884</v>
       </c>
       <c r="J19" t="n">
-        <v>91.06849022166544</v>
+        <v>86.39984970662486</v>
       </c>
       <c r="K19" t="n">
-        <v>149.6535045689706</v>
+        <v>141.9814940530623</v>
       </c>
       <c r="L19" t="n">
-        <v>191.5049619499958</v>
+        <v>181.6874298704055</v>
       </c>
       <c r="M19" t="n">
-        <v>201.915131399277</v>
+        <v>191.5639203409197</v>
       </c>
       <c r="N19" t="n">
-        <v>197.1140408771114</v>
+        <v>187.0089584816276</v>
       </c>
       <c r="O19" t="n">
-        <v>182.066720582031</v>
+        <v>172.7330414348211</v>
       </c>
       <c r="P19" t="n">
-        <v>155.789532455836</v>
+        <v>147.8029575024993</v>
       </c>
       <c r="Q19" t="n">
-        <v>107.8605970723622</v>
+        <v>102.3311065510765</v>
       </c>
       <c r="R19" t="n">
-        <v>57.91754566495528</v>
+        <v>54.94839355136511</v>
       </c>
       <c r="S19" t="n">
-        <v>22.44802568534558</v>
+        <v>21.29722410795934</v>
       </c>
       <c r="T19" t="n">
-        <v>5.503689135165584</v>
+        <v>5.221541643578973</v>
       </c>
       <c r="U19" t="n">
-        <v>0.07025986129998628</v>
+        <v>0.06665797842866784</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.871592321138463</v>
+        <v>2.724379687871846</v>
       </c>
       <c r="H20" t="n">
-        <v>29.40869485885929</v>
+        <v>27.90105347841756</v>
       </c>
       <c r="I20" t="n">
-        <v>110.7070629606907</v>
+        <v>105.0316479166795</v>
       </c>
       <c r="J20" t="n">
-        <v>243.7228087662258</v>
+        <v>231.2283205335134</v>
       </c>
       <c r="K20" t="n">
-        <v>365.277311720017</v>
+        <v>346.5513127211287</v>
       </c>
       <c r="L20" t="n">
-        <v>453.1588052180583</v>
+        <v>429.9275475938368</v>
       </c>
       <c r="M20" t="n">
-        <v>504.2264851591045</v>
+        <v>478.3772348680278</v>
       </c>
       <c r="N20" t="n">
-        <v>512.3853968415391</v>
+        <v>486.1178786561937</v>
       </c>
       <c r="O20" t="n">
-        <v>483.8310006982185</v>
+        <v>459.027328134918</v>
       </c>
       <c r="P20" t="n">
-        <v>412.9385652701127</v>
+        <v>391.7692045905817</v>
       </c>
       <c r="Q20" t="n">
-        <v>310.0996652693414</v>
+        <v>294.2023570186711</v>
       </c>
       <c r="R20" t="n">
-        <v>180.3826611427141</v>
+        <v>171.13531556828</v>
       </c>
       <c r="S20" t="n">
-        <v>65.43641001794278</v>
+        <v>62.08180213737977</v>
       </c>
       <c r="T20" t="n">
-        <v>12.57039538578363</v>
+        <v>11.92597208365902</v>
       </c>
       <c r="U20" t="n">
-        <v>0.229727385691077</v>
+        <v>0.2179503750297477</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.536437344277057</v>
+        <v>1.457671641487282</v>
       </c>
       <c r="H21" t="n">
-        <v>14.83875014078105</v>
+        <v>14.07803927436402</v>
       </c>
       <c r="I21" t="n">
-        <v>52.8992682130478</v>
+        <v>50.1873788845402</v>
       </c>
       <c r="J21" t="n">
-        <v>145.1596352327723</v>
+        <v>137.7180036371822</v>
       </c>
       <c r="K21" t="n">
-        <v>248.1009372993351</v>
+        <v>235.3820036168301</v>
       </c>
       <c r="L21" t="n">
-        <v>333.602327756297</v>
+        <v>316.5001518062627</v>
       </c>
       <c r="M21" t="n">
-        <v>389.2981814863402</v>
+        <v>369.3407488101766</v>
       </c>
       <c r="N21" t="n">
-        <v>399.6017459573912</v>
+        <v>379.116099423484</v>
       </c>
       <c r="O21" t="n">
-        <v>365.557529013147</v>
+        <v>346.8171646305289</v>
       </c>
       <c r="P21" t="n">
-        <v>293.3921451540987</v>
+        <v>278.351350557339</v>
       </c>
       <c r="Q21" t="n">
-        <v>196.1248792449099</v>
+        <v>186.0705063765169</v>
       </c>
       <c r="R21" t="n">
-        <v>95.39389055081591</v>
+        <v>90.50350770567532</v>
       </c>
       <c r="S21" t="n">
-        <v>28.53864979391812</v>
+        <v>27.07561141095893</v>
       </c>
       <c r="T21" t="n">
-        <v>6.192920699081644</v>
+        <v>5.875439642661455</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1010814042287538</v>
+        <v>0.09589945009784755</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.288097457166414</v>
+        <v>1.222062937858909</v>
       </c>
       <c r="H22" t="n">
-        <v>11.45235739189776</v>
+        <v>10.86525048387285</v>
       </c>
       <c r="I22" t="n">
-        <v>38.73660353005907</v>
+        <v>36.75076544033884</v>
       </c>
       <c r="J22" t="n">
-        <v>91.06849022166544</v>
+        <v>86.39984970662486</v>
       </c>
       <c r="K22" t="n">
-        <v>149.6535045689706</v>
+        <v>141.9814940530623</v>
       </c>
       <c r="L22" t="n">
-        <v>191.5049619499958</v>
+        <v>181.6874298704055</v>
       </c>
       <c r="M22" t="n">
-        <v>201.915131399277</v>
+        <v>191.5639203409197</v>
       </c>
       <c r="N22" t="n">
-        <v>197.1140408771114</v>
+        <v>187.0089584816276</v>
       </c>
       <c r="O22" t="n">
-        <v>182.066720582031</v>
+        <v>172.7330414348211</v>
       </c>
       <c r="P22" t="n">
-        <v>155.789532455836</v>
+        <v>147.8029575024993</v>
       </c>
       <c r="Q22" t="n">
-        <v>107.8605970723622</v>
+        <v>102.3311065510765</v>
       </c>
       <c r="R22" t="n">
-        <v>57.91754566495528</v>
+        <v>54.94839355136511</v>
       </c>
       <c r="S22" t="n">
-        <v>22.44802568534558</v>
+        <v>21.29722410795934</v>
       </c>
       <c r="T22" t="n">
-        <v>5.503689135165584</v>
+        <v>5.221541643578973</v>
       </c>
       <c r="U22" t="n">
-        <v>0.07025986129998628</v>
+        <v>0.06665797842866784</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34941,19 +34941,19 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>16.00233074738662</v>
+        <v>37.27450692721135</v>
       </c>
       <c r="M5" t="n">
-        <v>49.79500702712468</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="N5" t="n">
-        <v>49.79500702712468</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="O5" t="n">
-        <v>38.71158060333218</v>
+        <v>61.42357068186735</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>17.57410067531529</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>11.64635175977992</v>
       </c>
       <c r="L6" t="n">
-        <v>18.75288921105134</v>
+        <v>62.45040280136672</v>
       </c>
       <c r="M6" t="n">
-        <v>49.79500702712468</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="N6" t="n">
-        <v>49.79500702712468</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="O6" t="n">
-        <v>49.79500702712468</v>
+        <v>69.86379025627879</v>
       </c>
       <c r="P6" t="n">
-        <v>29.03019834022993</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>13.90947242938014</v>
+        <v>23.38234588573897</v>
       </c>
       <c r="L8" t="n">
-        <v>54.53043743554463</v>
+        <v>66.28237460692793</v>
       </c>
       <c r="M8" t="n">
-        <v>92.6649492891022</v>
+        <v>105.7412437481403</v>
       </c>
       <c r="N8" t="n">
-        <v>92.6649492891022</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="O8" t="n">
-        <v>79.84747424434661</v>
+        <v>92.39484495920428</v>
       </c>
       <c r="P8" t="n">
-        <v>33.29847611381774</v>
+        <v>44.00736672526762</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>21.09384010998329</v>
+        <v>27.52793472257738</v>
       </c>
       <c r="L9" t="n">
-        <v>75.15371678069201</v>
+        <v>83.8051510039169</v>
       </c>
       <c r="M9" t="n">
-        <v>92.6649492891022</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="N9" t="n">
-        <v>92.6649492891022</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="O9" t="n">
-        <v>31.36355191321351</v>
+        <v>101.0627287184343</v>
       </c>
       <c r="P9" t="n">
-        <v>53.97475141920032</v>
+        <v>7.299701355426945</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35342,7 +35342,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>3.698987336806027</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>6.092590538868137</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K11" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L11" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M11" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N11" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O11" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P11" t="n">
-        <v>85.83499656916001</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q11" t="n">
-        <v>15.79916774065984</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L12" t="n">
-        <v>117.5966053606292</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M12" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N12" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O12" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P12" t="n">
-        <v>91.30185944855702</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q12" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35573,16 +35573,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>12.15921574646083</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M13" t="n">
-        <v>16.11138312061158</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N13" t="n">
-        <v>23.66518529520832</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O13" t="n">
-        <v>1.340357307400581</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>6.092590538868137</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K14" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L14" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M14" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N14" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O14" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P14" t="n">
-        <v>85.83499656916001</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q14" t="n">
-        <v>15.79916774065984</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L15" t="n">
-        <v>117.5966053606292</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M15" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N15" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O15" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P15" t="n">
-        <v>91.30185944855702</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q15" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35810,16 +35810,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>12.15921574646083</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M16" t="n">
-        <v>16.11138312061158</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N16" t="n">
-        <v>23.66518529520832</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O16" t="n">
-        <v>1.340357307400581</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>62.67690423953954</v>
+        <v>50.18241600682708</v>
       </c>
       <c r="K17" t="n">
-        <v>145.1874606750364</v>
+        <v>126.4614616761481</v>
       </c>
       <c r="L17" t="n">
-        <v>217.3923902480711</v>
+        <v>194.1611326238496</v>
       </c>
       <c r="M17" t="n">
-        <v>273.8802519318317</v>
+        <v>248.031001640755</v>
       </c>
       <c r="N17" t="n">
-        <v>282.9723332449482</v>
+        <v>256.7048150596028</v>
       </c>
       <c r="O17" t="n">
-        <v>253.7327892765318</v>
+        <v>228.9291167132313</v>
       </c>
       <c r="P17" t="n">
-        <v>181.7055695148431</v>
+        <v>160.5362088353122</v>
       </c>
       <c r="Q17" t="n">
-        <v>87.79397539489187</v>
+        <v>71.8966671442216</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>18.32200856610564</v>
+        <v>10.88037697051553</v>
       </c>
       <c r="K18" t="n">
-        <v>110.2594983249761</v>
+        <v>97.54056464247114</v>
       </c>
       <c r="L18" t="n">
-        <v>195.0479479764228</v>
+        <v>177.9457720263886</v>
       </c>
       <c r="M18" t="n">
-        <v>247.1641475643219</v>
+        <v>227.2067148881583</v>
       </c>
       <c r="N18" t="n">
-        <v>268.260033874058</v>
+        <v>247.7743873401507</v>
       </c>
       <c r="O18" t="n">
-        <v>222.9612845687025</v>
+        <v>204.2209201860845</v>
       </c>
       <c r="P18" t="n">
-        <v>159.4177377397685</v>
+        <v>144.3769431430088</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.14310515888843</v>
+        <v>46.08873229049541</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>20.64024639843521</v>
+        <v>12.96823588252693</v>
       </c>
       <c r="L19" t="n">
-        <v>56.62028566875748</v>
+        <v>46.8027535891672</v>
       </c>
       <c r="M19" t="n">
-        <v>62.98934745167193</v>
+        <v>52.63813639331465</v>
       </c>
       <c r="N19" t="n">
-        <v>69.42849641187823</v>
+        <v>59.32341401639437</v>
       </c>
       <c r="O19" t="n">
-        <v>43.61018213018818</v>
+        <v>34.27650298297834</v>
       </c>
       <c r="P19" t="n">
-        <v>18.06152840668838</v>
+        <v>10.07495345335167</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>62.67690423953954</v>
+        <v>50.18241600682708</v>
       </c>
       <c r="K20" t="n">
-        <v>145.1874606750364</v>
+        <v>126.4614616761481</v>
       </c>
       <c r="L20" t="n">
-        <v>217.3923902480711</v>
+        <v>194.1611326238496</v>
       </c>
       <c r="M20" t="n">
-        <v>273.8802519318317</v>
+        <v>248.031001640755</v>
       </c>
       <c r="N20" t="n">
-        <v>282.9723332449482</v>
+        <v>256.7048150596028</v>
       </c>
       <c r="O20" t="n">
-        <v>253.7327892765318</v>
+        <v>228.9291167132313</v>
       </c>
       <c r="P20" t="n">
-        <v>181.7055695148431</v>
+        <v>160.5362088353122</v>
       </c>
       <c r="Q20" t="n">
-        <v>87.79397539489187</v>
+        <v>71.8966671442216</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>18.32200856610564</v>
+        <v>10.88037697051553</v>
       </c>
       <c r="K21" t="n">
-        <v>110.2594983249761</v>
+        <v>97.54056464247114</v>
       </c>
       <c r="L21" t="n">
-        <v>195.0479479764228</v>
+        <v>177.9457720263886</v>
       </c>
       <c r="M21" t="n">
-        <v>247.1641475643219</v>
+        <v>227.2067148881583</v>
       </c>
       <c r="N21" t="n">
-        <v>268.260033874058</v>
+        <v>247.7743873401507</v>
       </c>
       <c r="O21" t="n">
-        <v>222.9612845687025</v>
+        <v>204.2209201860845</v>
       </c>
       <c r="P21" t="n">
-        <v>159.4177377397685</v>
+        <v>144.3769431430088</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.14310515888843</v>
+        <v>46.08873229049541</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>20.64024639843521</v>
+        <v>12.96823588252693</v>
       </c>
       <c r="L22" t="n">
-        <v>56.62028566875748</v>
+        <v>46.8027535891672</v>
       </c>
       <c r="M22" t="n">
-        <v>62.98934745167193</v>
+        <v>52.63813639331465</v>
       </c>
       <c r="N22" t="n">
-        <v>69.42849641187823</v>
+        <v>59.32341401639437</v>
       </c>
       <c r="O22" t="n">
-        <v>43.61018213018818</v>
+        <v>34.27650298297834</v>
       </c>
       <c r="P22" t="n">
-        <v>18.06152840668838</v>
+        <v>10.07495345335167</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
